--- a/card_info.xlsx
+++ b/card_info.xlsx
@@ -3208,8 +3208,8 @@
   <dimension ref="A1:J482"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <pane ySplit="1" topLeftCell="A459" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B482" sqref="B482"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3260,7 +3260,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>139</v>
@@ -3288,7 +3288,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>106</v>
@@ -3320,7 +3320,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>84</v>
@@ -3350,7 +3350,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>34</v>
@@ -3380,7 +3380,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>56</v>
@@ -3410,7 +3410,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>108</v>
@@ -3442,7 +3442,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>141</v>
@@ -3472,7 +3472,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>158</v>
@@ -3502,7 +3502,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>162</v>
@@ -3532,7 +3532,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>168</v>
@@ -3564,7 +3564,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>171</v>
@@ -3594,7 +3594,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>173</v>
@@ -3624,7 +3624,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>177</v>
@@ -3654,7 +3654,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>147</v>
@@ -3686,7 +3686,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>152</v>
@@ -3716,7 +3716,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>156</v>
@@ -3748,7 +3748,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>160</v>
@@ -3778,7 +3778,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>163</v>
@@ -3810,7 +3810,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>165</v>
@@ -3840,7 +3840,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>143</v>
@@ -3872,7 +3872,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>145</v>
@@ -3902,7 +3902,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>150</v>
@@ -3932,7 +3932,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>153</v>
@@ -3964,7 +3964,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>170</v>
@@ -3996,7 +3996,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>18</v>
@@ -4028,7 +4028,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>175</v>
@@ -4060,7 +4060,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>102</v>
@@ -4092,7 +4092,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>167</v>
@@ -4122,7 +4122,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>183</v>
@@ -4152,7 +4152,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>221</v>
@@ -4182,7 +4182,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>109</v>
@@ -4214,7 +4214,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>179</v>
@@ -4244,7 +4244,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>185</v>
@@ -4274,7 +4274,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>199</v>
@@ -4306,7 +4306,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>205</v>
@@ -4336,7 +4336,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>213</v>
@@ -4366,7 +4366,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>37</v>
@@ -4396,7 +4396,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>234</v>
@@ -4426,7 +4426,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>236</v>
@@ -4456,7 +4456,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>181</v>
@@ -4486,7 +4486,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>188</v>
@@ -4518,7 +4518,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>231</v>
@@ -4548,7 +4548,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>232</v>
@@ -4578,7 +4578,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>47</v>
@@ -4608,7 +4608,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>193</v>
@@ -4638,7 +4638,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>128</v>
@@ -4668,7 +4668,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>71</v>
@@ -4698,7 +4698,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>195</v>
@@ -4730,7 +4730,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>202</v>
@@ -4760,7 +4760,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>207</v>
@@ -4790,7 +4790,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>217</v>
@@ -4820,7 +4820,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>229</v>
@@ -4850,7 +4850,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>22</v>
@@ -4882,7 +4882,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>125</v>
@@ -4912,7 +4912,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>215</v>
@@ -4942,7 +4942,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>219</v>
@@ -4972,7 +4972,7 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>190</v>
@@ -5004,7 +5004,7 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>203</v>
@@ -5036,7 +5036,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>209</v>
@@ -5066,7 +5066,7 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>223</v>
@@ -5098,7 +5098,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>24</v>
@@ -5130,7 +5130,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>186</v>
@@ -5160,7 +5160,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>191</v>
@@ -5192,7 +5192,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>227</v>
@@ -5222,7 +5222,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>74</v>
@@ -5252,7 +5252,7 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>197</v>
@@ -5282,7 +5282,7 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>87</v>
@@ -5314,7 +5314,7 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>59</v>
@@ -5344,7 +5344,7 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>211</v>
@@ -5374,7 +5374,7 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>225</v>
@@ -5404,7 +5404,7 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>265</v>
@@ -5434,7 +5434,7 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>270</v>
@@ -5466,7 +5466,7 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>111</v>
@@ -5498,7 +5498,7 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>39</v>
@@ -5528,7 +5528,7 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>50</v>
@@ -5558,7 +5558,7 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>246</v>
@@ -5588,7 +5588,7 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>255</v>
@@ -5618,7 +5618,7 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>268</v>
@@ -5650,7 +5650,7 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>273</v>
@@ -5680,7 +5680,7 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>275</v>
@@ -5712,7 +5712,7 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>279</v>
@@ -5742,7 +5742,7 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>78</v>
@@ -5772,7 +5772,7 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>289</v>
@@ -5804,7 +5804,7 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>294</v>
@@ -5834,7 +5834,7 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>113</v>
@@ -5866,7 +5866,7 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>242</v>
@@ -5896,7 +5896,7 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>244</v>
@@ -5926,7 +5926,7 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>269</v>
@@ -5958,7 +5958,7 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>130</v>
@@ -5988,7 +5988,7 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>92</v>
@@ -6018,7 +6018,7 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>286</v>
@@ -6048,7 +6048,7 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>250</v>
@@ -6080,7 +6080,7 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>257</v>
@@ -6112,7 +6112,7 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>259</v>
@@ -6142,7 +6142,7 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>261</v>
@@ -6172,7 +6172,7 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>283</v>
@@ -6202,7 +6202,7 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>291</v>
@@ -6232,7 +6232,7 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>293</v>
@@ -6262,7 +6262,7 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>132</v>
@@ -6292,7 +6292,7 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>272</v>
@@ -6320,7 +6320,7 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>263</v>
@@ -6350,7 +6350,7 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>248</v>
@@ -6382,7 +6382,7 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>76</v>
@@ -6412,7 +6412,7 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>267</v>
@@ -6442,7 +6442,7 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>277</v>
@@ -6472,7 +6472,7 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>281</v>
@@ -6502,7 +6502,7 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>252</v>
@@ -6532,7 +6532,7 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>253</v>
@@ -6562,7 +6562,7 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>288</v>
@@ -6594,7 +6594,7 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>285</v>
@@ -6624,7 +6624,7 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>296</v>
@@ -6654,7 +6654,7 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>238</v>
@@ -6684,7 +6684,7 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>240</v>
@@ -6714,7 +6714,7 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>90</v>
@@ -6746,7 +6746,7 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>115</v>
@@ -6778,7 +6778,7 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>297</v>
@@ -6808,7 +6808,7 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>300</v>
@@ -6836,7 +6836,7 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>43</v>
@@ -6866,7 +6866,7 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>303</v>
@@ -6896,7 +6896,7 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>80</v>
@@ -6926,7 +6926,7 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>315</v>
@@ -6956,7 +6956,7 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>61</v>
@@ -6986,7 +6986,7 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>318</v>
@@ -7016,7 +7016,7 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>324</v>
@@ -7046,7 +7046,7 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>314</v>
@@ -7076,7 +7076,7 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>311</v>
@@ -7106,7 +7106,7 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>26</v>
@@ -7136,7 +7136,7 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>136</v>
@@ -7166,7 +7166,7 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>320</v>
@@ -7196,7 +7196,7 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>298</v>
@@ -7226,7 +7226,7 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>321</v>
@@ -7256,7 +7256,7 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>134</v>
@@ -7286,7 +7286,7 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>308</v>
@@ -7318,7 +7318,7 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>41</v>
@@ -7348,7 +7348,7 @@
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>319</v>
@@ -7378,7 +7378,7 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>94</v>
@@ -7408,7 +7408,7 @@
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>301</v>
@@ -7438,7 +7438,7 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>306</v>
@@ -7468,7 +7468,7 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>310</v>
@@ -7498,7 +7498,7 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>0</v>
@@ -7528,7 +7528,7 @@
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>316</v>
@@ -7560,7 +7560,7 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>313</v>
@@ -7590,7 +7590,7 @@
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>304</v>
@@ -7620,7 +7620,7 @@
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>322</v>
@@ -7652,7 +7652,7 @@
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>63</v>
@@ -7682,7 +7682,7 @@
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>117</v>
@@ -7712,7 +7712,7 @@
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>96</v>
@@ -7742,7 +7742,7 @@
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>359</v>
@@ -7772,7 +7772,7 @@
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>119</v>
@@ -7804,7 +7804,7 @@
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>335</v>
@@ -7834,7 +7834,7 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>358</v>
@@ -7866,7 +7866,7 @@
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>352</v>
@@ -7896,7 +7896,7 @@
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>330</v>
@@ -7926,7 +7926,7 @@
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>331</v>
@@ -7958,7 +7958,7 @@
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>346</v>
@@ -7988,7 +7988,7 @@
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>333</v>
@@ -8018,7 +8018,7 @@
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>339</v>
@@ -8048,7 +8048,7 @@
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>326</v>
@@ -8078,7 +8078,7 @@
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>328</v>
@@ -8110,7 +8110,7 @@
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>4</v>
@@ -8140,7 +8140,7 @@
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>340</v>
@@ -8170,7 +8170,7 @@
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>342</v>
@@ -8200,7 +8200,7 @@
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>348</v>
@@ -8230,7 +8230,7 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>350</v>
@@ -8260,7 +8260,7 @@
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>354</v>
@@ -8292,7 +8292,7 @@
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>344</v>
@@ -8322,7 +8322,7 @@
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>28</v>
@@ -8354,7 +8354,7 @@
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>337</v>
@@ -8384,7 +8384,7 @@
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>356</v>
@@ -8414,7 +8414,7 @@
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>383</v>
@@ -8446,7 +8446,7 @@
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>364</v>
@@ -8474,7 +8474,7 @@
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>121</v>
@@ -8506,7 +8506,7 @@
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>369</v>
@@ -8536,7 +8536,7 @@
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>67</v>
@@ -8566,7 +8566,7 @@
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>373</v>
@@ -8598,7 +8598,7 @@
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>98</v>
@@ -8628,7 +8628,7 @@
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>375</v>
@@ -8658,7 +8658,7 @@
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>30</v>
@@ -8690,7 +8690,7 @@
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>361</v>
@@ -8720,7 +8720,7 @@
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>367</v>
@@ -8750,7 +8750,7 @@
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>381</v>
@@ -8780,7 +8780,7 @@
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>376</v>
@@ -8810,7 +8810,7 @@
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>65</v>
@@ -8840,7 +8840,7 @@
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>365</v>
@@ -8870,7 +8870,7 @@
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>379</v>
@@ -8900,7 +8900,7 @@
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>385</v>
@@ -8930,7 +8930,7 @@
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>387</v>
@@ -8960,7 +8960,7 @@
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>371</v>
@@ -8990,7 +8990,7 @@
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>82</v>
@@ -9020,7 +9020,7 @@
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>378</v>
@@ -9050,7 +9050,7 @@
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>362</v>
@@ -9080,7 +9080,7 @@
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>69</v>
@@ -9110,7 +9110,7 @@
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>394</v>
@@ -9138,7 +9138,7 @@
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>390</v>
@@ -9168,7 +9168,7 @@
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>392</v>
@@ -9198,7 +9198,7 @@
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>388</v>
@@ -9228,7 +9228,7 @@
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>391</v>
@@ -9258,7 +9258,7 @@
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>45</v>
@@ -9288,7 +9288,7 @@
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>52</v>
@@ -9318,7 +9318,7 @@
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>7</v>
@@ -9348,7 +9348,7 @@
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>10</v>
@@ -9378,7 +9378,7 @@
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>12</v>
@@ -9408,7 +9408,7 @@
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>397</v>
@@ -9438,7 +9438,7 @@
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>395</v>
@@ -9468,7 +9468,7 @@
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>54</v>
@@ -9498,7 +9498,7 @@
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>137</v>
@@ -9528,7 +9528,7 @@
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>100</v>
@@ -9558,7 +9558,7 @@
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>399</v>
@@ -9590,7 +9590,7 @@
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>32</v>
@@ -9622,7 +9622,7 @@
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>403</v>
@@ -9654,7 +9654,7 @@
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>405</v>
@@ -9686,7 +9686,7 @@
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>401</v>
@@ -9718,7 +9718,7 @@
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>407</v>
@@ -9750,7 +9750,7 @@
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>123</v>
@@ -9782,7 +9782,7 @@
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>15</v>
@@ -9812,7 +9812,7 @@
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>409</v>
@@ -9844,7 +9844,7 @@
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>411</v>
@@ -9874,7 +9874,7 @@
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>413</v>
@@ -9904,7 +9904,7 @@
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>415</v>
@@ -9934,7 +9934,7 @@
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>536</v>
@@ -9957,7 +9957,7 @@
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>538</v>
@@ -9980,7 +9980,7 @@
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>540</v>
@@ -10003,7 +10003,7 @@
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>542</v>
@@ -10026,7 +10026,7 @@
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>544</v>
@@ -10049,7 +10049,7 @@
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>546</v>
@@ -10072,7 +10072,7 @@
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>548</v>
@@ -10095,7 +10095,7 @@
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>550</v>
@@ -10118,7 +10118,7 @@
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>552</v>
@@ -10141,7 +10141,7 @@
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>554</v>
@@ -10164,7 +10164,7 @@
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>556</v>
@@ -10187,7 +10187,7 @@
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>558</v>
@@ -10210,7 +10210,7 @@
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>560</v>
@@ -10233,7 +10233,7 @@
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>562</v>
@@ -10256,7 +10256,7 @@
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>564</v>
@@ -10279,7 +10279,7 @@
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>566</v>
@@ -10302,7 +10302,7 @@
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>568</v>
@@ -10325,7 +10325,7 @@
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>570</v>
@@ -10348,7 +10348,7 @@
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>572</v>
@@ -10371,7 +10371,7 @@
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>574</v>
@@ -10394,7 +10394,7 @@
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>576</v>
@@ -10417,7 +10417,7 @@
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>578</v>
@@ -10440,7 +10440,7 @@
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>580</v>
@@ -10463,7 +10463,7 @@
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>582</v>
@@ -10486,7 +10486,7 @@
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B245" s="4" t="s">
         <v>584</v>
@@ -10509,7 +10509,7 @@
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B246" s="4" t="s">
         <v>586</v>
@@ -10532,7 +10532,7 @@
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B247" s="4" t="s">
         <v>588</v>
@@ -10555,7 +10555,7 @@
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B248" s="4" t="s">
         <v>590</v>
@@ -10578,7 +10578,7 @@
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B249" s="4" t="s">
         <v>592</v>
@@ -10601,7 +10601,7 @@
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>594</v>
@@ -10624,7 +10624,7 @@
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>596</v>
@@ -10647,7 +10647,7 @@
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>598</v>
@@ -10670,7 +10670,7 @@
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>600</v>
@@ -10693,7 +10693,7 @@
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B254" s="2" t="s">
         <v>602</v>
@@ -10716,7 +10716,7 @@
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>604</v>
@@ -10739,7 +10739,7 @@
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B256" s="2" t="s">
         <v>606</v>
@@ -10762,7 +10762,7 @@
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B257" s="2" t="s">
         <v>608</v>
@@ -10785,7 +10785,7 @@
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>422</v>
@@ -10808,7 +10808,7 @@
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>611</v>
@@ -10831,7 +10831,7 @@
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>613</v>
@@ -10854,7 +10854,7 @@
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B261" s="2" t="s">
         <v>615</v>
@@ -10877,7 +10877,7 @@
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>617</v>
@@ -10900,7 +10900,7 @@
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>619</v>
@@ -10923,7 +10923,7 @@
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>621</v>
@@ -10946,7 +10946,7 @@
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>623</v>
@@ -10969,7 +10969,7 @@
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B266" s="2" t="s">
         <v>625</v>
@@ -10992,7 +10992,7 @@
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>432</v>
@@ -11015,7 +11015,7 @@
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>628</v>
@@ -11038,7 +11038,7 @@
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B269" s="2" t="s">
         <v>630</v>
@@ -11061,7 +11061,7 @@
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>632</v>
@@ -11084,7 +11084,7 @@
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B271" s="2" t="s">
         <v>634</v>
@@ -11107,7 +11107,7 @@
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B272" s="2" t="s">
         <v>636</v>
@@ -11130,7 +11130,7 @@
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B273" s="2" t="s">
         <v>638</v>
@@ -11153,7 +11153,7 @@
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>640</v>
@@ -11176,7 +11176,7 @@
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>642</v>
@@ -11199,7 +11199,7 @@
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B276" s="2" t="s">
         <v>644</v>
@@ -11222,7 +11222,7 @@
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B277" s="2" t="s">
         <v>646</v>
@@ -11245,7 +11245,7 @@
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>648</v>
@@ -11268,7 +11268,7 @@
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B279" s="2" t="s">
         <v>650</v>
@@ -11291,7 +11291,7 @@
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B280" s="2" t="s">
         <v>652</v>
@@ -11314,7 +11314,7 @@
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B281" s="2" t="s">
         <v>654</v>
@@ -11337,7 +11337,7 @@
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B282" s="2" t="s">
         <v>656</v>
@@ -11360,7 +11360,7 @@
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B283" s="2" t="s">
         <v>658</v>
@@ -11383,7 +11383,7 @@
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B284" s="2" t="s">
         <v>660</v>
@@ -11406,7 +11406,7 @@
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B285" s="2" t="s">
         <v>662</v>
@@ -11429,7 +11429,7 @@
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B286" s="2" t="s">
         <v>664</v>
@@ -11452,7 +11452,7 @@
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B287" s="2" t="s">
         <v>666</v>
@@ -11475,7 +11475,7 @@
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B288" s="2" t="s">
         <v>668</v>
@@ -11498,7 +11498,7 @@
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B289" s="2" t="s">
         <v>670</v>
@@ -11521,7 +11521,7 @@
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B290" s="2" t="s">
         <v>672</v>
@@ -11544,7 +11544,7 @@
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B291" s="2" t="s">
         <v>674</v>
@@ -11567,7 +11567,7 @@
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B292" s="2" t="s">
         <v>676</v>
@@ -11590,7 +11590,7 @@
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B293" s="2" t="s">
         <v>678</v>
@@ -11613,7 +11613,7 @@
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>680</v>
@@ -11636,7 +11636,7 @@
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B295" s="2" t="s">
         <v>682</v>
@@ -11659,7 +11659,7 @@
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>683</v>
@@ -11682,7 +11682,7 @@
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>685</v>
@@ -11705,7 +11705,7 @@
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B298" s="2" t="s">
         <v>687</v>
@@ -11728,7 +11728,7 @@
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B299" s="2" t="s">
         <v>689</v>
@@ -11751,7 +11751,7 @@
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B300" s="2" t="s">
         <v>691</v>
@@ -11774,7 +11774,7 @@
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B301" s="2" t="s">
         <v>693</v>
@@ -11797,7 +11797,7 @@
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B302" s="2" t="s">
         <v>695</v>
@@ -11820,7 +11820,7 @@
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B303" s="2" t="s">
         <v>697</v>
@@ -11843,7 +11843,7 @@
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B304" s="2" t="s">
         <v>699</v>
@@ -11866,7 +11866,7 @@
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>701</v>
@@ -11889,7 +11889,7 @@
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B306" s="2" t="s">
         <v>703</v>
@@ -11912,7 +11912,7 @@
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B307" s="2" t="s">
         <v>705</v>
@@ -11935,7 +11935,7 @@
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>707</v>
@@ -11958,7 +11958,7 @@
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B309" s="5" t="s">
         <v>709</v>
@@ -11981,7 +11981,7 @@
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B310" s="5" t="s">
         <v>711</v>
@@ -12004,7 +12004,7 @@
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B311" s="2" t="s">
         <v>713</v>
@@ -12027,7 +12027,7 @@
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>715</v>
@@ -12050,7 +12050,7 @@
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B313" s="2" t="s">
         <v>717</v>
@@ -12073,7 +12073,7 @@
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B314" s="2" t="s">
         <v>719</v>
@@ -12096,7 +12096,7 @@
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B315" s="2" t="s">
         <v>721</v>
@@ -12119,7 +12119,7 @@
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B316" s="2" t="s">
         <v>723</v>
@@ -12142,7 +12142,7 @@
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B317" s="2" t="s">
         <v>725</v>
@@ -12165,7 +12165,7 @@
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B318" s="2" t="s">
         <v>727</v>
@@ -12188,7 +12188,7 @@
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B319" s="2" t="s">
         <v>729</v>
@@ -12211,7 +12211,7 @@
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B320" s="2" t="s">
         <v>731</v>
@@ -12234,7 +12234,7 @@
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B321" s="2" t="s">
         <v>733</v>
@@ -12257,7 +12257,7 @@
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B322" s="2" t="s">
         <v>735</v>
@@ -12280,7 +12280,7 @@
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B323" s="2" t="s">
         <v>737</v>
@@ -12303,7 +12303,7 @@
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>739</v>
@@ -12326,7 +12326,7 @@
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B325" s="2" t="s">
         <v>741</v>
@@ -12349,7 +12349,7 @@
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B326" s="2" t="s">
         <v>743</v>
@@ -12372,7 +12372,7 @@
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B327" s="2" t="s">
         <v>745</v>
@@ -12395,7 +12395,7 @@
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B328" s="2" t="s">
         <v>747</v>
@@ -12418,7 +12418,7 @@
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B329" s="2" t="s">
         <v>749</v>
@@ -12441,7 +12441,7 @@
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B330" s="2" t="s">
         <v>751</v>
@@ -12464,7 +12464,7 @@
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B331" s="2" t="s">
         <v>753</v>
@@ -12487,7 +12487,7 @@
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B332" s="2" t="s">
         <v>755</v>
@@ -12510,7 +12510,7 @@
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B333" s="2" t="s">
         <v>757</v>
@@ -12533,7 +12533,7 @@
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B334" s="2" t="s">
         <v>759</v>
@@ -12556,7 +12556,7 @@
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B335" s="2" t="s">
         <v>761</v>
@@ -12579,7 +12579,7 @@
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B336" s="2" t="s">
         <v>176</v>
@@ -12602,7 +12602,7 @@
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B337" s="2" t="s">
         <v>764</v>
@@ -12625,7 +12625,7 @@
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B338" s="2" t="s">
         <v>766</v>
@@ -12648,7 +12648,7 @@
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B339" s="2" t="s">
         <v>768</v>
@@ -12671,7 +12671,7 @@
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B340" s="2" t="s">
         <v>770</v>
@@ -12694,7 +12694,7 @@
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B341" s="2" t="s">
         <v>772</v>
@@ -12717,7 +12717,7 @@
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B342" s="2" t="s">
         <v>774</v>
@@ -12740,7 +12740,7 @@
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B343" s="2" t="s">
         <v>776</v>
@@ -12763,7 +12763,7 @@
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B344" s="2" t="s">
         <v>778</v>
@@ -12786,7 +12786,7 @@
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B345" s="2" t="s">
         <v>780</v>
@@ -12809,7 +12809,7 @@
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B346" s="2" t="s">
         <v>782</v>
@@ -12832,7 +12832,7 @@
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B347" s="2" t="s">
         <v>784</v>
@@ -12855,7 +12855,7 @@
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B348" s="2" t="s">
         <v>786</v>
@@ -12878,7 +12878,7 @@
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B349" s="2" t="s">
         <v>788</v>
@@ -12901,7 +12901,7 @@
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B350" s="2" t="s">
         <v>790</v>
@@ -12924,7 +12924,7 @@
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B351" s="2" t="s">
         <v>792</v>
@@ -12947,7 +12947,7 @@
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B352" s="2" t="s">
         <v>794</v>
@@ -12970,7 +12970,7 @@
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B353" s="2" t="s">
         <v>796</v>
@@ -12993,7 +12993,7 @@
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B354" s="2" t="s">
         <v>798</v>
@@ -13016,7 +13016,7 @@
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B355" s="2" t="s">
         <v>800</v>
@@ -13039,7 +13039,7 @@
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B356" s="2" t="s">
         <v>802</v>
@@ -13062,7 +13062,7 @@
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B357" s="2" t="s">
         <v>804</v>
@@ -13085,7 +13085,7 @@
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B358" s="2" t="s">
         <v>806</v>
@@ -13108,7 +13108,7 @@
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B359" s="2" t="s">
         <v>808</v>
@@ -13131,7 +13131,7 @@
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B360" s="2" t="s">
         <v>810</v>
@@ -13154,7 +13154,7 @@
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B361" s="2" t="s">
         <v>812</v>
@@ -13177,7 +13177,7 @@
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B362" s="2" t="s">
         <v>814</v>
@@ -13200,7 +13200,7 @@
     </row>
     <row r="363" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B363" s="2" t="s">
         <v>816</v>
@@ -13223,7 +13223,7 @@
     </row>
     <row r="364" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B364" s="2" t="s">
         <v>818</v>
@@ -13246,7 +13246,7 @@
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B365" s="2" t="s">
         <v>820</v>
@@ -13269,7 +13269,7 @@
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B366" s="2" t="s">
         <v>822</v>
@@ -13292,7 +13292,7 @@
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B367" s="2" t="s">
         <v>824</v>
@@ -13315,7 +13315,7 @@
     </row>
     <row r="368" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B368" s="2" t="s">
         <v>33</v>
@@ -13338,7 +13338,7 @@
     </row>
     <row r="369" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B369" s="2" t="s">
         <v>827</v>
@@ -13361,7 +13361,7 @@
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B370" s="2" t="s">
         <v>829</v>
@@ -13384,7 +13384,7 @@
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B371" s="2" t="s">
         <v>831</v>
@@ -13407,7 +13407,7 @@
     </row>
     <row r="372" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B372" s="2" t="s">
         <v>889</v>
@@ -13436,7 +13436,7 @@
     </row>
     <row r="373" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B373" s="2" t="s">
         <v>891</v>
@@ -13465,7 +13465,7 @@
     </row>
     <row r="374" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B374" s="2" t="s">
         <v>893</v>
@@ -13492,7 +13492,7 @@
     </row>
     <row r="375" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B375" s="2" t="s">
         <v>894</v>
@@ -13521,7 +13521,7 @@
     </row>
     <row r="376" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B376" s="2" t="s">
         <v>896</v>
@@ -13550,7 +13550,7 @@
     </row>
     <row r="377" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B377" s="2" t="s">
         <v>898</v>
@@ -13579,7 +13579,7 @@
     </row>
     <row r="378" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B378" s="2" t="s">
         <v>900</v>
@@ -13606,7 +13606,7 @@
     </row>
     <row r="379" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B379" s="2" t="s">
         <v>901</v>
@@ -13635,7 +13635,7 @@
     </row>
     <row r="380" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B380" s="2" t="s">
         <v>903</v>
@@ -13664,7 +13664,7 @@
     </row>
     <row r="381" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B381" s="2" t="s">
         <v>905</v>
@@ -13691,7 +13691,7 @@
     </row>
     <row r="382" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B382" s="2" t="s">
         <v>906</v>
@@ -13718,7 +13718,7 @@
     </row>
     <row r="383" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B383" s="2" t="s">
         <v>907</v>
@@ -13746,8 +13746,8 @@
       </c>
     </row>
     <row r="384" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A384" s="6">
-        <v>383</v>
+      <c r="A384" s="1">
+        <v>382</v>
       </c>
       <c r="B384" s="7" t="s">
         <v>925</v>
@@ -13770,7 +13770,7 @@
     </row>
     <row r="385" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B385" s="7" t="s">
         <v>886</v>
@@ -13793,7 +13793,7 @@
     </row>
     <row r="386" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B386" s="7" t="s">
         <v>888</v>
@@ -13816,7 +13816,7 @@
     </row>
     <row r="387" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B387" s="7" t="s">
         <v>493</v>
@@ -13848,7 +13848,7 @@
     </row>
     <row r="388" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B388" s="7" t="s">
         <v>495</v>
@@ -13880,7 +13880,7 @@
     </row>
     <row r="389" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B389" s="7" t="s">
         <v>497</v>
@@ -13912,7 +13912,7 @@
     </row>
     <row r="390" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B390" s="7" t="s">
         <v>507</v>
@@ -13944,7 +13944,7 @@
     </row>
     <row r="391" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B391" s="7" t="s">
         <v>876</v>
@@ -13967,7 +13967,7 @@
     </row>
     <row r="392" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B392" s="7" t="s">
         <v>860</v>
@@ -13990,7 +13990,7 @@
     </row>
     <row r="393" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B393" s="7" t="s">
         <v>882</v>
@@ -14013,7 +14013,7 @@
     </row>
     <row r="394" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B394" s="7" t="s">
         <v>917</v>
@@ -14042,7 +14042,7 @@
     </row>
     <row r="395" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B395" s="7" t="s">
         <v>526</v>
@@ -14071,7 +14071,7 @@
     </row>
     <row r="396" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B396" s="7" t="s">
         <v>475</v>
@@ -14103,7 +14103,7 @@
     </row>
     <row r="397" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B397" s="7" t="s">
         <v>442</v>
@@ -14132,7 +14132,7 @@
     </row>
     <row r="398" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B398" s="7" t="s">
         <v>878</v>
@@ -14155,7 +14155,7 @@
     </row>
     <row r="399" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B399" s="7" t="s">
         <v>841</v>
@@ -14178,7 +14178,7 @@
     </row>
     <row r="400" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B400" s="7" t="s">
         <v>849</v>
@@ -14201,7 +14201,7 @@
     </row>
     <row r="401" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B401" s="7" t="s">
         <v>856</v>
@@ -14224,7 +14224,7 @@
     </row>
     <row r="402" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B402" s="7" t="s">
         <v>858</v>
@@ -14247,7 +14247,7 @@
     </row>
     <row r="403" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B403" s="7" t="s">
         <v>909</v>
@@ -14276,7 +14276,7 @@
     </row>
     <row r="404" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B404" s="7" t="s">
         <v>444</v>
@@ -14305,7 +14305,7 @@
     </row>
     <row r="405" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B405" s="7" t="s">
         <v>473</v>
@@ -14337,7 +14337,7 @@
     </row>
     <row r="406" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B406" s="7" t="s">
         <v>479</v>
@@ -14369,7 +14369,7 @@
     </row>
     <row r="407" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B407" s="7" t="s">
         <v>428</v>
@@ -14401,7 +14401,7 @@
     </row>
     <row r="408" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B408" s="7" t="s">
         <v>424</v>
@@ -14433,7 +14433,7 @@
     </row>
     <row r="409" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B409" s="7" t="s">
         <v>426</v>
@@ -14465,7 +14465,7 @@
     </row>
     <row r="410" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B410" s="7" t="s">
         <v>430</v>
@@ -14497,7 +14497,7 @@
     </row>
     <row r="411" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B411" s="7" t="s">
         <v>434</v>
@@ -14526,7 +14526,7 @@
     </row>
     <row r="412" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B412" s="7" t="s">
         <v>510</v>
@@ -14555,7 +14555,7 @@
     </row>
     <row r="413" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B413" s="7" t="s">
         <v>417</v>
@@ -14587,7 +14587,7 @@
     </row>
     <row r="414" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B414" s="7" t="s">
         <v>420</v>
@@ -14616,7 +14616,7 @@
     </row>
     <row r="415" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B415" s="7" t="s">
         <v>468</v>
@@ -14645,7 +14645,7 @@
     </row>
     <row r="416" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B416" s="7" t="s">
         <v>440</v>
@@ -14674,7 +14674,7 @@
     </row>
     <row r="417" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B417" s="7" t="s">
         <v>450</v>
@@ -14703,7 +14703,7 @@
     </row>
     <row r="418" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B418" s="7" t="s">
         <v>459</v>
@@ -14732,7 +14732,7 @@
     </row>
     <row r="419" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B419" s="7" t="s">
         <v>436</v>
@@ -14761,7 +14761,7 @@
     </row>
     <row r="420" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B420" s="7" t="s">
         <v>453</v>
@@ -14790,7 +14790,7 @@
     </row>
     <row r="421" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B421" s="7" t="s">
         <v>438</v>
@@ -14819,7 +14819,7 @@
     </row>
     <row r="422" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B422" s="7" t="s">
         <v>515</v>
@@ -14848,7 +14848,7 @@
     </row>
     <row r="423" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B423" s="7" t="s">
         <v>518</v>
@@ -14877,7 +14877,7 @@
     </row>
     <row r="424" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B424" s="7" t="s">
         <v>461</v>
@@ -14909,7 +14909,7 @@
     </row>
     <row r="425" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B425" s="7" t="s">
         <v>513</v>
@@ -14938,7 +14938,7 @@
     </row>
     <row r="426" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B426" s="7" t="s">
         <v>485</v>
@@ -14967,7 +14967,7 @@
     </row>
     <row r="427" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B427" s="7" t="s">
         <v>481</v>
@@ -14999,7 +14999,7 @@
     </row>
     <row r="428" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B428" s="7" t="s">
         <v>455</v>
@@ -15031,7 +15031,7 @@
     </row>
     <row r="429" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B429" s="7" t="s">
         <v>154</v>
@@ -15063,7 +15063,7 @@
     </row>
     <row r="430" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B430" s="7" t="s">
         <v>517</v>
@@ -15092,7 +15092,7 @@
     </row>
     <row r="431" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B431" s="7" t="s">
         <v>520</v>
@@ -15121,7 +15121,7 @@
     </row>
     <row r="432" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B432" s="7" t="s">
         <v>463</v>
@@ -15150,7 +15150,7 @@
     </row>
     <row r="433" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B433" s="7" t="s">
         <v>471</v>
@@ -15182,7 +15182,7 @@
     </row>
     <row r="434" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B434" s="7" t="s">
         <v>457</v>
@@ -15214,7 +15214,7 @@
     </row>
     <row r="435" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B435" s="7" t="s">
         <v>465</v>
@@ -15246,7 +15246,7 @@
     </row>
     <row r="436" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B436" s="7" t="s">
         <v>446</v>
@@ -15275,7 +15275,7 @@
     </row>
     <row r="437" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B437" s="7" t="s">
         <v>448</v>
@@ -15304,7 +15304,7 @@
     </row>
     <row r="438" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B438" s="7" t="s">
         <v>477</v>
@@ -15336,7 +15336,7 @@
     </row>
     <row r="439" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B439" s="7" t="s">
         <v>491</v>
@@ -15365,7 +15365,7 @@
     </row>
     <row r="440" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B440" s="7" t="s">
         <v>489</v>
@@ -15397,7 +15397,7 @@
     </row>
     <row r="441" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B441" s="7" t="s">
         <v>483</v>
@@ -15426,7 +15426,7 @@
     </row>
     <row r="442" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B442" s="7" t="s">
         <v>487</v>
@@ -15458,7 +15458,7 @@
     </row>
     <row r="443" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B443" s="7" t="s">
         <v>523</v>
@@ -15487,7 +15487,7 @@
     </row>
     <row r="444" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B444" s="7" t="s">
         <v>522</v>
@@ -15516,7 +15516,7 @@
     </row>
     <row r="445" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B445" s="7" t="s">
         <v>499</v>
@@ -15545,7 +15545,7 @@
     </row>
     <row r="446" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B446" s="7" t="s">
         <v>503</v>
@@ -15577,7 +15577,7 @@
     </row>
     <row r="447" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B447" s="7" t="s">
         <v>501</v>
@@ -15606,7 +15606,7 @@
     </row>
     <row r="448" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B448" s="7" t="s">
         <v>525</v>
@@ -15635,7 +15635,7 @@
     </row>
     <row r="449" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B449" s="7" t="s">
         <v>524</v>
@@ -15664,7 +15664,7 @@
     </row>
     <row r="450" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B450" s="7" t="s">
         <v>508</v>
@@ -15696,7 +15696,7 @@
     </row>
     <row r="451" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B451" s="7" t="s">
         <v>833</v>
@@ -15719,7 +15719,7 @@
     </row>
     <row r="452" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B452" s="7" t="s">
         <v>835</v>
@@ -15742,7 +15742,7 @@
     </row>
     <row r="453" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B453" s="7" t="s">
         <v>837</v>
@@ -15765,7 +15765,7 @@
     </row>
     <row r="454" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B454" s="7" t="s">
         <v>839</v>
@@ -15788,7 +15788,7 @@
     </row>
     <row r="455" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B455" s="7" t="s">
         <v>843</v>
@@ -15811,7 +15811,7 @@
     </row>
     <row r="456" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B456" s="7" t="s">
         <v>845</v>
@@ -15834,7 +15834,7 @@
     </row>
     <row r="457" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B457" s="7" t="s">
         <v>847</v>
@@ -15857,7 +15857,7 @@
     </row>
     <row r="458" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B458" s="7" t="s">
         <v>852</v>
@@ -15880,7 +15880,7 @@
     </row>
     <row r="459" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B459" s="7" t="s">
         <v>854</v>
@@ -15903,7 +15903,7 @@
     </row>
     <row r="460" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B460" s="7" t="s">
         <v>862</v>
@@ -15926,7 +15926,7 @@
     </row>
     <row r="461" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B461" s="7" t="s">
         <v>864</v>
@@ -15949,7 +15949,7 @@
     </row>
     <row r="462" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B462" s="7" t="s">
         <v>866</v>
@@ -15972,7 +15972,7 @@
     </row>
     <row r="463" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B463" s="7" t="s">
         <v>868</v>
@@ -15995,7 +15995,7 @@
     </row>
     <row r="464" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B464" s="7" t="s">
         <v>870</v>
@@ -16018,7 +16018,7 @@
     </row>
     <row r="465" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B465" s="7" t="s">
         <v>872</v>
@@ -16041,7 +16041,7 @@
     </row>
     <row r="466" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B466" s="7" t="s">
         <v>874</v>
@@ -16064,7 +16064,7 @@
     </row>
     <row r="467" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B467" s="7" t="s">
         <v>880</v>
@@ -16087,7 +16087,7 @@
     </row>
     <row r="468" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B468" s="7" t="s">
         <v>884</v>
@@ -16110,7 +16110,7 @@
     </row>
     <row r="469" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B469" s="7" t="s">
         <v>911</v>
@@ -16139,7 +16139,7 @@
     </row>
     <row r="470" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B470" s="7" t="s">
         <v>913</v>
@@ -16168,7 +16168,7 @@
     </row>
     <row r="471" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B471" s="7" t="s">
         <v>915</v>
@@ -16197,7 +16197,7 @@
     </row>
     <row r="472" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B472" s="7" t="s">
         <v>919</v>
@@ -16226,7 +16226,7 @@
     </row>
     <row r="473" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B473" s="7" t="s">
         <v>920</v>
@@ -16254,8 +16254,8 @@
       </c>
     </row>
     <row r="474" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A474" s="6">
-        <v>473</v>
+      <c r="A474" s="1">
+        <v>472</v>
       </c>
       <c r="B474" s="7" t="s">
         <v>926</v>
@@ -16281,7 +16281,7 @@
     </row>
     <row r="475" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B475" s="7" t="s">
         <v>4</v>
@@ -16309,8 +16309,8 @@
       </c>
     </row>
     <row r="476" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A476" s="6">
-        <v>475</v>
+      <c r="A476" s="1">
+        <v>474</v>
       </c>
       <c r="B476" s="7" t="s">
         <v>4</v>
@@ -16339,7 +16339,7 @@
     </row>
     <row r="477" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B477" s="7" t="s">
         <v>538</v>
@@ -16361,8 +16361,8 @@
       </c>
     </row>
     <row r="478" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A478" s="6">
-        <v>477</v>
+      <c r="A478" s="1">
+        <v>476</v>
       </c>
       <c r="B478" s="7" t="s">
         <v>422</v>
@@ -16391,7 +16391,7 @@
     </row>
     <row r="479" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B479" s="7" t="s">
         <v>432</v>
@@ -16419,8 +16419,8 @@
       </c>
     </row>
     <row r="480" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A480" s="6">
-        <v>479</v>
+      <c r="A480" s="1">
+        <v>478</v>
       </c>
       <c r="B480" s="7" t="s">
         <v>440</v>
@@ -16449,7 +16449,7 @@
     </row>
     <row r="481" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B481" s="7" t="s">
         <v>440</v>
@@ -16477,8 +16477,8 @@
       </c>
     </row>
     <row r="482" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A482" s="6">
-        <v>481</v>
+      <c r="A482" s="1">
+        <v>480</v>
       </c>
       <c r="B482" s="7" t="s">
         <v>485</v>

--- a/card_info.xlsx
+++ b/card_info.xlsx
@@ -2689,9 +2689,6 @@
     <t>Eaglehorn Bow</t>
   </si>
   <si>
-    <t>Whenever a Secret is revealed, gain +1 Durability.</t>
-  </si>
-  <si>
     <t>Gladiator's Longbow</t>
   </si>
   <si>
@@ -2804,6 +2801,9 @@
   </si>
   <si>
     <t>Draw a card. Combo: Draw 2 cards instead.</t>
+  </si>
+  <si>
+    <t>Whenever a friendly Secret is revealed, gain +1 Durability.</t>
   </si>
 </sst>
 </file>
@@ -3208,8 +3208,8 @@
   <dimension ref="A1:J482"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A459" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B482" sqref="B482"/>
+      <pane ySplit="1" topLeftCell="A359" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J373" sqref="J373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3234,7 +3234,7 @@
         <v>528</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>529</v>
@@ -3266,7 +3266,7 @@
         <v>139</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>140</v>
@@ -3294,7 +3294,7 @@
         <v>106</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>103</v>
@@ -3326,7 +3326,7 @@
         <v>84</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>85</v>
@@ -3356,7 +3356,7 @@
         <v>34</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>35</v>
@@ -3386,7 +3386,7 @@
         <v>56</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>57</v>
@@ -3416,7 +3416,7 @@
         <v>108</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>103</v>
@@ -3448,7 +3448,7 @@
         <v>141</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>140</v>
@@ -3478,7 +3478,7 @@
         <v>158</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>140</v>
@@ -3508,7 +3508,7 @@
         <v>162</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>140</v>
@@ -3538,7 +3538,7 @@
         <v>168</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>140</v>
@@ -3570,7 +3570,7 @@
         <v>171</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>140</v>
@@ -3600,7 +3600,7 @@
         <v>173</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>140</v>
@@ -3630,7 +3630,7 @@
         <v>177</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>140</v>
@@ -3660,7 +3660,7 @@
         <v>147</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>140</v>
@@ -3692,7 +3692,7 @@
         <v>152</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>140</v>
@@ -3722,7 +3722,7 @@
         <v>156</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>140</v>
@@ -3754,7 +3754,7 @@
         <v>160</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>140</v>
@@ -3784,7 +3784,7 @@
         <v>163</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>140</v>
@@ -3816,7 +3816,7 @@
         <v>165</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>140</v>
@@ -3846,7 +3846,7 @@
         <v>143</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>140</v>
@@ -3878,7 +3878,7 @@
         <v>145</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>140</v>
@@ -3908,7 +3908,7 @@
         <v>150</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>140</v>
@@ -3938,7 +3938,7 @@
         <v>153</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>140</v>
@@ -3970,7 +3970,7 @@
         <v>170</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>140</v>
@@ -4002,7 +4002,7 @@
         <v>18</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>19</v>
@@ -4034,7 +4034,7 @@
         <v>175</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>140</v>
@@ -4066,7 +4066,7 @@
         <v>102</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>103</v>
@@ -4098,7 +4098,7 @@
         <v>167</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>140</v>
@@ -4128,7 +4128,7 @@
         <v>183</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>140</v>
@@ -4158,7 +4158,7 @@
         <v>221</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>140</v>
@@ -4188,7 +4188,7 @@
         <v>109</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>103</v>
@@ -4220,7 +4220,7 @@
         <v>179</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>140</v>
@@ -4250,7 +4250,7 @@
         <v>185</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>140</v>
@@ -4280,7 +4280,7 @@
         <v>199</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>140</v>
@@ -4312,7 +4312,7 @@
         <v>205</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>140</v>
@@ -4342,7 +4342,7 @@
         <v>213</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>140</v>
@@ -4372,7 +4372,7 @@
         <v>37</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>35</v>
@@ -4402,7 +4402,7 @@
         <v>234</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>140</v>
@@ -4432,7 +4432,7 @@
         <v>236</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>140</v>
@@ -4462,7 +4462,7 @@
         <v>181</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>140</v>
@@ -4492,7 +4492,7 @@
         <v>188</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>140</v>
@@ -4524,7 +4524,7 @@
         <v>231</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>140</v>
@@ -4554,7 +4554,7 @@
         <v>232</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>140</v>
@@ -4584,7 +4584,7 @@
         <v>47</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>48</v>
@@ -4614,7 +4614,7 @@
         <v>193</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>140</v>
@@ -4644,7 +4644,7 @@
         <v>128</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>126</v>
@@ -4674,7 +4674,7 @@
         <v>71</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>72</v>
@@ -4704,7 +4704,7 @@
         <v>195</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>140</v>
@@ -4736,7 +4736,7 @@
         <v>202</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>140</v>
@@ -4766,7 +4766,7 @@
         <v>207</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>140</v>
@@ -4796,7 +4796,7 @@
         <v>217</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>140</v>
@@ -4826,7 +4826,7 @@
         <v>229</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>140</v>
@@ -4856,7 +4856,7 @@
         <v>22</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>19</v>
@@ -4888,7 +4888,7 @@
         <v>125</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>126</v>
@@ -4918,7 +4918,7 @@
         <v>215</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>140</v>
@@ -4948,7 +4948,7 @@
         <v>219</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>140</v>
@@ -4978,7 +4978,7 @@
         <v>190</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>140</v>
@@ -5010,7 +5010,7 @@
         <v>203</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>140</v>
@@ -5042,7 +5042,7 @@
         <v>209</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>140</v>
@@ -5072,7 +5072,7 @@
         <v>223</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>140</v>
@@ -5104,7 +5104,7 @@
         <v>24</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>19</v>
@@ -5136,7 +5136,7 @@
         <v>186</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>140</v>
@@ -5166,7 +5166,7 @@
         <v>191</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>140</v>
@@ -5198,7 +5198,7 @@
         <v>227</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>140</v>
@@ -5228,7 +5228,7 @@
         <v>74</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>72</v>
@@ -5258,7 +5258,7 @@
         <v>197</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>140</v>
@@ -5288,7 +5288,7 @@
         <v>87</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>85</v>
@@ -5320,7 +5320,7 @@
         <v>59</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>57</v>
@@ -5350,7 +5350,7 @@
         <v>211</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>140</v>
@@ -5380,7 +5380,7 @@
         <v>225</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>140</v>
@@ -5410,7 +5410,7 @@
         <v>265</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>140</v>
@@ -5440,7 +5440,7 @@
         <v>270</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>140</v>
@@ -5472,7 +5472,7 @@
         <v>111</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>103</v>
@@ -5504,7 +5504,7 @@
         <v>39</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>35</v>
@@ -5534,7 +5534,7 @@
         <v>50</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>48</v>
@@ -5564,7 +5564,7 @@
         <v>246</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>140</v>
@@ -5594,7 +5594,7 @@
         <v>255</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>140</v>
@@ -5624,7 +5624,7 @@
         <v>268</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>140</v>
@@ -5656,7 +5656,7 @@
         <v>273</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>140</v>
@@ -5686,7 +5686,7 @@
         <v>275</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>140</v>
@@ -5718,7 +5718,7 @@
         <v>279</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>140</v>
@@ -5748,7 +5748,7 @@
         <v>78</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>72</v>
@@ -5778,7 +5778,7 @@
         <v>289</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>140</v>
@@ -5810,7 +5810,7 @@
         <v>294</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>140</v>
@@ -5840,7 +5840,7 @@
         <v>113</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>103</v>
@@ -5872,7 +5872,7 @@
         <v>242</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>140</v>
@@ -5902,7 +5902,7 @@
         <v>244</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>140</v>
@@ -5932,7 +5932,7 @@
         <v>269</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>140</v>
@@ -5964,7 +5964,7 @@
         <v>130</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>126</v>
@@ -5994,7 +5994,7 @@
         <v>92</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>85</v>
@@ -6024,7 +6024,7 @@
         <v>286</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>140</v>
@@ -6054,7 +6054,7 @@
         <v>250</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>140</v>
@@ -6086,7 +6086,7 @@
         <v>257</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>140</v>
@@ -6118,7 +6118,7 @@
         <v>259</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>140</v>
@@ -6148,7 +6148,7 @@
         <v>261</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>140</v>
@@ -6178,7 +6178,7 @@
         <v>283</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>140</v>
@@ -6208,7 +6208,7 @@
         <v>291</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>140</v>
@@ -6238,7 +6238,7 @@
         <v>293</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>140</v>
@@ -6268,7 +6268,7 @@
         <v>132</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>126</v>
@@ -6298,7 +6298,7 @@
         <v>272</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>140</v>
@@ -6326,7 +6326,7 @@
         <v>263</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>140</v>
@@ -6356,7 +6356,7 @@
         <v>248</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>140</v>
@@ -6388,7 +6388,7 @@
         <v>76</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>72</v>
@@ -6418,7 +6418,7 @@
         <v>267</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>140</v>
@@ -6448,7 +6448,7 @@
         <v>277</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>140</v>
@@ -6478,7 +6478,7 @@
         <v>281</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>140</v>
@@ -6508,7 +6508,7 @@
         <v>252</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>140</v>
@@ -6538,7 +6538,7 @@
         <v>253</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>140</v>
@@ -6568,7 +6568,7 @@
         <v>288</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>140</v>
@@ -6600,7 +6600,7 @@
         <v>285</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>140</v>
@@ -6630,7 +6630,7 @@
         <v>296</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>140</v>
@@ -6660,7 +6660,7 @@
         <v>238</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>140</v>
@@ -6690,7 +6690,7 @@
         <v>240</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>140</v>
@@ -6720,7 +6720,7 @@
         <v>90</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>85</v>
@@ -6752,7 +6752,7 @@
         <v>115</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>103</v>
@@ -6784,7 +6784,7 @@
         <v>297</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>140</v>
@@ -6814,7 +6814,7 @@
         <v>300</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>140</v>
@@ -6842,7 +6842,7 @@
         <v>43</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>35</v>
@@ -6872,7 +6872,7 @@
         <v>303</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>140</v>
@@ -6902,7 +6902,7 @@
         <v>80</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>72</v>
@@ -6932,7 +6932,7 @@
         <v>315</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>140</v>
@@ -6962,7 +6962,7 @@
         <v>61</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>57</v>
@@ -6992,7 +6992,7 @@
         <v>318</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>140</v>
@@ -7022,7 +7022,7 @@
         <v>324</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>140</v>
@@ -7052,7 +7052,7 @@
         <v>314</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>140</v>
@@ -7082,7 +7082,7 @@
         <v>311</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>140</v>
@@ -7112,7 +7112,7 @@
         <v>26</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>19</v>
@@ -7142,7 +7142,7 @@
         <v>136</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>126</v>
@@ -7172,7 +7172,7 @@
         <v>320</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>140</v>
@@ -7202,7 +7202,7 @@
         <v>298</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>140</v>
@@ -7232,7 +7232,7 @@
         <v>321</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>140</v>
@@ -7262,7 +7262,7 @@
         <v>134</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>126</v>
@@ -7292,7 +7292,7 @@
         <v>308</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>140</v>
@@ -7324,7 +7324,7 @@
         <v>41</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>35</v>
@@ -7354,7 +7354,7 @@
         <v>319</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>140</v>
@@ -7384,7 +7384,7 @@
         <v>94</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>85</v>
@@ -7414,7 +7414,7 @@
         <v>301</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>140</v>
@@ -7444,7 +7444,7 @@
         <v>306</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>140</v>
@@ -7474,7 +7474,7 @@
         <v>310</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>140</v>
@@ -7504,7 +7504,7 @@
         <v>0</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>1</v>
@@ -7534,7 +7534,7 @@
         <v>316</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>140</v>
@@ -7566,7 +7566,7 @@
         <v>313</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>140</v>
@@ -7596,7 +7596,7 @@
         <v>304</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>140</v>
@@ -7626,7 +7626,7 @@
         <v>322</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>140</v>
@@ -7658,7 +7658,7 @@
         <v>63</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>57</v>
@@ -7688,7 +7688,7 @@
         <v>117</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>103</v>
@@ -7718,7 +7718,7 @@
         <v>96</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>85</v>
@@ -7748,7 +7748,7 @@
         <v>359</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>140</v>
@@ -7778,7 +7778,7 @@
         <v>119</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>103</v>
@@ -7810,7 +7810,7 @@
         <v>335</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>140</v>
@@ -7840,7 +7840,7 @@
         <v>358</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>140</v>
@@ -7872,7 +7872,7 @@
         <v>352</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>140</v>
@@ -7902,7 +7902,7 @@
         <v>330</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>140</v>
@@ -7932,7 +7932,7 @@
         <v>331</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>140</v>
@@ -7964,7 +7964,7 @@
         <v>346</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>140</v>
@@ -7994,7 +7994,7 @@
         <v>333</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>140</v>
@@ -8024,7 +8024,7 @@
         <v>339</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>140</v>
@@ -8054,7 +8054,7 @@
         <v>326</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>140</v>
@@ -8084,7 +8084,7 @@
         <v>328</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>140</v>
@@ -8116,7 +8116,7 @@
         <v>4</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>1</v>
@@ -8146,7 +8146,7 @@
         <v>340</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>140</v>
@@ -8176,7 +8176,7 @@
         <v>342</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>140</v>
@@ -8206,7 +8206,7 @@
         <v>348</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>140</v>
@@ -8236,7 +8236,7 @@
         <v>350</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>140</v>
@@ -8266,7 +8266,7 @@
         <v>354</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>140</v>
@@ -8298,7 +8298,7 @@
         <v>344</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>140</v>
@@ -8328,7 +8328,7 @@
         <v>28</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>19</v>
@@ -8360,7 +8360,7 @@
         <v>337</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>140</v>
@@ -8390,7 +8390,7 @@
         <v>356</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>140</v>
@@ -8420,7 +8420,7 @@
         <v>383</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>140</v>
@@ -8452,7 +8452,7 @@
         <v>364</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>140</v>
@@ -8480,7 +8480,7 @@
         <v>121</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>103</v>
@@ -8512,7 +8512,7 @@
         <v>369</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>140</v>
@@ -8542,7 +8542,7 @@
         <v>67</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>57</v>
@@ -8572,7 +8572,7 @@
         <v>373</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>140</v>
@@ -8604,7 +8604,7 @@
         <v>98</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>85</v>
@@ -8634,7 +8634,7 @@
         <v>375</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>140</v>
@@ -8664,7 +8664,7 @@
         <v>30</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>19</v>
@@ -8696,7 +8696,7 @@
         <v>361</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>140</v>
@@ -8726,7 +8726,7 @@
         <v>367</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>140</v>
@@ -8756,7 +8756,7 @@
         <v>381</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>140</v>
@@ -8786,7 +8786,7 @@
         <v>376</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>140</v>
@@ -8816,7 +8816,7 @@
         <v>65</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>57</v>
@@ -8846,7 +8846,7 @@
         <v>365</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>140</v>
@@ -8876,7 +8876,7 @@
         <v>379</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>140</v>
@@ -8906,7 +8906,7 @@
         <v>385</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>140</v>
@@ -8936,7 +8936,7 @@
         <v>387</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>140</v>
@@ -8966,7 +8966,7 @@
         <v>371</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>140</v>
@@ -8996,7 +8996,7 @@
         <v>82</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>72</v>
@@ -9026,7 +9026,7 @@
         <v>378</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>140</v>
@@ -9056,7 +9056,7 @@
         <v>362</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>140</v>
@@ -9086,7 +9086,7 @@
         <v>69</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>57</v>
@@ -9116,7 +9116,7 @@
         <v>394</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>140</v>
@@ -9144,7 +9144,7 @@
         <v>390</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>140</v>
@@ -9174,7 +9174,7 @@
         <v>392</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>140</v>
@@ -9204,7 +9204,7 @@
         <v>388</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>140</v>
@@ -9234,7 +9234,7 @@
         <v>391</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>140</v>
@@ -9264,7 +9264,7 @@
         <v>45</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>35</v>
@@ -9294,7 +9294,7 @@
         <v>52</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>48</v>
@@ -9324,7 +9324,7 @@
         <v>7</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>1</v>
@@ -9354,7 +9354,7 @@
         <v>10</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D202" s="2" t="s">
         <v>1</v>
@@ -9384,7 +9384,7 @@
         <v>12</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D203" s="2" t="s">
         <v>1</v>
@@ -9414,7 +9414,7 @@
         <v>397</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>140</v>
@@ -9444,7 +9444,7 @@
         <v>395</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D205" s="2" t="s">
         <v>140</v>
@@ -9474,7 +9474,7 @@
         <v>54</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D206" s="2" t="s">
         <v>48</v>
@@ -9504,7 +9504,7 @@
         <v>137</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>126</v>
@@ -9534,7 +9534,7 @@
         <v>100</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>85</v>
@@ -9564,7 +9564,7 @@
         <v>399</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>140</v>
@@ -9596,7 +9596,7 @@
         <v>32</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>19</v>
@@ -9628,7 +9628,7 @@
         <v>403</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>140</v>
@@ -9660,7 +9660,7 @@
         <v>405</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>140</v>
@@ -9692,7 +9692,7 @@
         <v>401</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>140</v>
@@ -9724,7 +9724,7 @@
         <v>407</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>140</v>
@@ -9756,7 +9756,7 @@
         <v>123</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>103</v>
@@ -9788,7 +9788,7 @@
         <v>15</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>1</v>
@@ -9818,7 +9818,7 @@
         <v>409</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D217" s="2" t="s">
         <v>140</v>
@@ -9850,7 +9850,7 @@
         <v>411</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D218" s="2" t="s">
         <v>140</v>
@@ -9880,7 +9880,7 @@
         <v>413</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D219" s="2" t="s">
         <v>140</v>
@@ -9910,7 +9910,7 @@
         <v>415</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>140</v>
@@ -9940,7 +9940,7 @@
         <v>536</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>1</v>
@@ -9963,7 +9963,7 @@
         <v>538</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>1</v>
@@ -9986,7 +9986,7 @@
         <v>540</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>1</v>
@@ -10009,7 +10009,7 @@
         <v>542</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>1</v>
@@ -10032,7 +10032,7 @@
         <v>544</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D225" s="2" t="s">
         <v>1</v>
@@ -10055,7 +10055,7 @@
         <v>546</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D226" s="2" t="s">
         <v>1</v>
@@ -10078,7 +10078,7 @@
         <v>548</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>1</v>
@@ -10101,7 +10101,7 @@
         <v>550</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D228" s="2" t="s">
         <v>1</v>
@@ -10124,7 +10124,7 @@
         <v>552</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D229" s="2" t="s">
         <v>1</v>
@@ -10147,7 +10147,7 @@
         <v>554</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D230" s="2" t="s">
         <v>1</v>
@@ -10170,7 +10170,7 @@
         <v>556</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>1</v>
@@ -10193,7 +10193,7 @@
         <v>558</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D232" s="2" t="s">
         <v>1</v>
@@ -10216,7 +10216,7 @@
         <v>560</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D233" s="2" t="s">
         <v>1</v>
@@ -10239,7 +10239,7 @@
         <v>562</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D234" s="2" t="s">
         <v>1</v>
@@ -10262,7 +10262,7 @@
         <v>564</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D235" s="2" t="s">
         <v>1</v>
@@ -10285,7 +10285,7 @@
         <v>566</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D236" s="2" t="s">
         <v>1</v>
@@ -10308,7 +10308,7 @@
         <v>568</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D237" s="2" t="s">
         <v>1</v>
@@ -10331,7 +10331,7 @@
         <v>570</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D238" s="2" t="s">
         <v>1</v>
@@ -10354,7 +10354,7 @@
         <v>572</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D239" s="2" t="s">
         <v>1</v>
@@ -10377,7 +10377,7 @@
         <v>574</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D240" s="2" t="s">
         <v>19</v>
@@ -10400,7 +10400,7 @@
         <v>576</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D241" s="2" t="s">
         <v>19</v>
@@ -10423,7 +10423,7 @@
         <v>578</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D242" s="2" t="s">
         <v>19</v>
@@ -10446,7 +10446,7 @@
         <v>580</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D243" s="2" t="s">
         <v>19</v>
@@ -10469,7 +10469,7 @@
         <v>582</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D244" s="2" t="s">
         <v>19</v>
@@ -10492,7 +10492,7 @@
         <v>584</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D245" s="2" t="s">
         <v>19</v>
@@ -10515,7 +10515,7 @@
         <v>586</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D246" s="2" t="s">
         <v>19</v>
@@ -10538,7 +10538,7 @@
         <v>588</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D247" s="2" t="s">
         <v>19</v>
@@ -10561,7 +10561,7 @@
         <v>590</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D248" s="2" t="s">
         <v>19</v>
@@ -10584,7 +10584,7 @@
         <v>592</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D249" s="2" t="s">
         <v>19</v>
@@ -10607,7 +10607,7 @@
         <v>594</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D250" s="2" t="s">
         <v>19</v>
@@ -10630,7 +10630,7 @@
         <v>596</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D251" s="2" t="s">
         <v>19</v>
@@ -10653,7 +10653,7 @@
         <v>598</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D252" s="2" t="s">
         <v>19</v>
@@ -10676,7 +10676,7 @@
         <v>600</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D253" s="2" t="s">
         <v>19</v>
@@ -10699,7 +10699,7 @@
         <v>602</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D254" s="2" t="s">
         <v>19</v>
@@ -10722,7 +10722,7 @@
         <v>604</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D255" s="2" t="s">
         <v>19</v>
@@ -10745,7 +10745,7 @@
         <v>606</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D256" s="2" t="s">
         <v>35</v>
@@ -10768,7 +10768,7 @@
         <v>608</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D257" s="2" t="s">
         <v>35</v>
@@ -10791,7 +10791,7 @@
         <v>422</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D258" s="2" t="s">
         <v>35</v>
@@ -10814,7 +10814,7 @@
         <v>611</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D259" s="2" t="s">
         <v>35</v>
@@ -10837,7 +10837,7 @@
         <v>613</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D260" s="2" t="s">
         <v>35</v>
@@ -10860,7 +10860,7 @@
         <v>615</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D261" s="2" t="s">
         <v>35</v>
@@ -10883,7 +10883,7 @@
         <v>617</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D262" s="2" t="s">
         <v>35</v>
@@ -10906,7 +10906,7 @@
         <v>619</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D263" s="2" t="s">
         <v>35</v>
@@ -10929,7 +10929,7 @@
         <v>621</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D264" s="2" t="s">
         <v>35</v>
@@ -10952,7 +10952,7 @@
         <v>623</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D265" s="2" t="s">
         <v>35</v>
@@ -10975,7 +10975,7 @@
         <v>625</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D266" s="2" t="s">
         <v>35</v>
@@ -10998,7 +10998,7 @@
         <v>432</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D267" s="2" t="s">
         <v>35</v>
@@ -11021,7 +11021,7 @@
         <v>628</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D268" s="2" t="s">
         <v>35</v>
@@ -11044,7 +11044,7 @@
         <v>630</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D269" s="2" t="s">
         <v>35</v>
@@ -11067,7 +11067,7 @@
         <v>632</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D270" s="2" t="s">
         <v>35</v>
@@ -11090,7 +11090,7 @@
         <v>634</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D271" s="2" t="s">
         <v>35</v>
@@ -11113,7 +11113,7 @@
         <v>636</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D272" s="2" t="s">
         <v>35</v>
@@ -11136,7 +11136,7 @@
         <v>638</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D273" s="2" t="s">
         <v>35</v>
@@ -11159,7 +11159,7 @@
         <v>640</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D274" s="2" t="s">
         <v>35</v>
@@ -11182,7 +11182,7 @@
         <v>642</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D275" s="2" t="s">
         <v>48</v>
@@ -11205,7 +11205,7 @@
         <v>644</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D276" s="2" t="s">
         <v>48</v>
@@ -11228,7 +11228,7 @@
         <v>646</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D277" s="2" t="s">
         <v>48</v>
@@ -11251,7 +11251,7 @@
         <v>648</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D278" s="2" t="s">
         <v>48</v>
@@ -11274,7 +11274,7 @@
         <v>650</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D279" s="2" t="s">
         <v>48</v>
@@ -11297,7 +11297,7 @@
         <v>652</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D280" s="2" t="s">
         <v>48</v>
@@ -11320,7 +11320,7 @@
         <v>654</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D281" s="2" t="s">
         <v>48</v>
@@ -11343,7 +11343,7 @@
         <v>656</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D282" s="2" t="s">
         <v>48</v>
@@ -11366,7 +11366,7 @@
         <v>658</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D283" s="2" t="s">
         <v>48</v>
@@ -11389,7 +11389,7 @@
         <v>660</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D284" s="2" t="s">
         <v>48</v>
@@ -11412,7 +11412,7 @@
         <v>662</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D285" s="2" t="s">
         <v>48</v>
@@ -11435,7 +11435,7 @@
         <v>664</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D286" s="2" t="s">
         <v>48</v>
@@ -11458,7 +11458,7 @@
         <v>666</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D287" s="2" t="s">
         <v>48</v>
@@ -11481,7 +11481,7 @@
         <v>668</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D288" s="2" t="s">
         <v>48</v>
@@ -11504,7 +11504,7 @@
         <v>670</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D289" s="2" t="s">
         <v>48</v>
@@ -11527,7 +11527,7 @@
         <v>672</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D290" s="2" t="s">
         <v>48</v>
@@ -11550,7 +11550,7 @@
         <v>674</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D291" s="2" t="s">
         <v>48</v>
@@ -11573,7 +11573,7 @@
         <v>676</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D292" s="2" t="s">
         <v>48</v>
@@ -11596,7 +11596,7 @@
         <v>678</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D293" s="2" t="s">
         <v>57</v>
@@ -11619,7 +11619,7 @@
         <v>680</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D294" s="2" t="s">
         <v>57</v>
@@ -11642,7 +11642,7 @@
         <v>682</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D295" s="2" t="s">
         <v>57</v>
@@ -11665,7 +11665,7 @@
         <v>683</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D296" s="2" t="s">
         <v>57</v>
@@ -11688,7 +11688,7 @@
         <v>685</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D297" s="2" t="s">
         <v>57</v>
@@ -11711,7 +11711,7 @@
         <v>687</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D298" s="2" t="s">
         <v>57</v>
@@ -11734,7 +11734,7 @@
         <v>689</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D299" s="2" t="s">
         <v>57</v>
@@ -11757,7 +11757,7 @@
         <v>691</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D300" s="2" t="s">
         <v>57</v>
@@ -11780,7 +11780,7 @@
         <v>693</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D301" s="2" t="s">
         <v>57</v>
@@ -11803,7 +11803,7 @@
         <v>695</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D302" s="2" t="s">
         <v>57</v>
@@ -11826,7 +11826,7 @@
         <v>697</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D303" s="2" t="s">
         <v>57</v>
@@ -11849,7 +11849,7 @@
         <v>699</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D304" s="2" t="s">
         <v>57</v>
@@ -11872,7 +11872,7 @@
         <v>701</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D305" s="2" t="s">
         <v>57</v>
@@ -11895,7 +11895,7 @@
         <v>703</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D306" s="2" t="s">
         <v>57</v>
@@ -11918,7 +11918,7 @@
         <v>705</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D307" s="2" t="s">
         <v>57</v>
@@ -11941,7 +11941,7 @@
         <v>707</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D308" s="2" t="s">
         <v>57</v>
@@ -11964,7 +11964,7 @@
         <v>709</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D309" s="2" t="s">
         <v>57</v>
@@ -11987,7 +11987,7 @@
         <v>711</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D310" s="2" t="s">
         <v>57</v>
@@ -12010,7 +12010,7 @@
         <v>713</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D311" s="2" t="s">
         <v>72</v>
@@ -12033,7 +12033,7 @@
         <v>715</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D312" s="2" t="s">
         <v>72</v>
@@ -12056,7 +12056,7 @@
         <v>717</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D313" s="2" t="s">
         <v>72</v>
@@ -12079,7 +12079,7 @@
         <v>719</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D314" s="2" t="s">
         <v>72</v>
@@ -12102,7 +12102,7 @@
         <v>721</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D315" s="2" t="s">
         <v>72</v>
@@ -12125,7 +12125,7 @@
         <v>723</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D316" s="2" t="s">
         <v>72</v>
@@ -12148,7 +12148,7 @@
         <v>725</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D317" s="2" t="s">
         <v>72</v>
@@ -12171,7 +12171,7 @@
         <v>727</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D318" s="2" t="s">
         <v>72</v>
@@ -12194,7 +12194,7 @@
         <v>729</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D319" s="2" t="s">
         <v>72</v>
@@ -12217,7 +12217,7 @@
         <v>731</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D320" s="2" t="s">
         <v>72</v>
@@ -12240,7 +12240,7 @@
         <v>733</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D321" s="2" t="s">
         <v>72</v>
@@ -12263,7 +12263,7 @@
         <v>735</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D322" s="2" t="s">
         <v>72</v>
@@ -12286,7 +12286,7 @@
         <v>737</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D323" s="2" t="s">
         <v>72</v>
@@ -12309,7 +12309,7 @@
         <v>739</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D324" s="2" t="s">
         <v>72</v>
@@ -12332,7 +12332,7 @@
         <v>741</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D325" s="2" t="s">
         <v>72</v>
@@ -12355,7 +12355,7 @@
         <v>743</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D326" s="2" t="s">
         <v>72</v>
@@ -12378,7 +12378,7 @@
         <v>745</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D327" s="2" t="s">
         <v>72</v>
@@ -12401,7 +12401,7 @@
         <v>747</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D328" s="2" t="s">
         <v>85</v>
@@ -12424,7 +12424,7 @@
         <v>749</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D329" s="2" t="s">
         <v>85</v>
@@ -12447,7 +12447,7 @@
         <v>751</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D330" s="2" t="s">
         <v>85</v>
@@ -12470,7 +12470,7 @@
         <v>753</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D331" s="2" t="s">
         <v>85</v>
@@ -12493,7 +12493,7 @@
         <v>755</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D332" s="2" t="s">
         <v>85</v>
@@ -12516,7 +12516,7 @@
         <v>757</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D333" s="2" t="s">
         <v>85</v>
@@ -12539,7 +12539,7 @@
         <v>759</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D334" s="2" t="s">
         <v>85</v>
@@ -12562,7 +12562,7 @@
         <v>761</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D335" s="2" t="s">
         <v>85</v>
@@ -12585,7 +12585,7 @@
         <v>176</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D336" s="2" t="s">
         <v>85</v>
@@ -12608,7 +12608,7 @@
         <v>764</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D337" s="2" t="s">
         <v>85</v>
@@ -12631,7 +12631,7 @@
         <v>766</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D338" s="2" t="s">
         <v>85</v>
@@ -12654,7 +12654,7 @@
         <v>768</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D339" s="2" t="s">
         <v>85</v>
@@ -12677,7 +12677,7 @@
         <v>770</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D340" s="2" t="s">
         <v>85</v>
@@ -12700,7 +12700,7 @@
         <v>772</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D341" s="2" t="s">
         <v>85</v>
@@ -12723,7 +12723,7 @@
         <v>774</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D342" s="2" t="s">
         <v>85</v>
@@ -12746,7 +12746,7 @@
         <v>776</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D343" s="2" t="s">
         <v>103</v>
@@ -12769,7 +12769,7 @@
         <v>778</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D344" s="2" t="s">
         <v>103</v>
@@ -12792,7 +12792,7 @@
         <v>780</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D345" s="2" t="s">
         <v>103</v>
@@ -12815,7 +12815,7 @@
         <v>782</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D346" s="2" t="s">
         <v>103</v>
@@ -12838,7 +12838,7 @@
         <v>784</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D347" s="2" t="s">
         <v>103</v>
@@ -12861,7 +12861,7 @@
         <v>786</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D348" s="2" t="s">
         <v>103</v>
@@ -12884,7 +12884,7 @@
         <v>788</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D349" s="2" t="s">
         <v>103</v>
@@ -12907,7 +12907,7 @@
         <v>790</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D350" s="2" t="s">
         <v>103</v>
@@ -12930,7 +12930,7 @@
         <v>792</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D351" s="2" t="s">
         <v>103</v>
@@ -12953,7 +12953,7 @@
         <v>794</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D352" s="2" t="s">
         <v>103</v>
@@ -12976,7 +12976,7 @@
         <v>796</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D353" s="2" t="s">
         <v>103</v>
@@ -12999,7 +12999,7 @@
         <v>798</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D354" s="2" t="s">
         <v>103</v>
@@ -13022,7 +13022,7 @@
         <v>800</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D355" s="2" t="s">
         <v>103</v>
@@ -13045,7 +13045,7 @@
         <v>802</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D356" s="2" t="s">
         <v>103</v>
@@ -13068,7 +13068,7 @@
         <v>804</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D357" s="2" t="s">
         <v>126</v>
@@ -13091,7 +13091,7 @@
         <v>806</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D358" s="2" t="s">
         <v>126</v>
@@ -13114,7 +13114,7 @@
         <v>808</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D359" s="2" t="s">
         <v>126</v>
@@ -13137,7 +13137,7 @@
         <v>810</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D360" s="2" t="s">
         <v>126</v>
@@ -13160,7 +13160,7 @@
         <v>812</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D361" s="2" t="s">
         <v>126</v>
@@ -13183,7 +13183,7 @@
         <v>814</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D362" s="2" t="s">
         <v>126</v>
@@ -13206,7 +13206,7 @@
         <v>816</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D363" s="2" t="s">
         <v>126</v>
@@ -13229,7 +13229,7 @@
         <v>818</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D364" s="2" t="s">
         <v>126</v>
@@ -13252,7 +13252,7 @@
         <v>820</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D365" s="2" t="s">
         <v>126</v>
@@ -13275,7 +13275,7 @@
         <v>822</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D366" s="2" t="s">
         <v>126</v>
@@ -13298,7 +13298,7 @@
         <v>824</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D367" s="2" t="s">
         <v>126</v>
@@ -13321,7 +13321,7 @@
         <v>33</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D368" s="2" t="s">
         <v>126</v>
@@ -13344,7 +13344,7 @@
         <v>827</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D369" s="2" t="s">
         <v>126</v>
@@ -13367,7 +13367,7 @@
         <v>829</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D370" s="2" t="s">
         <v>126</v>
@@ -13390,7 +13390,7 @@
         <v>831</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D371" s="2" t="s">
         <v>126</v>
@@ -13413,7 +13413,7 @@
         <v>889</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D372" s="2" t="s">
         <v>19</v>
@@ -13431,7 +13431,7 @@
         <v>2</v>
       </c>
       <c r="J372" s="2" t="s">
-        <v>890</v>
+        <v>928</v>
       </c>
     </row>
     <row r="373" spans="1:10" x14ac:dyDescent="0.25">
@@ -13439,10 +13439,10 @@
         <v>371</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D373" s="2" t="s">
         <v>19</v>
@@ -13460,7 +13460,7 @@
         <v>2</v>
       </c>
       <c r="J373" s="2" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="374" spans="1:10" x14ac:dyDescent="0.25">
@@ -13468,10 +13468,10 @@
         <v>372</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D374" s="2" t="s">
         <v>48</v>
@@ -13495,10 +13495,10 @@
         <v>373</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D375" s="2" t="s">
         <v>48</v>
@@ -13516,7 +13516,7 @@
         <v>5</v>
       </c>
       <c r="J375" s="2" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="376" spans="1:10" x14ac:dyDescent="0.25">
@@ -13524,10 +13524,10 @@
         <v>374</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D376" s="2" t="s">
         <v>48</v>
@@ -13545,7 +13545,7 @@
         <v>2</v>
       </c>
       <c r="J376" s="2" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="377" spans="1:10" x14ac:dyDescent="0.25">
@@ -13553,10 +13553,10 @@
         <v>375</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D377" s="2" t="s">
         <v>72</v>
@@ -13574,7 +13574,7 @@
         <v>2</v>
       </c>
       <c r="J377" s="2" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="378" spans="1:10" x14ac:dyDescent="0.25">
@@ -13582,10 +13582,10 @@
         <v>376</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D378" s="2" t="s">
         <v>72</v>
@@ -13609,10 +13609,10 @@
         <v>377</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D379" s="2" t="s">
         <v>85</v>
@@ -13630,7 +13630,7 @@
         <v>3</v>
       </c>
       <c r="J379" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="380" spans="1:10" x14ac:dyDescent="0.25">
@@ -13638,10 +13638,10 @@
         <v>378</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D380" s="2" t="s">
         <v>85</v>
@@ -13659,7 +13659,7 @@
         <v>8</v>
       </c>
       <c r="J380" s="2" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="381" spans="1:10" x14ac:dyDescent="0.25">
@@ -13667,10 +13667,10 @@
         <v>379</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D381" s="2" t="s">
         <v>126</v>
@@ -13694,10 +13694,10 @@
         <v>380</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D382" s="2" t="s">
         <v>126</v>
@@ -13721,10 +13721,10 @@
         <v>381</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D383" s="2" t="s">
         <v>126</v>
@@ -13742,7 +13742,7 @@
         <v>1</v>
       </c>
       <c r="J383" s="2" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="384" spans="1:10" x14ac:dyDescent="0.25">
@@ -13750,13 +13750,13 @@
         <v>382</v>
       </c>
       <c r="B384" s="7" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C384" s="7" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D384" s="7" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="F384" s="7" t="s">
         <v>8</v>
@@ -13765,7 +13765,7 @@
         <v>1</v>
       </c>
       <c r="J384" s="7" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="385" spans="1:10" x14ac:dyDescent="0.25">
@@ -13776,7 +13776,7 @@
         <v>886</v>
       </c>
       <c r="C385" s="7" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D385" s="7" t="s">
         <v>511</v>
@@ -13799,7 +13799,7 @@
         <v>888</v>
       </c>
       <c r="C386" s="7" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D386" s="7" t="s">
         <v>511</v>
@@ -13822,7 +13822,7 @@
         <v>493</v>
       </c>
       <c r="C387" s="7" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D387" s="7" t="s">
         <v>418</v>
@@ -13854,7 +13854,7 @@
         <v>495</v>
       </c>
       <c r="C388" s="7" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D388" s="7" t="s">
         <v>418</v>
@@ -13886,7 +13886,7 @@
         <v>497</v>
       </c>
       <c r="C389" s="7" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D389" s="7" t="s">
         <v>418</v>
@@ -13918,7 +13918,7 @@
         <v>507</v>
       </c>
       <c r="C390" s="7" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D390" s="7" t="s">
         <v>418</v>
@@ -13950,7 +13950,7 @@
         <v>876</v>
       </c>
       <c r="C391" s="7" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D391" s="7" t="s">
         <v>511</v>
@@ -13973,7 +13973,7 @@
         <v>860</v>
       </c>
       <c r="C392" s="7" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D392" s="7" t="s">
         <v>418</v>
@@ -13996,7 +13996,7 @@
         <v>882</v>
       </c>
       <c r="C393" s="7" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D393" s="7" t="s">
         <v>511</v>
@@ -14016,10 +14016,10 @@
         <v>392</v>
       </c>
       <c r="B394" s="7" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C394" s="7" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D394" s="7" t="s">
         <v>418</v>
@@ -14037,7 +14037,7 @@
         <v>3</v>
       </c>
       <c r="J394" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="395" spans="1:10" x14ac:dyDescent="0.25">
@@ -14048,7 +14048,7 @@
         <v>526</v>
       </c>
       <c r="C395" s="7" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D395" s="7" t="s">
         <v>511</v>
@@ -14077,7 +14077,7 @@
         <v>475</v>
       </c>
       <c r="C396" s="7" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D396" s="7" t="s">
         <v>418</v>
@@ -14109,7 +14109,7 @@
         <v>442</v>
       </c>
       <c r="C397" s="7" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D397" s="7" t="s">
         <v>418</v>
@@ -14138,7 +14138,7 @@
         <v>878</v>
       </c>
       <c r="C398" s="7" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D398" s="7" t="s">
         <v>511</v>
@@ -14161,7 +14161,7 @@
         <v>841</v>
       </c>
       <c r="C399" s="7" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D399" s="7" t="s">
         <v>418</v>
@@ -14184,7 +14184,7 @@
         <v>849</v>
       </c>
       <c r="C400" s="7" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D400" s="7" t="s">
         <v>418</v>
@@ -14207,7 +14207,7 @@
         <v>856</v>
       </c>
       <c r="C401" s="7" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D401" s="7" t="s">
         <v>418</v>
@@ -14230,7 +14230,7 @@
         <v>858</v>
       </c>
       <c r="C402" s="7" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D402" s="7" t="s">
         <v>418</v>
@@ -14250,10 +14250,10 @@
         <v>401</v>
       </c>
       <c r="B403" s="7" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C403" s="7" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D403" s="7" t="s">
         <v>418</v>
@@ -14271,7 +14271,7 @@
         <v>2</v>
       </c>
       <c r="J403" s="7" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="404" spans="1:10" x14ac:dyDescent="0.25">
@@ -14282,7 +14282,7 @@
         <v>444</v>
       </c>
       <c r="C404" s="7" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D404" s="7" t="s">
         <v>418</v>
@@ -14311,7 +14311,7 @@
         <v>473</v>
       </c>
       <c r="C405" s="7" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D405" s="7" t="s">
         <v>418</v>
@@ -14343,7 +14343,7 @@
         <v>479</v>
       </c>
       <c r="C406" s="7" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D406" s="7" t="s">
         <v>418</v>
@@ -14375,7 +14375,7 @@
         <v>428</v>
       </c>
       <c r="C407" s="7" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D407" s="7" t="s">
         <v>418</v>
@@ -14407,7 +14407,7 @@
         <v>424</v>
       </c>
       <c r="C408" s="7" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D408" s="7" t="s">
         <v>418</v>
@@ -14439,7 +14439,7 @@
         <v>426</v>
       </c>
       <c r="C409" s="7" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D409" s="7" t="s">
         <v>418</v>
@@ -14471,7 +14471,7 @@
         <v>430</v>
       </c>
       <c r="C410" s="7" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D410" s="7" t="s">
         <v>418</v>
@@ -14503,7 +14503,7 @@
         <v>434</v>
       </c>
       <c r="C411" s="7" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D411" s="7" t="s">
         <v>418</v>
@@ -14532,7 +14532,7 @@
         <v>510</v>
       </c>
       <c r="C412" s="7" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D412" s="7" t="s">
         <v>511</v>
@@ -14561,7 +14561,7 @@
         <v>417</v>
       </c>
       <c r="C413" s="7" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D413" s="7" t="s">
         <v>418</v>
@@ -14593,7 +14593,7 @@
         <v>420</v>
       </c>
       <c r="C414" s="7" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D414" s="7" t="s">
         <v>418</v>
@@ -14622,7 +14622,7 @@
         <v>468</v>
       </c>
       <c r="C415" s="7" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D415" s="7" t="s">
         <v>418</v>
@@ -14651,7 +14651,7 @@
         <v>440</v>
       </c>
       <c r="C416" s="7" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D416" s="7" t="s">
         <v>418</v>
@@ -14680,7 +14680,7 @@
         <v>450</v>
       </c>
       <c r="C417" s="7" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D417" s="7" t="s">
         <v>418</v>
@@ -14709,7 +14709,7 @@
         <v>459</v>
       </c>
       <c r="C418" s="7" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D418" s="7" t="s">
         <v>418</v>
@@ -14738,7 +14738,7 @@
         <v>436</v>
       </c>
       <c r="C419" s="7" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D419" s="7" t="s">
         <v>418</v>
@@ -14767,7 +14767,7 @@
         <v>453</v>
       </c>
       <c r="C420" s="7" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D420" s="7" t="s">
         <v>418</v>
@@ -14796,7 +14796,7 @@
         <v>438</v>
       </c>
       <c r="C421" s="7" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D421" s="7" t="s">
         <v>418</v>
@@ -14825,7 +14825,7 @@
         <v>515</v>
       </c>
       <c r="C422" s="7" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D422" s="7" t="s">
         <v>511</v>
@@ -14854,7 +14854,7 @@
         <v>518</v>
       </c>
       <c r="C423" s="7" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D423" s="7" t="s">
         <v>511</v>
@@ -14883,7 +14883,7 @@
         <v>461</v>
       </c>
       <c r="C424" s="7" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D424" s="7" t="s">
         <v>418</v>
@@ -14915,7 +14915,7 @@
         <v>513</v>
       </c>
       <c r="C425" s="7" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D425" s="7" t="s">
         <v>511</v>
@@ -14944,7 +14944,7 @@
         <v>485</v>
       </c>
       <c r="C426" s="7" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D426" s="7" t="s">
         <v>418</v>
@@ -14973,7 +14973,7 @@
         <v>481</v>
       </c>
       <c r="C427" s="7" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D427" s="7" t="s">
         <v>418</v>
@@ -15005,7 +15005,7 @@
         <v>455</v>
       </c>
       <c r="C428" s="7" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D428" s="7" t="s">
         <v>418</v>
@@ -15037,7 +15037,7 @@
         <v>154</v>
       </c>
       <c r="C429" s="7" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D429" s="7" t="s">
         <v>418</v>
@@ -15069,7 +15069,7 @@
         <v>517</v>
       </c>
       <c r="C430" s="7" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D430" s="7" t="s">
         <v>511</v>
@@ -15098,7 +15098,7 @@
         <v>520</v>
       </c>
       <c r="C431" s="7" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D431" s="7" t="s">
         <v>511</v>
@@ -15127,7 +15127,7 @@
         <v>463</v>
       </c>
       <c r="C432" s="7" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D432" s="7" t="s">
         <v>418</v>
@@ -15156,7 +15156,7 @@
         <v>471</v>
       </c>
       <c r="C433" s="7" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D433" s="7" t="s">
         <v>418</v>
@@ -15188,7 +15188,7 @@
         <v>457</v>
       </c>
       <c r="C434" s="7" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D434" s="7" t="s">
         <v>418</v>
@@ -15220,7 +15220,7 @@
         <v>465</v>
       </c>
       <c r="C435" s="7" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D435" s="7" t="s">
         <v>418</v>
@@ -15252,7 +15252,7 @@
         <v>446</v>
       </c>
       <c r="C436" s="7" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D436" s="7" t="s">
         <v>418</v>
@@ -15281,7 +15281,7 @@
         <v>448</v>
       </c>
       <c r="C437" s="7" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D437" s="7" t="s">
         <v>418</v>
@@ -15310,7 +15310,7 @@
         <v>477</v>
       </c>
       <c r="C438" s="7" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D438" s="7" t="s">
         <v>418</v>
@@ -15342,7 +15342,7 @@
         <v>491</v>
       </c>
       <c r="C439" s="7" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D439" s="7" t="s">
         <v>418</v>
@@ -15371,7 +15371,7 @@
         <v>489</v>
       </c>
       <c r="C440" s="7" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D440" s="7" t="s">
         <v>418</v>
@@ -15403,7 +15403,7 @@
         <v>483</v>
       </c>
       <c r="C441" s="7" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D441" s="7" t="s">
         <v>418</v>
@@ -15432,7 +15432,7 @@
         <v>487</v>
       </c>
       <c r="C442" s="7" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D442" s="7" t="s">
         <v>418</v>
@@ -15464,7 +15464,7 @@
         <v>523</v>
       </c>
       <c r="C443" s="7" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D443" s="7" t="s">
         <v>511</v>
@@ -15493,7 +15493,7 @@
         <v>522</v>
       </c>
       <c r="C444" s="7" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D444" s="7" t="s">
         <v>511</v>
@@ -15522,7 +15522,7 @@
         <v>499</v>
       </c>
       <c r="C445" s="7" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D445" s="7" t="s">
         <v>418</v>
@@ -15551,7 +15551,7 @@
         <v>503</v>
       </c>
       <c r="C446" s="7" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D446" s="7" t="s">
         <v>418</v>
@@ -15583,7 +15583,7 @@
         <v>501</v>
       </c>
       <c r="C447" s="7" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D447" s="7" t="s">
         <v>418</v>
@@ -15612,7 +15612,7 @@
         <v>525</v>
       </c>
       <c r="C448" s="7" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D448" s="7" t="s">
         <v>511</v>
@@ -15641,7 +15641,7 @@
         <v>524</v>
       </c>
       <c r="C449" s="7" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D449" s="7" t="s">
         <v>511</v>
@@ -15670,7 +15670,7 @@
         <v>508</v>
       </c>
       <c r="C450" s="7" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D450" s="7" t="s">
         <v>418</v>
@@ -15702,7 +15702,7 @@
         <v>833</v>
       </c>
       <c r="C451" s="7" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D451" s="7" t="s">
         <v>418</v>
@@ -15725,7 +15725,7 @@
         <v>835</v>
       </c>
       <c r="C452" s="7" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D452" s="7" t="s">
         <v>418</v>
@@ -15748,7 +15748,7 @@
         <v>837</v>
       </c>
       <c r="C453" s="7" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D453" s="7" t="s">
         <v>418</v>
@@ -15771,7 +15771,7 @@
         <v>839</v>
       </c>
       <c r="C454" s="7" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D454" s="7" t="s">
         <v>418</v>
@@ -15794,7 +15794,7 @@
         <v>843</v>
       </c>
       <c r="C455" s="7" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D455" s="7" t="s">
         <v>418</v>
@@ -15817,7 +15817,7 @@
         <v>845</v>
       </c>
       <c r="C456" s="7" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D456" s="7" t="s">
         <v>418</v>
@@ -15840,7 +15840,7 @@
         <v>847</v>
       </c>
       <c r="C457" s="7" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D457" s="7" t="s">
         <v>418</v>
@@ -15863,7 +15863,7 @@
         <v>852</v>
       </c>
       <c r="C458" s="7" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D458" s="7" t="s">
         <v>418</v>
@@ -15886,7 +15886,7 @@
         <v>854</v>
       </c>
       <c r="C459" s="7" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D459" s="7" t="s">
         <v>418</v>
@@ -15909,7 +15909,7 @@
         <v>862</v>
       </c>
       <c r="C460" s="7" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D460" s="7" t="s">
         <v>418</v>
@@ -15932,7 +15932,7 @@
         <v>864</v>
       </c>
       <c r="C461" s="7" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D461" s="7" t="s">
         <v>418</v>
@@ -15955,7 +15955,7 @@
         <v>866</v>
       </c>
       <c r="C462" s="7" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D462" s="7" t="s">
         <v>418</v>
@@ -15978,7 +15978,7 @@
         <v>868</v>
       </c>
       <c r="C463" s="7" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D463" s="7" t="s">
         <v>418</v>
@@ -16001,7 +16001,7 @@
         <v>870</v>
       </c>
       <c r="C464" s="7" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D464" s="7" t="s">
         <v>418</v>
@@ -16024,7 +16024,7 @@
         <v>872</v>
       </c>
       <c r="C465" s="7" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D465" s="7" t="s">
         <v>418</v>
@@ -16047,7 +16047,7 @@
         <v>874</v>
       </c>
       <c r="C466" s="7" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D466" s="7" t="s">
         <v>511</v>
@@ -16070,7 +16070,7 @@
         <v>880</v>
       </c>
       <c r="C467" s="7" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D467" s="7" t="s">
         <v>511</v>
@@ -16093,7 +16093,7 @@
         <v>884</v>
       </c>
       <c r="C468" s="7" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D468" s="7" t="s">
         <v>511</v>
@@ -16113,10 +16113,10 @@
         <v>467</v>
       </c>
       <c r="B469" s="7" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C469" s="7" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D469" s="7" t="s">
         <v>418</v>
@@ -16134,7 +16134,7 @@
         <v>3</v>
       </c>
       <c r="J469" s="7" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="470" spans="1:10" x14ac:dyDescent="0.25">
@@ -16142,10 +16142,10 @@
         <v>468</v>
       </c>
       <c r="B470" s="7" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C470" s="7" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D470" s="7" t="s">
         <v>418</v>
@@ -16163,7 +16163,7 @@
         <v>2</v>
       </c>
       <c r="J470" s="7" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="471" spans="1:10" x14ac:dyDescent="0.25">
@@ -16171,10 +16171,10 @@
         <v>469</v>
       </c>
       <c r="B471" s="7" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C471" s="7" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D471" s="7" t="s">
         <v>418</v>
@@ -16192,7 +16192,7 @@
         <v>8</v>
       </c>
       <c r="J471" s="7" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="472" spans="1:10" x14ac:dyDescent="0.25">
@@ -16200,10 +16200,10 @@
         <v>470</v>
       </c>
       <c r="B472" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C472" s="7" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D472" s="7" t="s">
         <v>511</v>
@@ -16229,10 +16229,10 @@
         <v>471</v>
       </c>
       <c r="B473" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C473" s="7" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D473" s="7" t="s">
         <v>511</v>
@@ -16258,13 +16258,13 @@
         <v>472</v>
       </c>
       <c r="B474" s="7" t="s">
+        <v>925</v>
+      </c>
+      <c r="C474" s="7" t="s">
+        <v>921</v>
+      </c>
+      <c r="D474" s="7" t="s">
         <v>926</v>
-      </c>
-      <c r="C474" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="D474" s="7" t="s">
-        <v>927</v>
       </c>
       <c r="F474" s="7" t="s">
         <v>5</v>
@@ -16287,7 +16287,7 @@
         <v>4</v>
       </c>
       <c r="C475" s="7" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D475" s="7" t="s">
         <v>418</v>
@@ -16316,7 +16316,7 @@
         <v>4</v>
       </c>
       <c r="C476" s="7" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D476" s="7" t="s">
         <v>418</v>
@@ -16345,7 +16345,7 @@
         <v>538</v>
       </c>
       <c r="C477" s="7" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D477" s="7" t="s">
         <v>418</v>
@@ -16368,7 +16368,7 @@
         <v>422</v>
       </c>
       <c r="C478" s="7" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D478" s="7" t="s">
         <v>418</v>
@@ -16397,7 +16397,7 @@
         <v>432</v>
       </c>
       <c r="C479" s="7" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D479" s="7" t="s">
         <v>418</v>
@@ -16426,7 +16426,7 @@
         <v>440</v>
       </c>
       <c r="C480" s="7" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D480" s="7" t="s">
         <v>418</v>
@@ -16455,7 +16455,7 @@
         <v>440</v>
       </c>
       <c r="C481" s="7" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D481" s="7" t="s">
         <v>418</v>
@@ -16484,7 +16484,7 @@
         <v>485</v>
       </c>
       <c r="C482" s="7" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D482" s="7" t="s">
         <v>511</v>

--- a/card_info.xlsx
+++ b/card_info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="28665" windowHeight="12750"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="19380" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="cards" sheetId="2" r:id="rId1"/>
@@ -3105,42 +3105,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <font>
-        <color rgb="FF0FAF03"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF198EFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFAB48EE"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF07000"/>
-      </font>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <font>
         <color rgb="FF0FAF03"/>
@@ -3516,8 +3481,8 @@
   <dimension ref="A1:K566"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J63" sqref="J63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5611,13 +5576,13 @@
         <v>20</v>
       </c>
       <c r="H62" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I62" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J62" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K62" s="2" t="s">
         <v>25</v>
@@ -7782,7 +7747,7 @@
       </c>
       <c r="G127" s="2"/>
       <c r="H127" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I127" s="1">
         <v>6</v>
@@ -20409,16 +20374,16 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>"Legendary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>"Epic"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Rare"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"Common"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23264,16 +23229,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A565">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Legendary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"Epic"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"Rare"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"Common"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/card_info.xlsx
+++ b/card_info.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peizh\Dropbox\Documents\Hearthstone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\starforever\Dropbox\Documents\HearthDeck\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="36" windowWidth="19380" windowHeight="12180"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="19380" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="cards" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4367" uniqueCount="1340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4607" uniqueCount="1418">
   <si>
     <t>Keeper of the Grove</t>
   </si>
@@ -4042,6 +4042,240 @@
   </si>
   <si>
     <t>Deal 1 damage to all minions. If you have 12 or less Health, deal 3 damage instead.</t>
+  </si>
+  <si>
+    <t>Dark Iron Bouncer</t>
+  </si>
+  <si>
+    <t>Always wins Brawls.</t>
+  </si>
+  <si>
+    <t>Dark Iron Spectator</t>
+  </si>
+  <si>
+    <t>Taunt.</t>
+  </si>
+  <si>
+    <t>Moira Bronzebeard</t>
+  </si>
+  <si>
+    <t>Thaurissan's Hero Power can't be used. Never attacks minions unless they have Taunt.</t>
+  </si>
+  <si>
+    <t>Guzzler</t>
+  </si>
+  <si>
+    <t>Firesworn</t>
+  </si>
+  <si>
+    <t>Deathrattle: Deal 1 damage to the enemy hero for each Firesworn that died this turn.</t>
+  </si>
+  <si>
+    <t>Flamewaker Acolyte</t>
+  </si>
+  <si>
+    <t>Son of the Flame</t>
+  </si>
+  <si>
+    <t>Battlecry: Deal 6 damage.</t>
+  </si>
+  <si>
+    <t>Old Horde Orc</t>
+  </si>
+  <si>
+    <t>Black Whelp</t>
+  </si>
+  <si>
+    <t>Gyth</t>
+  </si>
+  <si>
+    <t>Dragonkin</t>
+  </si>
+  <si>
+    <t>Corrupted Egg</t>
+  </si>
+  <si>
+    <t>When this minion has 4 or more Health, it hatches.</t>
+  </si>
+  <si>
+    <t>Chromatic Drake</t>
+  </si>
+  <si>
+    <t>Chromatic Dragonkin</t>
+  </si>
+  <si>
+    <t>Living Lava</t>
+  </si>
+  <si>
+    <t>Whirling Ash</t>
+  </si>
+  <si>
+    <t>Arcanotron</t>
+  </si>
+  <si>
+    <t>Both players have Spell Damage +2.</t>
+  </si>
+  <si>
+    <t>Toxitron</t>
+  </si>
+  <si>
+    <t>At the start of your turn, deal 1 damage to all other minions.</t>
+  </si>
+  <si>
+    <t>Electron</t>
+  </si>
+  <si>
+    <t>All spells cost (3) less.</t>
+  </si>
+  <si>
+    <t>Magmatron</t>
+  </si>
+  <si>
+    <t>Whenever a player plays a card, Magmatron deals 2 damage to them.</t>
+  </si>
+  <si>
+    <t>Magmaw</t>
+  </si>
+  <si>
+    <t>Aberration</t>
+  </si>
+  <si>
+    <t>Bone Construct</t>
+  </si>
+  <si>
+    <t>Chromatic Prototype</t>
+  </si>
+  <si>
+    <t>Get 'em!</t>
+  </si>
+  <si>
+    <t>Summon four 1/1 Dwarves with Taunt.</t>
+  </si>
+  <si>
+    <t>Flameheart</t>
+  </si>
+  <si>
+    <t>Draw 2 cards. Gain 4 Armor.</t>
+  </si>
+  <si>
+    <t>Rock Out</t>
+  </si>
+  <si>
+    <t>Summon 3 Firesworn. Overload: (2).</t>
+  </si>
+  <si>
+    <t>Living Bomb</t>
+  </si>
+  <si>
+    <t>Choose an enemy minion. If it lives until your next turn, deal 5 damage to all enemies.</t>
+  </si>
+  <si>
+    <t>TIME FOR SMASH</t>
+  </si>
+  <si>
+    <t>Deal 5 damage to a random enemy. Gain 5 Armor.</t>
+  </si>
+  <si>
+    <t>Drakkisath's Command</t>
+  </si>
+  <si>
+    <t>Destroy a minion. Gain 10 Armor.</t>
+  </si>
+  <si>
+    <t>The True Warchief</t>
+  </si>
+  <si>
+    <t>Destroy a Legendary minion.</t>
+  </si>
+  <si>
+    <t>Burning Adrenaline</t>
+  </si>
+  <si>
+    <t>Deal 2 damage to the enemy hero.</t>
+  </si>
+  <si>
+    <t>Brood Affliction: Green</t>
+  </si>
+  <si>
+    <t>While this is in your hand, restore 2 health to your opponent at the start of your turn.</t>
+  </si>
+  <si>
+    <t>Brood Affliction: Red</t>
+  </si>
+  <si>
+    <t>While this is in your hand, take 1 damage at the start of your turn.</t>
+  </si>
+  <si>
+    <t>Brood Affliction: Blue</t>
+  </si>
+  <si>
+    <t>While this is in your hand, Chromaggus' spells cost (1) less.</t>
+  </si>
+  <si>
+    <t>Brood Affliction: Bronze</t>
+  </si>
+  <si>
+    <t>While this is in your hand, Chromaggus' minions cost (1) less.</t>
+  </si>
+  <si>
+    <t>Brood Affliction: Black</t>
+  </si>
+  <si>
+    <t>While this is in your hand, whenever Chromaggus draws a card, he gets another copy of it.</t>
+  </si>
+  <si>
+    <t>Chromatic Mutation</t>
+  </si>
+  <si>
+    <t>Transform a minion into a 2/2 Chromatic Dragonkin.</t>
+  </si>
+  <si>
+    <t>Tail Swipe</t>
+  </si>
+  <si>
+    <t>DIE, INSECT!</t>
+  </si>
+  <si>
+    <t>Deal 8 damage to a random enemy.</t>
+  </si>
+  <si>
+    <t>Recharge</t>
+  </si>
+  <si>
+    <t>Fill all empty Mana Crystals.</t>
+  </si>
+  <si>
+    <t>Release the Aberrations!</t>
+  </si>
+  <si>
+    <t>Summon 3 Aberrations.</t>
+  </si>
+  <si>
+    <t>Reverberating Gong</t>
+  </si>
+  <si>
+    <t>Destroy your opponent's weapon.</t>
+  </si>
+  <si>
+    <t>Sonic Breath</t>
+  </si>
+  <si>
+    <t>Deal 3 damage to a minion. Give your weapon +3 Attack.</t>
+  </si>
+  <si>
+    <t>LAVA!</t>
+  </si>
+  <si>
+    <t>Deal 2 damage to all minions.</t>
+  </si>
+  <si>
+    <t>Dragonteeth</t>
+  </si>
+  <si>
+    <t>Whenever your opponent plays a card, gain +1 Attack.</t>
+  </si>
+  <si>
+    <t>Onyxiclaw</t>
   </si>
 </sst>
 </file>
@@ -4102,247 +4336,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="48">
-    <dxf>
-      <font>
-        <color rgb="FF0FAF03"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF198EFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFAB48EE"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF07000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0FAF03"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF198EFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFAB48EE"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF07000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0FAF03"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF198EFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFAB48EE"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF07000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0FAF03"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF198EFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFAB48EE"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF07000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0FAF03"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF198EFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFAB48EE"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF07000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0FAF03"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF198EFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFAB48EE"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF07000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FFF07000"/>
@@ -4376,206 +4370,6 @@
     <dxf>
       <font>
         <color rgb="FF0FAF03"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0FAF03"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF198EFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFAB48EE"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF07000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0FAF03"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF198EFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFAB48EE"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF07000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0FAF03"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF198EFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFAB48EE"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF07000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0FAF03"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF198EFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFAB48EE"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF07000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0FAF03"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF198EFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFAB48EE"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF07000"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4888,29 +4682,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K740"/>
+  <dimension ref="A1:K788"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A714" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A708" sqref="A708:A740"/>
+      <pane ySplit="1" topLeftCell="A734" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B785" sqref="B785"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="78.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="85.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>473</v>
       </c>
@@ -4945,7 +4739,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -4976,7 +4770,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -5011,7 +4805,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -5044,7 +4838,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -5077,7 +4871,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -5110,7 +4904,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -5145,7 +4939,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -5178,7 +4972,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -5211,7 +5005,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -5244,7 +5038,7 @@
       </c>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -5279,7 +5073,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -5312,7 +5106,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -5345,7 +5139,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -5378,7 +5172,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -5413,7 +5207,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -5446,7 +5240,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -5481,7 +5275,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -5514,7 +5308,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -5549,7 +5343,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -5582,7 +5376,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -5617,7 +5411,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -5650,7 +5444,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -5683,7 +5477,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -5718,7 +5512,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -5753,7 +5547,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -5788,7 +5582,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -5823,7 +5617,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -5858,7 +5652,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -5891,7 +5685,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -5924,7 +5718,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -5957,7 +5751,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -5992,7 +5786,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -6025,7 +5819,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -6058,7 +5852,7 @@
       </c>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -6093,7 +5887,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -6126,7 +5920,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -6159,7 +5953,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -6192,7 +5986,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -6225,7 +6019,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -6258,7 +6052,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -6291,7 +6085,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -6326,7 +6120,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -6359,7 +6153,7 @@
       </c>
       <c r="K43" s="2"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -6392,7 +6186,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -6425,7 +6219,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -6458,7 +6252,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -6491,7 +6285,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -6524,7 +6318,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -6559,7 +6353,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -6592,7 +6386,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -6625,7 +6419,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -6658,7 +6452,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -6691,7 +6485,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -6726,7 +6520,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -6759,7 +6553,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -6792,7 +6586,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -6825,7 +6619,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -6860,7 +6654,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -6895,7 +6689,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -6928,7 +6722,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -6963,7 +6757,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -6998,7 +6792,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -7031,7 +6825,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -7066,7 +6860,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -7099,7 +6893,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -7132,7 +6926,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -7165,7 +6959,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -7200,7 +6994,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -7233,7 +7027,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -7266,7 +7060,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -7299,7 +7093,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -7332,7 +7126,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -7367,7 +7161,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -7402,7 +7196,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -7435,7 +7229,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -7468,7 +7262,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -7501,7 +7295,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -7534,7 +7328,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -7569,7 +7363,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -7602,7 +7396,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -7637,7 +7431,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -7670,7 +7464,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -7703,7 +7497,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -7738,7 +7532,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -7771,7 +7565,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -7806,7 +7600,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -7839,7 +7633,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -7872,7 +7666,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -7907,7 +7701,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -7940,7 +7734,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -7973,7 +7767,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -8006,7 +7800,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -8041,7 +7835,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -8076,7 +7870,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -8109,7 +7903,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -8144,7 +7938,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -8177,7 +7971,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -8210,7 +8004,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -8243,7 +8037,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -8276,7 +8070,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -8307,7 +8101,7 @@
       </c>
       <c r="K101" s="2"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -8340,7 +8134,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -8375,7 +8169,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -8408,7 +8202,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -8441,7 +8235,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -8474,7 +8268,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -8507,7 +8301,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -8540,7 +8334,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -8575,7 +8369,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -8610,7 +8404,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -8643,7 +8437,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -8676,7 +8470,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -8709,7 +8503,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -8744,7 +8538,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -8779,7 +8573,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -8814,7 +8608,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -8847,7 +8641,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -8878,7 +8672,7 @@
       </c>
       <c r="K118" s="2"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -8911,7 +8705,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -8944,7 +8738,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -8977,7 +8771,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -9010,7 +8804,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -9043,7 +8837,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -9076,7 +8870,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -9109,7 +8903,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -9142,7 +8936,7 @@
       </c>
       <c r="K126" s="2"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -9175,7 +8969,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -9208,7 +9002,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -9241,7 +9035,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -9274,7 +9068,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -9307,7 +9101,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -9340,7 +9134,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -9373,7 +9167,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -9408,7 +9202,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -9441,7 +9235,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -9474,7 +9268,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -9507,7 +9301,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -9540,7 +9334,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -9573,7 +9367,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -9606,7 +9400,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -9639,7 +9433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -9674,7 +9468,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -9707,7 +9501,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -9740,7 +9534,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -9775,7 +9569,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -9808,7 +9602,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -9841,7 +9635,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -9874,7 +9668,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -9907,7 +9701,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -9942,7 +9736,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -9975,7 +9769,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -10010,7 +9804,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -10043,7 +9837,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -10076,7 +9870,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -10111,7 +9905,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -10144,7 +9938,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -10177,7 +9971,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -10210,7 +10004,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -10243,7 +10037,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -10278,7 +10072,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -10311,7 +10105,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -10344,7 +10138,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -10377,7 +10171,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -10410,7 +10204,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -10443,7 +10237,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -10478,7 +10272,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -10511,7 +10305,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -10546,7 +10340,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -10579,7 +10373,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -10612,7 +10406,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -10647,7 +10441,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -10678,7 +10472,7 @@
       </c>
       <c r="K172" s="2"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -10713,7 +10507,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -10746,7 +10540,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -10779,7 +10573,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -10814,7 +10608,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -10847,7 +10641,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -10880,7 +10674,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -10915,7 +10709,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -10948,7 +10742,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -10981,7 +10775,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -11014,7 +10808,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -11047,7 +10841,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -11080,7 +10874,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -11113,7 +10907,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -11146,7 +10940,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -11179,7 +10973,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -11212,7 +11006,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -11245,7 +11039,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -11278,7 +11072,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -11311,7 +11105,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -11344,7 +11138,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -11377,7 +11171,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -11408,7 +11202,7 @@
       </c>
       <c r="K194" s="2"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -11441,7 +11235,7 @@
       </c>
       <c r="K195" s="2"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -11474,7 +11268,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -11507,7 +11301,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -11540,7 +11334,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -11573,7 +11367,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -11606,7 +11400,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -11639,7 +11433,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -11672,7 +11466,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -11705,7 +11499,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -11738,7 +11532,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -11771,7 +11565,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -11804,7 +11598,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -11837,7 +11631,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -11870,7 +11664,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -11905,7 +11699,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -11940,7 +11734,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -11975,7 +11769,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -12010,7 +11804,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -12045,7 +11839,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -12080,7 +11874,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -12115,7 +11909,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -12148,7 +11942,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -12183,7 +11977,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -12216,7 +12010,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -12249,7 +12043,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -12282,7 +12076,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -12309,7 +12103,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -12336,7 +12130,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -12363,7 +12157,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -12390,7 +12184,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -12417,7 +12211,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -12444,7 +12238,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -12471,7 +12265,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -12498,7 +12292,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -12525,7 +12319,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -12552,7 +12346,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -12579,7 +12373,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -12606,7 +12400,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -12633,7 +12427,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -12660,7 +12454,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -12687,7 +12481,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -12714,7 +12508,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -12741,7 +12535,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -12768,7 +12562,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -12795,7 +12589,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -12822,7 +12616,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -12849,7 +12643,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -12876,7 +12670,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -12903,7 +12697,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -12930,7 +12724,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -12957,7 +12751,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -12984,7 +12778,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -13011,7 +12805,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -13038,7 +12832,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -13065,7 +12859,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -13092,7 +12886,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -13119,7 +12913,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -13146,7 +12940,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -13173,7 +12967,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -13200,7 +12994,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -13227,7 +13021,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -13254,7 +13048,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -13281,7 +13075,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -13308,7 +13102,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -13335,7 +13129,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -13362,7 +13156,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -13389,7 +13183,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -13416,7 +13210,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -13443,7 +13237,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -13470,7 +13264,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -13497,7 +13291,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -13524,7 +13318,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -13551,7 +13345,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -13578,7 +13372,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -13605,7 +13399,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -13632,7 +13426,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -13659,7 +13453,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -13686,7 +13480,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -13713,7 +13507,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -13740,7 +13534,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -13767,7 +13561,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -13794,7 +13588,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -13821,7 +13615,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -13848,7 +13642,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -13875,7 +13669,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -13902,7 +13696,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -13929,7 +13723,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -13956,7 +13750,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -13983,7 +13777,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -14010,7 +13804,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -14037,7 +13831,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -14064,7 +13858,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -14091,7 +13885,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -14118,7 +13912,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -14145,7 +13939,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -14172,7 +13966,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -14199,7 +13993,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -14226,7 +14020,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -14253,7 +14047,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -14280,7 +14074,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -14307,7 +14101,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -14334,7 +14128,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -14361,7 +14155,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -14388,7 +14182,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -14415,7 +14209,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -14442,7 +14236,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -14469,7 +14263,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -14496,7 +14290,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -14523,7 +14317,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -14550,7 +14344,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -14577,7 +14371,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -14604,7 +14398,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -14631,7 +14425,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -14658,7 +14452,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -14685,7 +14479,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -14712,7 +14506,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -14739,7 +14533,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -14766,7 +14560,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -14793,7 +14587,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -14820,7 +14614,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -14847,7 +14641,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -14874,7 +14668,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -14901,7 +14695,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -14928,7 +14722,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -14955,7 +14749,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -14982,7 +14776,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -15009,7 +14803,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -15036,7 +14830,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -15063,7 +14857,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -15090,7 +14884,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -15117,7 +14911,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -15144,7 +14938,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -15171,7 +14965,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -15198,7 +14992,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -15225,7 +15019,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -15252,7 +15046,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -15279,7 +15073,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -15306,7 +15100,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -15333,7 +15127,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -15360,7 +15154,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -15387,7 +15181,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -15414,7 +15208,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -15441,7 +15235,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -15468,7 +15262,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -15495,7 +15289,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -15522,7 +15316,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -15549,7 +15343,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -15576,7 +15370,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -15603,7 +15397,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -15630,7 +15424,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -15657,7 +15451,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -15684,7 +15478,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -15711,7 +15505,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -15738,7 +15532,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -15765,7 +15559,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -15792,7 +15586,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -15819,7 +15613,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -15846,7 +15640,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -15873,7 +15667,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -15900,7 +15694,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -15927,7 +15721,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -15954,7 +15748,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -15981,7 +15775,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -16008,7 +15802,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -16035,7 +15829,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -16062,7 +15856,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>359</v>
       </c>
@@ -16089,7 +15883,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -16116,7 +15910,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>361</v>
       </c>
@@ -16143,7 +15937,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -16170,7 +15964,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -16197,7 +15991,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -16224,7 +16018,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -16251,7 +16045,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -16278,7 +16072,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -16305,7 +16099,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -16332,7 +16126,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -16359,7 +16153,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -16391,7 +16185,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -16423,7 +16217,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>372</v>
       </c>
@@ -16453,7 +16247,7 @@
       </c>
       <c r="K374" s="2"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -16485,7 +16279,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -16517,7 +16311,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>375</v>
       </c>
@@ -16549,7 +16343,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -16579,7 +16373,7 @@
       </c>
       <c r="K378" s="2"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -16611,7 +16405,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -16643,7 +16437,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -16673,7 +16467,7 @@
       </c>
       <c r="K381" s="2"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -16703,7 +16497,7 @@
       </c>
       <c r="K382" s="2"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -16735,7 +16529,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -16762,7 +16556,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -16787,7 +16581,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>384</v>
       </c>
@@ -16812,7 +16606,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -16845,7 +16639,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>386</v>
       </c>
@@ -16878,7 +16672,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -16911,7 +16705,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>388</v>
       </c>
@@ -16942,7 +16736,7 @@
       </c>
       <c r="K390" s="2"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>389</v>
       </c>
@@ -16967,7 +16761,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>390</v>
       </c>
@@ -16992,7 +16786,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>391</v>
       </c>
@@ -17017,7 +16811,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>392</v>
       </c>
@@ -17045,7 +16839,7 @@
       </c>
       <c r="K394" s="2"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>393</v>
       </c>
@@ -17074,7 +16868,7 @@
       </c>
       <c r="K395" s="2"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>394</v>
       </c>
@@ -17107,7 +16901,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>395</v>
       </c>
@@ -17140,7 +16934,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>396</v>
       </c>
@@ -17165,7 +16959,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>397</v>
       </c>
@@ -17190,7 +16984,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>398</v>
       </c>
@@ -17215,7 +17009,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>399</v>
       </c>
@@ -17240,7 +17034,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>400</v>
       </c>
@@ -17265,7 +17059,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>401</v>
       </c>
@@ -17293,7 +17087,7 @@
       </c>
       <c r="K403" s="2"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>402</v>
       </c>
@@ -17326,7 +17120,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>403</v>
       </c>
@@ -17357,7 +17151,7 @@
       </c>
       <c r="K405" s="2"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>404</v>
       </c>
@@ -17390,7 +17184,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>405</v>
       </c>
@@ -17421,7 +17215,7 @@
       </c>
       <c r="K407" s="2"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>406</v>
       </c>
@@ -17452,7 +17246,7 @@
       </c>
       <c r="K408" s="2"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>407</v>
       </c>
@@ -17483,7 +17277,7 @@
       </c>
       <c r="K409" s="2"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>408</v>
       </c>
@@ -17514,7 +17308,7 @@
       </c>
       <c r="K410" s="2"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>409</v>
       </c>
@@ -17543,7 +17337,7 @@
       </c>
       <c r="K411" s="2"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>410</v>
       </c>
@@ -17572,7 +17366,7 @@
       </c>
       <c r="K412" s="2"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>411</v>
       </c>
@@ -17605,7 +17399,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>412</v>
       </c>
@@ -17634,7 +17428,7 @@
       </c>
       <c r="K414" s="2"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>413</v>
       </c>
@@ -17663,7 +17457,7 @@
       </c>
       <c r="K415" s="2"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>414</v>
       </c>
@@ -17694,7 +17488,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>415</v>
       </c>
@@ -17725,7 +17519,7 @@
       </c>
       <c r="K417" s="2"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>416</v>
       </c>
@@ -17754,7 +17548,7 @@
       </c>
       <c r="K418" s="2"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>417</v>
       </c>
@@ -17783,7 +17577,7 @@
       </c>
       <c r="K419" s="2"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>418</v>
       </c>
@@ -17812,7 +17606,7 @@
       </c>
       <c r="K420" s="2"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>419</v>
       </c>
@@ -17843,7 +17637,7 @@
       </c>
       <c r="K421" s="2"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>420</v>
       </c>
@@ -17872,7 +17666,7 @@
       </c>
       <c r="K422" s="2"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>421</v>
       </c>
@@ -17903,7 +17697,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>422</v>
       </c>
@@ -17934,7 +17728,7 @@
       </c>
       <c r="K424" s="2"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>423</v>
       </c>
@@ -17963,7 +17757,7 @@
       </c>
       <c r="K425" s="2"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>424</v>
       </c>
@@ -17994,7 +17788,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>425</v>
       </c>
@@ -18027,7 +17821,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>426</v>
       </c>
@@ -18058,7 +17852,7 @@
       </c>
       <c r="K428" s="2"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>427</v>
       </c>
@@ -18089,7 +17883,7 @@
       </c>
       <c r="K429" s="2"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>428</v>
       </c>
@@ -18118,7 +17912,7 @@
       </c>
       <c r="K430" s="2"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>429</v>
       </c>
@@ -18147,7 +17941,7 @@
       </c>
       <c r="K431" s="2"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>430</v>
       </c>
@@ -18176,7 +17970,7 @@
       </c>
       <c r="K432" s="2"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>431</v>
       </c>
@@ -18207,7 +18001,7 @@
       </c>
       <c r="K433" s="2"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>432</v>
       </c>
@@ -18238,7 +18032,7 @@
       </c>
       <c r="K434" s="2"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>433</v>
       </c>
@@ -18269,7 +18063,7 @@
       </c>
       <c r="K435" s="2"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>434</v>
       </c>
@@ -18302,7 +18096,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>435</v>
       </c>
@@ -18335,7 +18129,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>436</v>
       </c>
@@ -18368,7 +18162,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>437</v>
       </c>
@@ -18397,7 +18191,7 @@
       </c>
       <c r="K439" s="2"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>438</v>
       </c>
@@ -18428,7 +18222,7 @@
       </c>
       <c r="K440" s="2"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>439</v>
       </c>
@@ -18459,7 +18253,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>440</v>
       </c>
@@ -18490,7 +18284,7 @@
       </c>
       <c r="K442" s="2"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>441</v>
       </c>
@@ -18519,7 +18313,7 @@
       </c>
       <c r="K443" s="2"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>442</v>
       </c>
@@ -18548,7 +18342,7 @@
       </c>
       <c r="K444" s="2"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>443</v>
       </c>
@@ -18579,7 +18373,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>444</v>
       </c>
@@ -18610,7 +18404,7 @@
       </c>
       <c r="K446" s="2"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>445</v>
       </c>
@@ -18639,7 +18433,7 @@
       </c>
       <c r="K447" s="2"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <v>446</v>
       </c>
@@ -18668,7 +18462,7 @@
       </c>
       <c r="K448" s="2"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <v>447</v>
       </c>
@@ -18697,7 +18491,7 @@
       </c>
       <c r="K449" s="2"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <v>448</v>
       </c>
@@ -18728,7 +18522,7 @@
       </c>
       <c r="K450" s="2"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <v>449</v>
       </c>
@@ -18753,7 +18547,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <v>450</v>
       </c>
@@ -18778,7 +18572,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>451</v>
       </c>
@@ -18803,7 +18597,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
         <v>452</v>
       </c>
@@ -18828,7 +18622,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>453</v>
       </c>
@@ -18853,7 +18647,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>454</v>
       </c>
@@ -18878,7 +18672,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <v>455</v>
       </c>
@@ -18903,7 +18697,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
         <v>456</v>
       </c>
@@ -18928,7 +18722,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <v>457</v>
       </c>
@@ -18953,7 +18747,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>458</v>
       </c>
@@ -18978,7 +18772,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <v>459</v>
       </c>
@@ -19003,7 +18797,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <v>460</v>
       </c>
@@ -19028,7 +18822,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>461</v>
       </c>
@@ -19053,7 +18847,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>462</v>
       </c>
@@ -19078,7 +18872,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>463</v>
       </c>
@@ -19103,7 +18897,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>464</v>
       </c>
@@ -19128,7 +18922,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>465</v>
       </c>
@@ -19153,7 +18947,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <v>466</v>
       </c>
@@ -19178,7 +18972,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <v>467</v>
       </c>
@@ -19206,7 +19000,7 @@
       </c>
       <c r="K469" s="2"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <v>468</v>
       </c>
@@ -19234,7 +19028,7 @@
       </c>
       <c r="K470" s="2"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <v>469</v>
       </c>
@@ -19262,7 +19056,7 @@
       </c>
       <c r="K471" s="2"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <v>470</v>
       </c>
@@ -19290,7 +19084,7 @@
       </c>
       <c r="K472" s="2"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>471</v>
       </c>
@@ -19318,7 +19112,7 @@
       </c>
       <c r="K473" s="2"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <v>472</v>
       </c>
@@ -19349,7 +19143,7 @@
       </c>
       <c r="K474" s="2"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>473</v>
       </c>
@@ -19382,7 +19176,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
         <v>474</v>
       </c>
@@ -19415,7 +19209,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
         <v>475</v>
       </c>
@@ -19440,7 +19234,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
         <v>476</v>
       </c>
@@ -19471,7 +19265,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
         <v>477</v>
       </c>
@@ -19500,7 +19294,7 @@
       </c>
       <c r="K479" s="2"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <v>478</v>
       </c>
@@ -19531,7 +19325,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <v>479</v>
       </c>
@@ -19560,7 +19354,7 @@
       </c>
       <c r="K481" s="2"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
         <v>480</v>
       </c>
@@ -19589,7 +19383,7 @@
       </c>
       <c r="K482" s="2"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
         <v>481</v>
       </c>
@@ -19618,7 +19412,7 @@
       </c>
       <c r="K483" s="2"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <v>482</v>
       </c>
@@ -19647,7 +19441,7 @@
       </c>
       <c r="K484" s="2"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
         <v>483</v>
       </c>
@@ -19680,7 +19474,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
         <v>484</v>
       </c>
@@ -19711,7 +19505,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
         <v>485</v>
       </c>
@@ -19744,7 +19538,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
         <v>486</v>
       </c>
@@ -19777,7 +19571,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
         <v>487</v>
       </c>
@@ -19806,7 +19600,7 @@
       </c>
       <c r="K489" s="2"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
         <v>488</v>
       </c>
@@ -19835,7 +19629,7 @@
       </c>
       <c r="K490" s="2"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
         <v>489</v>
       </c>
@@ -19868,7 +19662,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
         <v>490</v>
       </c>
@@ -19903,7 +19697,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
         <v>491</v>
       </c>
@@ -19932,7 +19726,7 @@
       </c>
       <c r="K493" s="2"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
         <v>492</v>
       </c>
@@ -19965,7 +19759,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
         <v>493</v>
       </c>
@@ -19994,7 +19788,7 @@
       </c>
       <c r="K495" s="2"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
         <v>494</v>
       </c>
@@ -20027,7 +19821,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
         <v>495</v>
       </c>
@@ -20060,7 +19854,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
         <v>496</v>
       </c>
@@ -20093,7 +19887,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
         <v>497</v>
       </c>
@@ -20124,7 +19918,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
         <v>498</v>
       </c>
@@ -20155,7 +19949,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
         <v>499</v>
       </c>
@@ -20186,7 +19980,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
         <v>500</v>
       </c>
@@ -20219,7 +20013,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
         <v>501</v>
       </c>
@@ -20254,7 +20048,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
         <v>502</v>
       </c>
@@ -20287,7 +20081,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
         <v>503</v>
       </c>
@@ -20318,7 +20112,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
         <v>504</v>
       </c>
@@ -20353,7 +20147,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
         <v>505</v>
       </c>
@@ -20386,7 +20180,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
         <v>506</v>
       </c>
@@ -20419,7 +20213,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
         <v>507</v>
       </c>
@@ -20448,7 +20242,7 @@
       </c>
       <c r="K509" s="2"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
         <v>508</v>
       </c>
@@ -20477,7 +20271,7 @@
       </c>
       <c r="K510" s="2"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
         <v>509</v>
       </c>
@@ -20510,7 +20304,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
         <v>510</v>
       </c>
@@ -20541,7 +20335,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
         <v>511</v>
       </c>
@@ -20572,7 +20366,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
         <v>512</v>
       </c>
@@ -20603,7 +20397,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
         <v>513</v>
       </c>
@@ -20634,7 +20428,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
         <v>514</v>
       </c>
@@ -20665,7 +20459,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
         <v>515</v>
       </c>
@@ -20696,7 +20490,7 @@
       </c>
       <c r="K517" s="2"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
         <v>516</v>
       </c>
@@ -20727,7 +20521,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
         <v>517</v>
       </c>
@@ -20758,7 +20552,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
         <v>518</v>
       </c>
@@ -20789,7 +20583,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
         <v>519</v>
       </c>
@@ -20820,7 +20614,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
         <v>520</v>
       </c>
@@ -20851,7 +20645,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
         <v>521</v>
       </c>
@@ -20882,7 +20676,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
         <v>522</v>
       </c>
@@ -20913,7 +20707,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
         <v>523</v>
       </c>
@@ -20946,7 +20740,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
         <v>524</v>
       </c>
@@ -20977,7 +20771,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
         <v>525</v>
       </c>
@@ -21008,7 +20802,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
         <v>526</v>
       </c>
@@ -21039,7 +20833,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
         <v>527</v>
       </c>
@@ -21070,7 +20864,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
         <v>528</v>
       </c>
@@ -21101,7 +20895,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
         <v>529</v>
       </c>
@@ -21132,7 +20926,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
         <v>530</v>
       </c>
@@ -21165,7 +20959,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
         <v>531</v>
       </c>
@@ -21198,7 +20992,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
         <v>532</v>
       </c>
@@ -21231,7 +21025,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
         <v>533</v>
       </c>
@@ -21264,7 +21058,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
         <v>534</v>
       </c>
@@ -21297,7 +21091,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
         <v>535</v>
       </c>
@@ -21330,7 +21124,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
         <v>536</v>
       </c>
@@ -21363,7 +21157,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
         <v>537</v>
       </c>
@@ -21392,7 +21186,7 @@
       </c>
       <c r="K539" s="2"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
         <v>538</v>
       </c>
@@ -21427,7 +21221,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
         <v>539</v>
       </c>
@@ -21452,7 +21246,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
         <v>540</v>
       </c>
@@ -21479,7 +21273,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
         <v>541</v>
       </c>
@@ -21506,7 +21300,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
         <v>542</v>
       </c>
@@ -21531,7 +21325,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
         <v>543</v>
       </c>
@@ -21556,7 +21350,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
         <v>544</v>
       </c>
@@ -21581,7 +21375,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
         <v>545</v>
       </c>
@@ -21606,7 +21400,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="1">
         <v>546</v>
       </c>
@@ -21631,7 +21425,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
         <v>547</v>
       </c>
@@ -21656,7 +21450,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="1">
         <v>548</v>
       </c>
@@ -21681,7 +21475,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
         <v>549</v>
       </c>
@@ -21706,7 +21500,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
         <v>550</v>
       </c>
@@ -21731,7 +21525,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="1">
         <v>551</v>
       </c>
@@ -21756,7 +21550,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="1">
         <v>552</v>
       </c>
@@ -21781,7 +21575,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
         <v>553</v>
       </c>
@@ -21806,7 +21600,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="1">
         <v>554</v>
       </c>
@@ -21833,7 +21627,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
         <v>555</v>
       </c>
@@ -21860,7 +21654,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="1">
         <v>556</v>
       </c>
@@ -21890,7 +21684,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="1">
         <v>557</v>
       </c>
@@ -21920,7 +21714,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="1">
         <v>558</v>
       </c>
@@ -21950,7 +21744,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="1">
         <v>559</v>
       </c>
@@ -21980,7 +21774,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="1">
         <v>560</v>
       </c>
@@ -22010,7 +21804,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
         <v>561</v>
       </c>
@@ -22040,7 +21834,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="1">
         <v>562</v>
       </c>
@@ -22070,7 +21864,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
         <v>563</v>
       </c>
@@ -22100,7 +21894,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
         <v>564</v>
       </c>
@@ -22132,7 +21926,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="1">
         <v>565</v>
       </c>
@@ -22163,7 +21957,7 @@
       </c>
       <c r="K567" s="2"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="1">
         <v>566</v>
       </c>
@@ -22194,7 +21988,7 @@
       </c>
       <c r="K568" s="2"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
         <v>567</v>
       </c>
@@ -22229,7 +22023,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
         <v>568</v>
       </c>
@@ -22262,7 +22056,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
         <v>569</v>
       </c>
@@ -22297,7 +22091,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
         <v>570</v>
       </c>
@@ -22332,7 +22126,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="1">
         <v>571</v>
       </c>
@@ -22365,7 +22159,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="1">
         <v>572</v>
       </c>
@@ -22400,7 +22194,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="1">
         <v>573</v>
       </c>
@@ -22435,7 +22229,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="1">
         <v>574</v>
       </c>
@@ -22468,7 +22262,7 @@
       </c>
       <c r="K576" s="2"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="1">
         <v>575</v>
       </c>
@@ -22501,7 +22295,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="1">
         <v>576</v>
       </c>
@@ -22534,7 +22328,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
         <v>577</v>
       </c>
@@ -22569,7 +22363,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="1">
         <v>578</v>
       </c>
@@ -22602,7 +22396,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="1">
         <v>579</v>
       </c>
@@ -22635,7 +22429,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="1">
         <v>580</v>
       </c>
@@ -22668,7 +22462,7 @@
       </c>
       <c r="K582" s="2"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="1">
         <v>581</v>
       </c>
@@ -22701,7 +22495,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="1">
         <v>582</v>
       </c>
@@ -22734,7 +22528,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="1">
         <v>583</v>
       </c>
@@ -22767,7 +22561,7 @@
       </c>
       <c r="K585" s="2"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
         <v>584</v>
       </c>
@@ -22802,7 +22596,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="1">
         <v>585</v>
       </c>
@@ -22837,7 +22631,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="1">
         <v>586</v>
       </c>
@@ -22872,7 +22666,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="1">
         <v>587</v>
       </c>
@@ -22905,7 +22699,7 @@
       </c>
       <c r="K589" s="2"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="1">
         <v>588</v>
       </c>
@@ -22940,7 +22734,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="1">
         <v>589</v>
       </c>
@@ -22975,7 +22769,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="1">
         <v>590</v>
       </c>
@@ -23008,7 +22802,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="1">
         <v>591</v>
       </c>
@@ -23041,7 +22835,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="1">
         <v>592</v>
       </c>
@@ -23074,7 +22868,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="1">
         <v>593</v>
       </c>
@@ -23107,7 +22901,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="1">
         <v>594</v>
       </c>
@@ -23142,7 +22936,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="1">
         <v>595</v>
       </c>
@@ -23177,7 +22971,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="1">
         <v>596</v>
       </c>
@@ -23210,7 +23004,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="1">
         <v>597</v>
       </c>
@@ -23243,7 +23037,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="1">
         <v>598</v>
       </c>
@@ -23276,7 +23070,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="1">
         <v>599</v>
       </c>
@@ -23309,7 +23103,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="1">
         <v>600</v>
       </c>
@@ -23342,7 +23136,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="1">
         <v>601</v>
       </c>
@@ -23377,7 +23171,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="1">
         <v>602</v>
       </c>
@@ -23410,7 +23204,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="1">
         <v>603</v>
       </c>
@@ -23445,7 +23239,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="1">
         <v>604</v>
       </c>
@@ -23480,7 +23274,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="1">
         <v>605</v>
       </c>
@@ -23515,7 +23309,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="1">
         <v>606</v>
       </c>
@@ -23550,7 +23344,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="1">
         <v>607</v>
       </c>
@@ -23585,7 +23379,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="1">
         <v>608</v>
       </c>
@@ -23618,7 +23412,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="1">
         <v>609</v>
       </c>
@@ -23653,7 +23447,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="1">
         <v>610</v>
       </c>
@@ -23686,7 +23480,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="1">
         <v>611</v>
       </c>
@@ -23719,7 +23513,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="1">
         <v>612</v>
       </c>
@@ -23752,7 +23546,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="1">
         <v>613</v>
       </c>
@@ -23785,7 +23579,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="1">
         <v>614</v>
       </c>
@@ -23818,7 +23612,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="1">
         <v>615</v>
       </c>
@@ -23853,7 +23647,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="1">
         <v>616</v>
       </c>
@@ -23888,7 +23682,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="1">
         <v>617</v>
       </c>
@@ -23923,7 +23717,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="1">
         <v>618</v>
       </c>
@@ -23956,7 +23750,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="1">
         <v>619</v>
       </c>
@@ -23989,7 +23783,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="1">
         <v>620</v>
       </c>
@@ -24024,7 +23818,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="1">
         <v>621</v>
       </c>
@@ -24057,7 +23851,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="1">
         <v>622</v>
       </c>
@@ -24090,7 +23884,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="1">
         <v>623</v>
       </c>
@@ -24125,7 +23919,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="1">
         <v>624</v>
       </c>
@@ -24160,7 +23954,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="1">
         <v>625</v>
       </c>
@@ -24191,7 +23985,7 @@
       </c>
       <c r="K627" s="2"/>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="1">
         <v>626</v>
       </c>
@@ -24226,7 +24020,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="1">
         <v>627</v>
       </c>
@@ -24261,7 +24055,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="1">
         <v>628</v>
       </c>
@@ -24294,7 +24088,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="1">
         <v>629</v>
       </c>
@@ -24329,7 +24123,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="1">
         <v>630</v>
       </c>
@@ -24364,7 +24158,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="1">
         <v>631</v>
       </c>
@@ -24397,7 +24191,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="1">
         <v>632</v>
       </c>
@@ -24432,7 +24226,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="1">
         <v>633</v>
       </c>
@@ -24465,7 +24259,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="1">
         <v>634</v>
       </c>
@@ -24500,7 +24294,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="1">
         <v>635</v>
       </c>
@@ -24535,7 +24329,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="1">
         <v>636</v>
       </c>
@@ -24570,7 +24364,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="1">
         <v>637</v>
       </c>
@@ -24603,7 +24397,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="1">
         <v>638</v>
       </c>
@@ -24636,7 +24430,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="1">
         <v>639</v>
       </c>
@@ -24669,7 +24463,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="1">
         <v>640</v>
       </c>
@@ -24702,7 +24496,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="1">
         <v>641</v>
       </c>
@@ -24737,7 +24531,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="1">
         <v>642</v>
       </c>
@@ -24772,7 +24566,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="1">
         <v>643</v>
       </c>
@@ -24805,7 +24599,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="1">
         <v>644</v>
       </c>
@@ -24838,7 +24632,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="1">
         <v>645</v>
       </c>
@@ -24873,7 +24667,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="1">
         <v>646</v>
       </c>
@@ -24908,7 +24702,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="1">
         <v>647</v>
       </c>
@@ -24941,7 +24735,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="1">
         <v>648</v>
       </c>
@@ -24976,7 +24770,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="1">
         <v>649</v>
       </c>
@@ -25009,7 +24803,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="1">
         <v>650</v>
       </c>
@@ -25044,7 +24838,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="1">
         <v>651</v>
       </c>
@@ -25077,7 +24871,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="1">
         <v>652</v>
       </c>
@@ -25112,7 +24906,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="1">
         <v>653</v>
       </c>
@@ -25147,7 +24941,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="1">
         <v>654</v>
       </c>
@@ -25180,7 +24974,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="1">
         <v>655</v>
       </c>
@@ -25215,7 +25009,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="1">
         <v>656</v>
       </c>
@@ -25250,7 +25044,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="1">
         <v>657</v>
       </c>
@@ -25285,7 +25079,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="1">
         <v>658</v>
       </c>
@@ -25320,7 +25114,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="1">
         <v>659</v>
       </c>
@@ -25355,7 +25149,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="1">
         <v>660</v>
       </c>
@@ -25390,7 +25184,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="1">
         <v>661</v>
       </c>
@@ -25425,7 +25219,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="1">
         <v>662</v>
       </c>
@@ -25458,7 +25252,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="1">
         <v>663</v>
       </c>
@@ -25493,7 +25287,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="1">
         <v>664</v>
       </c>
@@ -25528,7 +25322,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="1">
         <v>665</v>
       </c>
@@ -25553,7 +25347,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="1">
         <v>666</v>
       </c>
@@ -25578,7 +25372,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="1">
         <v>667</v>
       </c>
@@ -25603,7 +25397,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="1">
         <v>668</v>
       </c>
@@ -25628,7 +25422,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="1">
         <v>669</v>
       </c>
@@ -25653,7 +25447,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="1">
         <v>670</v>
       </c>
@@ -25678,7 +25472,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="1">
         <v>671</v>
       </c>
@@ -25703,7 +25497,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="1">
         <v>672</v>
       </c>
@@ -25730,7 +25524,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="1">
         <v>673</v>
       </c>
@@ -25757,7 +25551,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="1">
         <v>674</v>
       </c>
@@ -25784,7 +25578,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="1">
         <v>675</v>
       </c>
@@ -25809,7 +25603,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="1">
         <v>676</v>
       </c>
@@ -25834,7 +25628,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="1">
         <v>677</v>
       </c>
@@ -25859,7 +25653,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="1">
         <v>678</v>
       </c>
@@ -25884,7 +25678,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="1">
         <v>679</v>
       </c>
@@ -25909,7 +25703,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="1">
         <v>680</v>
       </c>
@@ -25934,7 +25728,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="1">
         <v>681</v>
       </c>
@@ -25961,7 +25755,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="1">
         <v>682</v>
       </c>
@@ -25988,7 +25782,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="1">
         <v>683</v>
       </c>
@@ -26015,7 +25809,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="1">
         <v>684</v>
       </c>
@@ -26042,7 +25836,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="1">
         <v>685</v>
       </c>
@@ -26069,7 +25863,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="1">
         <v>686</v>
       </c>
@@ -26096,7 +25890,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" s="1">
         <v>687</v>
       </c>
@@ -26123,7 +25917,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="1">
         <v>688</v>
       </c>
@@ -26150,7 +25944,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="1">
         <v>689</v>
       </c>
@@ -26177,7 +25971,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="1">
         <v>690</v>
       </c>
@@ -26204,7 +25998,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" s="1">
         <v>691</v>
       </c>
@@ -26231,7 +26025,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" s="1">
         <v>692</v>
       </c>
@@ -26258,7 +26052,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="1">
         <v>693</v>
       </c>
@@ -26285,7 +26079,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" s="1">
         <v>694</v>
       </c>
@@ -26310,7 +26104,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A697" s="1">
         <v>695</v>
       </c>
@@ -26337,7 +26131,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" s="1">
         <v>696</v>
       </c>
@@ -26364,7 +26158,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" s="1">
         <v>697</v>
       </c>
@@ -26391,7 +26185,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A700" s="1">
         <v>698</v>
       </c>
@@ -26418,7 +26212,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" s="1">
         <v>699</v>
       </c>
@@ -26445,7 +26239,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" s="1">
         <v>700</v>
       </c>
@@ -26472,7 +26266,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A703" s="1">
         <v>701</v>
       </c>
@@ -26499,7 +26293,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A704" s="1">
         <v>702</v>
       </c>
@@ -26524,7 +26318,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A705" s="1">
         <v>703</v>
       </c>
@@ -26556,7 +26350,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A706" s="1">
         <v>704</v>
       </c>
@@ -26588,7 +26382,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A707" s="1">
         <v>705</v>
       </c>
@@ -26620,7 +26414,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A708" s="1">
         <v>706</v>
       </c>
@@ -26652,7 +26446,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A709" s="1">
         <v>707</v>
       </c>
@@ -26684,7 +26478,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A710" s="1">
         <v>708</v>
       </c>
@@ -26717,7 +26511,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A711" s="1">
         <v>709</v>
       </c>
@@ -26752,7 +26546,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A712" s="1">
         <v>710</v>
       </c>
@@ -26787,7 +26581,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A713" s="1">
         <v>711</v>
       </c>
@@ -26820,7 +26614,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A714" s="1">
         <v>712</v>
       </c>
@@ -26855,7 +26649,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A715" s="1">
         <v>713</v>
       </c>
@@ -26890,7 +26684,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A716" s="1">
         <v>714</v>
       </c>
@@ -26923,7 +26717,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A717" s="1">
         <v>715</v>
       </c>
@@ -26956,7 +26750,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A718" s="1">
         <v>716</v>
       </c>
@@ -26989,7 +26783,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A719" s="1">
         <v>717</v>
       </c>
@@ -27022,7 +26816,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A720" s="1">
         <v>718</v>
       </c>
@@ -27057,7 +26851,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A721" s="1">
         <v>719</v>
       </c>
@@ -27090,7 +26884,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A722" s="1">
         <v>720</v>
       </c>
@@ -27125,7 +26919,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A723" s="1">
         <v>721</v>
       </c>
@@ -27158,7 +26952,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A724" s="1">
         <v>722</v>
       </c>
@@ -27191,7 +26985,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A725" s="1">
         <v>723</v>
       </c>
@@ -27226,7 +27020,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="726" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A726" s="1">
         <v>724</v>
       </c>
@@ -27259,7 +27053,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="727" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A727" s="1">
         <v>725</v>
       </c>
@@ -27294,7 +27088,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="728" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A728" s="1">
         <v>726</v>
       </c>
@@ -27329,7 +27123,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="729" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A729" s="1">
         <v>727</v>
       </c>
@@ -27362,7 +27156,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="730" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A730" s="1">
         <v>728</v>
       </c>
@@ -27395,7 +27189,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="731" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A731" s="1">
         <v>729</v>
       </c>
@@ -27430,7 +27224,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="732" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A732" s="1">
         <v>730</v>
       </c>
@@ -27463,7 +27257,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="733" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A733" s="1">
         <v>731</v>
       </c>
@@ -27489,7 +27283,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="734" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A734" s="1">
         <v>732</v>
       </c>
@@ -27515,7 +27309,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="735" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A735" s="1">
         <v>733</v>
       </c>
@@ -27541,7 +27335,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="736" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A736" s="1">
         <v>734</v>
       </c>
@@ -27567,7 +27361,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="737" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A737" s="1">
         <v>735</v>
       </c>
@@ -27593,7 +27387,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="738" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A738" s="1">
         <v>736</v>
       </c>
@@ -27619,7 +27413,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="739" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A739" s="1">
         <v>737</v>
       </c>
@@ -27645,7 +27439,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="740" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A740" s="1">
         <v>738</v>
       </c>
@@ -27669,6 +27463,1272 @@
       </c>
       <c r="K740" s="2" t="s">
         <v>1339</v>
+      </c>
+    </row>
+    <row r="741" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A741" s="1">
+        <v>739</v>
+      </c>
+      <c r="B741" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C741" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="E741" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F741" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H741">
+        <v>6</v>
+      </c>
+      <c r="I741">
+        <v>4</v>
+      </c>
+      <c r="J741">
+        <v>8</v>
+      </c>
+      <c r="K741" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="742" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A742" s="1">
+        <v>740</v>
+      </c>
+      <c r="B742" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C742" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="E742" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F742" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H742">
+        <v>1</v>
+      </c>
+      <c r="I742">
+        <v>1</v>
+      </c>
+      <c r="J742">
+        <v>1</v>
+      </c>
+      <c r="K742" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="743" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A743" s="1">
+        <v>741</v>
+      </c>
+      <c r="B743" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C743" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="E743" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F743" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H743">
+        <v>2</v>
+      </c>
+      <c r="I743">
+        <v>1</v>
+      </c>
+      <c r="J743">
+        <v>3</v>
+      </c>
+      <c r="K743" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="744" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A744" s="1">
+        <v>742</v>
+      </c>
+      <c r="B744" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C744" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="E744" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F744" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H744">
+        <v>1</v>
+      </c>
+      <c r="I744">
+        <v>1</v>
+      </c>
+      <c r="J744">
+        <v>1</v>
+      </c>
+      <c r="K744" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="745" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A745" s="1">
+        <v>743</v>
+      </c>
+      <c r="B745" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C745" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="E745" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F745" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H745">
+        <v>0</v>
+      </c>
+      <c r="I745">
+        <v>0</v>
+      </c>
+      <c r="J745">
+        <v>5</v>
+      </c>
+      <c r="K745" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="746" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A746" s="1">
+        <v>744</v>
+      </c>
+      <c r="B746" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C746" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="E746" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F746" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H746">
+        <v>2</v>
+      </c>
+      <c r="I746">
+        <v>1</v>
+      </c>
+      <c r="J746">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="747" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A747" s="1">
+        <v>745</v>
+      </c>
+      <c r="B747" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C747" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="E747" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F747" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H747">
+        <v>0</v>
+      </c>
+      <c r="I747">
+        <v>6</v>
+      </c>
+      <c r="J747">
+        <v>3</v>
+      </c>
+      <c r="K747" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="748" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A748" s="1">
+        <v>746</v>
+      </c>
+      <c r="B748" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C748" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="E748" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F748" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H748">
+        <v>1</v>
+      </c>
+      <c r="I748">
+        <v>1</v>
+      </c>
+      <c r="J748">
+        <v>1</v>
+      </c>
+      <c r="K748" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="749" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A749" s="1">
+        <v>747</v>
+      </c>
+      <c r="B749" t="s">
+        <v>436</v>
+      </c>
+      <c r="C749" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="E749" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F749" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G749" t="s">
+        <v>200</v>
+      </c>
+      <c r="H749">
+        <v>1</v>
+      </c>
+      <c r="I749">
+        <v>1</v>
+      </c>
+      <c r="J749">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="750" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A750" s="1">
+        <v>748</v>
+      </c>
+      <c r="B750" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C750" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="E750" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F750" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G750" t="s">
+        <v>200</v>
+      </c>
+      <c r="H750">
+        <v>1</v>
+      </c>
+      <c r="I750">
+        <v>2</v>
+      </c>
+      <c r="J750">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="751" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A751" s="1">
+        <v>749</v>
+      </c>
+      <c r="B751" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C751" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="E751" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F751" t="s">
+        <v>16</v>
+      </c>
+      <c r="G751" t="s">
+        <v>200</v>
+      </c>
+      <c r="H751">
+        <v>3</v>
+      </c>
+      <c r="I751">
+        <v>8</v>
+      </c>
+      <c r="J751">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="752" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A752" s="1">
+        <v>750</v>
+      </c>
+      <c r="B752" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C752" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="E752" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F752" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G752" t="s">
+        <v>200</v>
+      </c>
+      <c r="H752">
+        <v>1</v>
+      </c>
+      <c r="I752">
+        <v>3</v>
+      </c>
+      <c r="J752">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="753" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A753" s="1">
+        <v>751</v>
+      </c>
+      <c r="B753" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C753" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="E753" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F753" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H753">
+        <v>1</v>
+      </c>
+      <c r="I753">
+        <v>0</v>
+      </c>
+      <c r="J753">
+        <v>1</v>
+      </c>
+      <c r="K753" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="754" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A754" s="1">
+        <v>752</v>
+      </c>
+      <c r="B754" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C754" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="E754" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F754" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H754">
+        <v>4</v>
+      </c>
+      <c r="I754">
+        <v>7</v>
+      </c>
+      <c r="J754">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="755" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A755" s="1">
+        <v>753</v>
+      </c>
+      <c r="B755" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C755" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="E755" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F755" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G755" t="s">
+        <v>200</v>
+      </c>
+      <c r="H755">
+        <v>2</v>
+      </c>
+      <c r="I755">
+        <v>2</v>
+      </c>
+      <c r="J755">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="756" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A756" s="1">
+        <v>754</v>
+      </c>
+      <c r="B756" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C756" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="E756" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F756" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H756">
+        <v>0</v>
+      </c>
+      <c r="I756">
+        <v>6</v>
+      </c>
+      <c r="J756">
+        <v>6</v>
+      </c>
+      <c r="K756" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="757" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A757" s="1">
+        <v>755</v>
+      </c>
+      <c r="B757" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C757" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="E757" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F757" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H757">
+        <v>0</v>
+      </c>
+      <c r="I757">
+        <v>4</v>
+      </c>
+      <c r="J757">
+        <v>5</v>
+      </c>
+      <c r="K757" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="758" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A758" s="1">
+        <v>756</v>
+      </c>
+      <c r="B758" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C758" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="E758" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F758" t="s">
+        <v>16</v>
+      </c>
+      <c r="G758" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H758">
+        <v>0</v>
+      </c>
+      <c r="I758">
+        <v>2</v>
+      </c>
+      <c r="J758">
+        <v>2</v>
+      </c>
+      <c r="K758" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="759" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A759" s="1">
+        <v>757</v>
+      </c>
+      <c r="B759" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C759" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="E759" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F759" t="s">
+        <v>16</v>
+      </c>
+      <c r="G759" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H759">
+        <v>1</v>
+      </c>
+      <c r="I759">
+        <v>3</v>
+      </c>
+      <c r="J759">
+        <v>3</v>
+      </c>
+      <c r="K759" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="760" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A760" s="1">
+        <v>758</v>
+      </c>
+      <c r="B760" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C760" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="E760" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F760" t="s">
+        <v>16</v>
+      </c>
+      <c r="G760" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H760">
+        <v>3</v>
+      </c>
+      <c r="I760">
+        <v>5</v>
+      </c>
+      <c r="J760">
+        <v>5</v>
+      </c>
+      <c r="K760" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="761" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A761" s="1">
+        <v>759</v>
+      </c>
+      <c r="B761" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C761" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="E761" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F761" t="s">
+        <v>16</v>
+      </c>
+      <c r="G761" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H761">
+        <v>5</v>
+      </c>
+      <c r="I761">
+        <v>7</v>
+      </c>
+      <c r="J761">
+        <v>7</v>
+      </c>
+      <c r="K761" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="762" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A762" s="1">
+        <v>760</v>
+      </c>
+      <c r="B762" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C762" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="E762" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F762" t="s">
+        <v>16</v>
+      </c>
+      <c r="H762">
+        <v>5</v>
+      </c>
+      <c r="I762">
+        <v>10</v>
+      </c>
+      <c r="J762">
+        <v>2</v>
+      </c>
+      <c r="K762" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="763" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A763" s="1">
+        <v>761</v>
+      </c>
+      <c r="B763" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C763" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="E763" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F763" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H763">
+        <v>1</v>
+      </c>
+      <c r="I763">
+        <v>1</v>
+      </c>
+      <c r="J763">
+        <v>1</v>
+      </c>
+      <c r="K763" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="764" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A764" s="1">
+        <v>762</v>
+      </c>
+      <c r="B764" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C764" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="E764" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F764" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H764">
+        <v>1</v>
+      </c>
+      <c r="I764">
+        <v>2</v>
+      </c>
+      <c r="J764">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="765" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A765" s="1">
+        <v>763</v>
+      </c>
+      <c r="B765" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C765" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="E765" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F765" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H765">
+        <v>2</v>
+      </c>
+      <c r="I765">
+        <v>1</v>
+      </c>
+      <c r="J765">
+        <v>4</v>
+      </c>
+      <c r="K765" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="766" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A766" s="1">
+        <v>764</v>
+      </c>
+      <c r="B766" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C766" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="E766" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F766" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H766">
+        <v>3</v>
+      </c>
+      <c r="K766" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="767" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A767" s="1">
+        <v>765</v>
+      </c>
+      <c r="B767" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C767" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="E767" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F767" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H767">
+        <v>3</v>
+      </c>
+      <c r="K767" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="768" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A768" s="1">
+        <v>766</v>
+      </c>
+      <c r="B768" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C768" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="E768" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F768" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H768">
+        <v>3</v>
+      </c>
+      <c r="K768" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="769" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A769" s="1">
+        <v>767</v>
+      </c>
+      <c r="B769" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C769" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="E769" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F769" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H769">
+        <v>4</v>
+      </c>
+      <c r="K769" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="770" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A770" s="1">
+        <v>768</v>
+      </c>
+      <c r="B770" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C770" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="E770" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F770" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H770">
+        <v>4</v>
+      </c>
+      <c r="K770" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="771" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A771" s="1">
+        <v>769</v>
+      </c>
+      <c r="B771" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C771" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="E771" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F771" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H771">
+        <v>1</v>
+      </c>
+      <c r="K771" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="772" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A772" s="1">
+        <v>770</v>
+      </c>
+      <c r="B772" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C772" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="E772" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F772" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H772">
+        <v>1</v>
+      </c>
+      <c r="K772" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="773" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A773" s="1">
+        <v>771</v>
+      </c>
+      <c r="B773" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C773" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="E773" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F773" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H773">
+        <v>0</v>
+      </c>
+      <c r="K773" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="774" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A774" s="1">
+        <v>772</v>
+      </c>
+      <c r="B774" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C774" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="E774" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F774" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H774">
+        <v>1</v>
+      </c>
+      <c r="K774" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="775" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A775" s="1">
+        <v>773</v>
+      </c>
+      <c r="B775" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C775" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="E775" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F775" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H775">
+        <v>1</v>
+      </c>
+      <c r="K775" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="776" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A776" s="1">
+        <v>774</v>
+      </c>
+      <c r="B776" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C776" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="E776" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F776" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H776">
+        <v>1</v>
+      </c>
+      <c r="K776" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="777" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A777" s="1">
+        <v>775</v>
+      </c>
+      <c r="B777" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C777" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="E777" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F777" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H777">
+        <v>1</v>
+      </c>
+      <c r="K777" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="778" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A778" s="1">
+        <v>776</v>
+      </c>
+      <c r="B778" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C778" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="E778" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F778" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H778">
+        <v>1</v>
+      </c>
+      <c r="K778" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="779" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A779" s="1">
+        <v>777</v>
+      </c>
+      <c r="B779" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C779" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="E779" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F779" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H779">
+        <v>2</v>
+      </c>
+      <c r="K779" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="780" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A780" s="1">
+        <v>778</v>
+      </c>
+      <c r="B780" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C780" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="E780" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F780" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H780">
+        <v>4</v>
+      </c>
+      <c r="K780" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="781" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A781" s="1">
+        <v>779</v>
+      </c>
+      <c r="B781" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C781" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="E781" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F781" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H781">
+        <v>0</v>
+      </c>
+      <c r="K781" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="782" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A782" s="1">
+        <v>780</v>
+      </c>
+      <c r="B782" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C782" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="E782" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F782" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H782">
+        <v>0</v>
+      </c>
+      <c r="K782" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="783" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A783" s="1">
+        <v>781</v>
+      </c>
+      <c r="B783" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C783" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="E783" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F783" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H783">
+        <v>2</v>
+      </c>
+      <c r="K783" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="784" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A784" s="1">
+        <v>782</v>
+      </c>
+      <c r="B784" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C784" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="E784" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F784" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H784">
+        <v>1</v>
+      </c>
+      <c r="K784" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="785" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A785" s="1">
+        <v>783</v>
+      </c>
+      <c r="B785" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C785" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="E785" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F785" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H785">
+        <v>4</v>
+      </c>
+      <c r="K785" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="786" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A786" s="1">
+        <v>784</v>
+      </c>
+      <c r="B786" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C786" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="E786" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F786" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H786">
+        <v>2</v>
+      </c>
+      <c r="K786" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="787" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A787" s="1">
+        <v>785</v>
+      </c>
+      <c r="B787" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C787" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="E787" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F787" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H787">
+        <v>1</v>
+      </c>
+      <c r="I787">
+        <v>0</v>
+      </c>
+      <c r="J787">
+        <v>6</v>
+      </c>
+      <c r="K787" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="788" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A788" s="1">
+        <v>786</v>
+      </c>
+      <c r="B788" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C788" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="E788" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F788" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H788">
+        <v>2</v>
+      </c>
+      <c r="I788">
+        <v>2</v>
+      </c>
+      <c r="J788">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -27680,17 +28740,17 @@
   <sortState ref="A2:K709">
     <sortCondition ref="A2"/>
   </sortState>
-  <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="27" priority="18" operator="equal">
+  <conditionalFormatting sqref="F1:F1048576 G787:G788">
+    <cfRule type="cellIs" dxfId="3" priority="18" operator="equal">
       <formula>"Common"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="19" operator="equal">
       <formula>"Rare"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="20" operator="equal">
       <formula>"Epic"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="22" operator="equal">
       <formula>"Legendary"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/card_info.xlsx
+++ b/card_info.xlsx
@@ -12,17 +12,17 @@
     <workbookView xWindow="120" yWindow="30" windowWidth="19380" windowHeight="12180"/>
   </bookViews>
   <sheets>
-    <sheet name="cards" sheetId="4" r:id="rId1"/>
+    <sheet name="card_info" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cards!$A$1:$K$709</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">card_info!$A$1:$K$709</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4607" uniqueCount="1418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5596" uniqueCount="1718">
   <si>
     <t>Keeper of the Grove</t>
   </si>
@@ -4276,6 +4276,906 @@
   </si>
   <si>
     <t>Onyxiclaw</t>
+  </si>
+  <si>
+    <t>Gadgetzan Jouster</t>
+  </si>
+  <si>
+    <t>The Grand Tournament</t>
+  </si>
+  <si>
+    <t>Battlecry: Reveal a minion in each deck. If yours costs more, gain +1/+1.</t>
+  </si>
+  <si>
+    <t>Lowly Squire</t>
+  </si>
+  <si>
+    <t>Inspire: Gain +1 Attack.</t>
+  </si>
+  <si>
+    <t>Tournament Attendee</t>
+  </si>
+  <si>
+    <t>Boneguard Lieutenant</t>
+  </si>
+  <si>
+    <t>Inspire: Gain +1 Health.</t>
+  </si>
+  <si>
+    <t>Flame Juggler</t>
+  </si>
+  <si>
+    <t>Battlecry: Deal 1 damage to a random enemy.</t>
+  </si>
+  <si>
+    <t>Battlecry: Give a friendly minion +2 Attack.</t>
+  </si>
+  <si>
+    <t>Argent Horserider</t>
+  </si>
+  <si>
+    <t>Divine Shield. Charge.</t>
+  </si>
+  <si>
+    <t>Dragonhawk Rider</t>
+  </si>
+  <si>
+    <t>Inspire: Gain Windfury this turn.</t>
+  </si>
+  <si>
+    <t>Ice Rager</t>
+  </si>
+  <si>
+    <t>Silent Knight</t>
+  </si>
+  <si>
+    <t>Stealth. Divine Shield.</t>
+  </si>
+  <si>
+    <t>Silver Hand Regent</t>
+  </si>
+  <si>
+    <t>Inspire: Summon a 1/1 Silver Hand Recruit.</t>
+  </si>
+  <si>
+    <t>Evil Heckler</t>
+  </si>
+  <si>
+    <t>Frigid Snobold</t>
+  </si>
+  <si>
+    <t>Maiden of the Lake</t>
+  </si>
+  <si>
+    <t>Your Hero Power costs (1).</t>
+  </si>
+  <si>
+    <t>Refreshment Vendor</t>
+  </si>
+  <si>
+    <t>Battlecry: Restore 4 Health to each hero.</t>
+  </si>
+  <si>
+    <t>Tournament Medic</t>
+  </si>
+  <si>
+    <t>Inspire: Restore 2 Health to your Hero.</t>
+  </si>
+  <si>
+    <t>Clockwork Knight</t>
+  </si>
+  <si>
+    <t>Battlecry: Give a friendly Mech +1/+1.</t>
+  </si>
+  <si>
+    <t>Kvaldir Raider</t>
+  </si>
+  <si>
+    <t>Inspire: Gain +2/+2.</t>
+  </si>
+  <si>
+    <t>Mukla's Champion</t>
+  </si>
+  <si>
+    <t>Inspire: Give your other minions +1/+1.</t>
+  </si>
+  <si>
+    <t>Pit Fighter</t>
+  </si>
+  <si>
+    <t>Captured Jormungar</t>
+  </si>
+  <si>
+    <t>North Sea Kraken</t>
+  </si>
+  <si>
+    <t>Battlecry: Deal 4 damage.</t>
+  </si>
+  <si>
+    <t>Injured Kvaldir</t>
+  </si>
+  <si>
+    <t>Battlecry: Deal 3 damage to this minion.</t>
+  </si>
+  <si>
+    <t>Argent Watchman</t>
+  </si>
+  <si>
+    <t>Can't attack. Inspire: Can attack as normal this turn.</t>
+  </si>
+  <si>
+    <t>Coliseum Manager</t>
+  </si>
+  <si>
+    <t>Inspire: Return this minion to your hand.</t>
+  </si>
+  <si>
+    <t>Fencing Coach</t>
+  </si>
+  <si>
+    <t>Battlecry: The next time you use your Hero Power, it costs (2) less.</t>
+  </si>
+  <si>
+    <t>Light's Champion</t>
+  </si>
+  <si>
+    <t>Battlecry: Silence a Demon.</t>
+  </si>
+  <si>
+    <t>Saboteur</t>
+  </si>
+  <si>
+    <t>Battlecry: Your opponent's Hero Power costs (5) more next turn.</t>
+  </si>
+  <si>
+    <t>Armored Warhorse</t>
+  </si>
+  <si>
+    <t>Battlecry: Reveal a minion in each deck. If yours costs more, gain Charge.</t>
+  </si>
+  <si>
+    <t>Master Jouster</t>
+  </si>
+  <si>
+    <t>Battlecry: Reveal a minion in each deck. If yours costs more, gain Taunt and Divine Shield.</t>
+  </si>
+  <si>
+    <t>Mogor's Champion</t>
+  </si>
+  <si>
+    <t>Garrison Commander</t>
+  </si>
+  <si>
+    <t>You can use your Hero Power twice a turn.</t>
+  </si>
+  <si>
+    <t>Master of Ceremonies</t>
+  </si>
+  <si>
+    <t>Battlecry: If you have a minion with Spell Damage, gain +2/+2.</t>
+  </si>
+  <si>
+    <t>Crowd Favorite</t>
+  </si>
+  <si>
+    <t>Whenever you play a card with Battlecry, gain +1/+1.</t>
+  </si>
+  <si>
+    <t>Twilight Guardian</t>
+  </si>
+  <si>
+    <t>Battlecry: If you're holding a Dragon, gain +1 Attack and Taunt.</t>
+  </si>
+  <si>
+    <t>Recruiter</t>
+  </si>
+  <si>
+    <t>Inspire: Add a 2/2 Squire to your hand.</t>
+  </si>
+  <si>
+    <t>Grand Crusader</t>
+  </si>
+  <si>
+    <t>Battlecry: Add a random Paladin card to your hand.</t>
+  </si>
+  <si>
+    <t>Kodorider</t>
+  </si>
+  <si>
+    <t>Inspire: Summon a 3/5 War Kodo.</t>
+  </si>
+  <si>
+    <t>Sideshow Spelleater</t>
+  </si>
+  <si>
+    <t>Battlecry: Copy your opponent's Hero Power.</t>
+  </si>
+  <si>
+    <t>Frost Giant</t>
+  </si>
+  <si>
+    <t>Costs (1) less for each time you used your Hero Power this game.</t>
+  </si>
+  <si>
+    <t>Eydis Darkbane</t>
+  </si>
+  <si>
+    <t>Whenever you target this minion with a spell, deal 3 damage to a random enemy.</t>
+  </si>
+  <si>
+    <t>Fjola Lightbane</t>
+  </si>
+  <si>
+    <t>Whenever you target this minion with a spell, gain Divine Shield.</t>
+  </si>
+  <si>
+    <t>Gormok the Impaler</t>
+  </si>
+  <si>
+    <t>Battlecry: If you have at least 4 other minions, deal 4 damage.</t>
+  </si>
+  <si>
+    <t>Nexus-Champion Saraad</t>
+  </si>
+  <si>
+    <t>Inspire: Add a random spell to your hand.</t>
+  </si>
+  <si>
+    <t>Bolf Ramshield</t>
+  </si>
+  <si>
+    <t>Whenever your hero takes damage, this minion takes it instead.</t>
+  </si>
+  <si>
+    <t>Justicar Trueheart</t>
+  </si>
+  <si>
+    <t>Battlecry: Replace your starting Hero Power with a better one.</t>
+  </si>
+  <si>
+    <t>The Skeleton Knight</t>
+  </si>
+  <si>
+    <t>Battlecry: Reveal a minion in each deck. If yours costs more, return this to your hand.</t>
+  </si>
+  <si>
+    <t>Chillmaw</t>
+  </si>
+  <si>
+    <t>Taunt. Deathrattle: If you're holding a Dragon, deal 3 damage to all minions.</t>
+  </si>
+  <si>
+    <t>Skycap'n Kragg</t>
+  </si>
+  <si>
+    <t>Charrrrrge. Costs (1) less for each friendly Pirate.</t>
+  </si>
+  <si>
+    <t>Icehowl</t>
+  </si>
+  <si>
+    <t>Charge. Can't attack heroes.</t>
+  </si>
+  <si>
+    <t>Druid of the Saber</t>
+  </si>
+  <si>
+    <t>Choose One: Charge or +1/+1 and Stealth.</t>
+  </si>
+  <si>
+    <t>Wildwalker</t>
+  </si>
+  <si>
+    <t>Battlecry: Give a friendly Beast +3 Health.</t>
+  </si>
+  <si>
+    <t>Darnassus Aspirant</t>
+  </si>
+  <si>
+    <t>Battlecry: Gain an empty mana crystal. Dealthrattle: Destroy a mana crystal.</t>
+  </si>
+  <si>
+    <t>Savage Combatant</t>
+  </si>
+  <si>
+    <t>Inspire: Give your hero +2 Attack this turn.</t>
+  </si>
+  <si>
+    <t>Knight of the Wild</t>
+  </si>
+  <si>
+    <t>Whenever you summon a Beast, reduce the cost of this card by (1).</t>
+  </si>
+  <si>
+    <t>Aviana</t>
+  </si>
+  <si>
+    <t>Your minions cost (1).</t>
+  </si>
+  <si>
+    <t>Inspire: If your hand is empty, deal 2 damage to the enemy hero.</t>
+  </si>
+  <si>
+    <t>King's Elekk</t>
+  </si>
+  <si>
+    <t>Battlecry: Reveal a minion in each deck. If yours costs more, draw it.</t>
+  </si>
+  <si>
+    <t>Ram Wrangler</t>
+  </si>
+  <si>
+    <t>Battlecry: If you have a Beast, summon a random Beast.</t>
+  </si>
+  <si>
+    <t>Stablemaster</t>
+  </si>
+  <si>
+    <t>Battlecry: Give a friendly Beast Immune this turn.</t>
+  </si>
+  <si>
+    <t>Dreadscale</t>
+  </si>
+  <si>
+    <t>At the end of your turn, deal 1 damage to all other minions.</t>
+  </si>
+  <si>
+    <t>Acidmaw</t>
+  </si>
+  <si>
+    <t>Whenever another minion takes damage, destroy it.</t>
+  </si>
+  <si>
+    <t>Spellslinger</t>
+  </si>
+  <si>
+    <t>Battlecry: Add a random spell card to each player's hand.</t>
+  </si>
+  <si>
+    <t>Dalaran Aspirant</t>
+  </si>
+  <si>
+    <t>Inspire: Gain Spell Damage +1.</t>
+  </si>
+  <si>
+    <t>Fallen Hero</t>
+  </si>
+  <si>
+    <t>Your Hero Power deals 1 extra damage.</t>
+  </si>
+  <si>
+    <t>Coldarra Drake</t>
+  </si>
+  <si>
+    <t>You can use your Hero Power any number of times.</t>
+  </si>
+  <si>
+    <t>Rhonin</t>
+  </si>
+  <si>
+    <t>Deathrattle: Add 3 copies of Arcane Missiles to your hand.</t>
+  </si>
+  <si>
+    <t>Warhorse Trainer</t>
+  </si>
+  <si>
+    <t>Your Silver Hand Recruits have +1 Attack.</t>
+  </si>
+  <si>
+    <t>Murloc Knight</t>
+  </si>
+  <si>
+    <t>Inspire: Summon a random Murloc.</t>
+  </si>
+  <si>
+    <t>Tuskarr Jouster</t>
+  </si>
+  <si>
+    <t>Battlecry: Reveal a minion in each deck, if yours costs more, restore 7 Health to your hero.</t>
+  </si>
+  <si>
+    <t>Mysterious Challenger</t>
+  </si>
+  <si>
+    <t>Battlecry: Put one of each Secret from your deck into the battlefield.</t>
+  </si>
+  <si>
+    <t>Eadric the Pure</t>
+  </si>
+  <si>
+    <t>Battlecry: Change all enemy minions' Attack to 1.</t>
+  </si>
+  <si>
+    <t>Holy Champion</t>
+  </si>
+  <si>
+    <t>Whenever a character is healed, gain +2 attack.</t>
+  </si>
+  <si>
+    <t>Wyrmrest Agent</t>
+  </si>
+  <si>
+    <t>Inspire: Deal 4 damage to each hero.</t>
+  </si>
+  <si>
+    <t>Shadowfiend</t>
+  </si>
+  <si>
+    <t>Whenever you draw a card, reduce its costs by (1).</t>
+  </si>
+  <si>
+    <t>Confessor Paletress</t>
+  </si>
+  <si>
+    <t>Inspire: Summon a random Legendary Minion.</t>
+  </si>
+  <si>
+    <t>Buccaneer</t>
+  </si>
+  <si>
+    <t>Whenever you equip a weapon, give it +1 Attack.</t>
+  </si>
+  <si>
+    <t>Undercity Valiant</t>
+  </si>
+  <si>
+    <t>Combo: Deal 1 damage.</t>
+  </si>
+  <si>
+    <t>Combo: +3 Attack.</t>
+  </si>
+  <si>
+    <t>Cutpurse</t>
+  </si>
+  <si>
+    <t>When this minion attacks the enemy hero, put a Coin into your hand.</t>
+  </si>
+  <si>
+    <t>Shady Dealer</t>
+  </si>
+  <si>
+    <t>Battlecry: If you have a Pirate, gain +1/+1.</t>
+  </si>
+  <si>
+    <t>Anub'arak</t>
+  </si>
+  <si>
+    <t>Deathrattle: Return this to your hand and summon a 4/4 Nerubian.</t>
+  </si>
+  <si>
+    <t>Totem Golem</t>
+  </si>
+  <si>
+    <t>Tuskarr Totemic</t>
+  </si>
+  <si>
+    <t>Battlecry: Summon ANY random Totem.</t>
+  </si>
+  <si>
+    <t>Draenei Totemcarver</t>
+  </si>
+  <si>
+    <t>Battlecry: Gain +1/+1 for each friendly Totem.</t>
+  </si>
+  <si>
+    <t>Thunder Bluff Valiant</t>
+  </si>
+  <si>
+    <t>Inspire: Give your Totems +2 Attack.</t>
+  </si>
+  <si>
+    <t>The Mistcaller</t>
+  </si>
+  <si>
+    <t>Battlecry: Give all minions in your hand and deck +1/+1.</t>
+  </si>
+  <si>
+    <t>Wrathguard</t>
+  </si>
+  <si>
+    <t>Whenever this minion takes damage, also deal that amount to your hero.</t>
+  </si>
+  <si>
+    <t>Fearsome Doomguard</t>
+  </si>
+  <si>
+    <t>Tiny Knight of Evil</t>
+  </si>
+  <si>
+    <t>Whenever you discard a card, gain +1/+1.</t>
+  </si>
+  <si>
+    <t>Void Crusher</t>
+  </si>
+  <si>
+    <t>Inspire: Destroy a random minion for each player.</t>
+  </si>
+  <si>
+    <t>Dreadsteed</t>
+  </si>
+  <si>
+    <t>Deathrattle: Summon a Dreadsteed.</t>
+  </si>
+  <si>
+    <t>Wilfred Fizzlebang</t>
+  </si>
+  <si>
+    <t>Cards you draw from your Hero Power cost (0).</t>
+  </si>
+  <si>
+    <t>Orgrimmar Aspirant</t>
+  </si>
+  <si>
+    <t>Inspire: Give your weapon +1 Attack.</t>
+  </si>
+  <si>
+    <t>Alexstrasza's Champion</t>
+  </si>
+  <si>
+    <t>Battlecry: If you're holding a Dragon, gain +1 Attack and Charge.</t>
+  </si>
+  <si>
+    <t>Sparring Partner</t>
+  </si>
+  <si>
+    <t>Taunt. Battlecry: Give a minion Taunt.</t>
+  </si>
+  <si>
+    <t>Magnataur Alpha</t>
+  </si>
+  <si>
+    <t>Also damages the minions next to whoever he attacks.</t>
+  </si>
+  <si>
+    <t>Sea Reaver</t>
+  </si>
+  <si>
+    <t>When you Draw this card, deal 1 damage to all YOUR minions.</t>
+  </si>
+  <si>
+    <t>Varian Wrynn</t>
+  </si>
+  <si>
+    <t>Battlecry: Draw 3 cards. Put any minions you drew directly into the battlefield.</t>
+  </si>
+  <si>
+    <t>Atramedes</t>
+  </si>
+  <si>
+    <t>Tavern Brawl</t>
+  </si>
+  <si>
+    <t>Whenever your opponent plays a card, gain +2 Attack.</t>
+  </si>
+  <si>
+    <t>Core Hound Pup</t>
+  </si>
+  <si>
+    <t>At the end of each turn, summon all Core Hound Pups that died this turn.</t>
+  </si>
+  <si>
+    <t>Coren Direbrew</t>
+  </si>
+  <si>
+    <t>Always wins Brawls. Battlecry: Add a Brawl to your hand.</t>
+  </si>
+  <si>
+    <t>Dragonkin Hatcher</t>
+  </si>
+  <si>
+    <t>Battlecry: Summon two 2/2 Whelps.</t>
+  </si>
+  <si>
+    <t>Drakonid Slayer</t>
+  </si>
+  <si>
+    <t>Garr</t>
+  </si>
+  <si>
+    <t>Whenever this minion takes damage, summon a 2/3 Elemental with Taunt.</t>
+  </si>
+  <si>
+    <t>Rock Elemental</t>
+  </si>
+  <si>
+    <t>Golemagg</t>
+  </si>
+  <si>
+    <t>High Justice Grimstone</t>
+  </si>
+  <si>
+    <t>At the start of your turn, summon a Legendary minion.</t>
+  </si>
+  <si>
+    <t>Lucifron</t>
+  </si>
+  <si>
+    <t>Battlecry: Cast Corruption on all other minions.</t>
+  </si>
+  <si>
+    <t>Deathrattle: Summon Emperor Thaurissan.</t>
+  </si>
+  <si>
+    <t>Razorgore</t>
+  </si>
+  <si>
+    <t>At the start of your turn, give your minions +3 Attack.</t>
+  </si>
+  <si>
+    <t>Vaelastrasz</t>
+  </si>
+  <si>
+    <t>Your cards cost (3) less.</t>
+  </si>
+  <si>
+    <t>Living Roots</t>
+  </si>
+  <si>
+    <t>Choose One - Deal 2 damage; or Summon two 1/1 Saplings.</t>
+  </si>
+  <si>
+    <t>Mulch</t>
+  </si>
+  <si>
+    <t>Destroy a minion. Add a random minion to your opponent's hand.</t>
+  </si>
+  <si>
+    <t>Astral Communion</t>
+  </si>
+  <si>
+    <t>Discard your hand. Gain 10 Mana Crystals.</t>
+  </si>
+  <si>
+    <t>Bear Trap</t>
+  </si>
+  <si>
+    <t>Secret: After your hero is attacked, summon a 3/3 Bear with Taunt.</t>
+  </si>
+  <si>
+    <t>Powershot</t>
+  </si>
+  <si>
+    <t>Deal 2 damage to a minion and the minions next to it.</t>
+  </si>
+  <si>
+    <t>Ball of Spiders</t>
+  </si>
+  <si>
+    <t>Summon three 1/1 Webspinners.</t>
+  </si>
+  <si>
+    <t>Lock and Load</t>
+  </si>
+  <si>
+    <t>Each time you cast a spell this turn, add a random Hunter card to your hand.</t>
+  </si>
+  <si>
+    <t>Flame Lance</t>
+  </si>
+  <si>
+    <t>Deal 8 damage to a minion.</t>
+  </si>
+  <si>
+    <t>Effigy</t>
+  </si>
+  <si>
+    <t>Secret: When a friendly minion dies, summon a random minion with the same Cost.</t>
+  </si>
+  <si>
+    <t>Polymorph: Boar</t>
+  </si>
+  <si>
+    <t>Transform a minion into a 4/2 Boar with Charge.</t>
+  </si>
+  <si>
+    <t>Arcane Blast</t>
+  </si>
+  <si>
+    <t>Deal 2 damage to a minion. This spell gets double bonus from Spell Damage.</t>
+  </si>
+  <si>
+    <t>Seal of Champions</t>
+  </si>
+  <si>
+    <t>Give a minion +3 Attack and Divine Shield.</t>
+  </si>
+  <si>
+    <t>Competitive Spirit</t>
+  </si>
+  <si>
+    <t>Secret: When your turn starts, give your minions +1/+1.</t>
+  </si>
+  <si>
+    <t>Enter the Coliseum</t>
+  </si>
+  <si>
+    <t>Destroy all minions except each player's highest Attack minion.</t>
+  </si>
+  <si>
+    <t>Flash Heal</t>
+  </si>
+  <si>
+    <t>Power Word: Glory</t>
+  </si>
+  <si>
+    <t>Choose a minion. Whenever it attacks, restore 4 Health to your hero.</t>
+  </si>
+  <si>
+    <t>Convert</t>
+  </si>
+  <si>
+    <t>Put a copy of an enemy minion into your hand.</t>
+  </si>
+  <si>
+    <t>Confuse</t>
+  </si>
+  <si>
+    <t>Swap the Attack and Health of all minions.</t>
+  </si>
+  <si>
+    <t>Burgle</t>
+  </si>
+  <si>
+    <t>Add 2 random class cards to your hand (from your opponent's class).</t>
+  </si>
+  <si>
+    <t>Beneath the Grounds</t>
+  </si>
+  <si>
+    <t>Shuffle 3 Ambushes into your opponent's deck. When draw, you summon a 4/4 Nerubian.</t>
+  </si>
+  <si>
+    <t>Ancestral Knowledge</t>
+  </si>
+  <si>
+    <t>Draw 2 cards. Overload: (2).</t>
+  </si>
+  <si>
+    <t>Healing Wave</t>
+  </si>
+  <si>
+    <t>Restore 7 Health. Reveal a minion in each deck. If yours costs more, Restore 14 instead.</t>
+  </si>
+  <si>
+    <t>Elemental Destruction</t>
+  </si>
+  <si>
+    <t>Deal 4-5 damage to all minions. Overload: (5)</t>
+  </si>
+  <si>
+    <t>Demonfuse</t>
+  </si>
+  <si>
+    <t>Give a Demon +3/+3. Give your opponent a Mana Crystal.</t>
+  </si>
+  <si>
+    <t>Fist of Jaraxxus</t>
+  </si>
+  <si>
+    <t>When you play or discard this, deal 4 damage to a random enemy.</t>
+  </si>
+  <si>
+    <t>Dark Bargain</t>
+  </si>
+  <si>
+    <t>Destroy 2 random enemy minions. Discard 2 random cards.</t>
+  </si>
+  <si>
+    <t>Bolster</t>
+  </si>
+  <si>
+    <t>Give your Taunt minions +2/+2.</t>
+  </si>
+  <si>
+    <t>Bash</t>
+  </si>
+  <si>
+    <t>Deal 3 Damage. Gain 3 Armor.</t>
+  </si>
+  <si>
+    <t>Core Hound Puppies</t>
+  </si>
+  <si>
+    <t>Summon two 2/4 Core Hound Pups.</t>
+  </si>
+  <si>
+    <t>Open the Gates</t>
+  </si>
+  <si>
+    <t>Fill your board with 2/2 Whelps.</t>
+  </si>
+  <si>
+    <t>Omnotron Defense System</t>
+  </si>
+  <si>
+    <t>Summon a random Tron.</t>
+  </si>
+  <si>
+    <t>Big Banana</t>
+  </si>
+  <si>
+    <t>Give a minion +2/+2.</t>
+  </si>
+  <si>
+    <t>Deviate Banana</t>
+  </si>
+  <si>
+    <t>Rotten Banana</t>
+  </si>
+  <si>
+    <t>Argent Lance</t>
+  </si>
+  <si>
+    <t>Battlecry: Reveal a minion in each deck, if yours costs more, +1 Durability.</t>
+  </si>
+  <si>
+    <t>Poisoned Blade</t>
+  </si>
+  <si>
+    <t>Your Hero Power gives this weapon +1 Attack instead of replacing it.</t>
+  </si>
+  <si>
+    <t>Charged Hammer</t>
+  </si>
+  <si>
+    <t>Deathrattle: your Hero Power becomes ' Deal 2 damage.'</t>
+  </si>
+  <si>
+    <t>King's Defender</t>
+  </si>
+  <si>
+    <t>Battlecry: If you have a minion with Taunt, gain +1 Durability.</t>
+  </si>
+  <si>
+    <t>Sulfuras</t>
+  </si>
+  <si>
+    <t>Deathrattle: Your Hero Power becomes 'Deal 8 damage to a random enemy'.</t>
+  </si>
+  <si>
+    <t>Spawn of Shadows</t>
+  </si>
+  <si>
+    <t>Lance Carrier</t>
+  </si>
+  <si>
+    <t>Brave Archer</t>
+  </si>
+  <si>
+    <t>Shado-Pan Rider</t>
+  </si>
+  <si>
+    <t>War Kodo</t>
+  </si>
+  <si>
+    <t>Sapling</t>
+  </si>
+  <si>
+    <t>Sabertooth Lion</t>
+  </si>
+  <si>
+    <t>Sabertooth Panther</t>
+  </si>
+  <si>
+    <t>Lion Form</t>
+  </si>
+  <si>
+    <t>Panther Form</t>
+  </si>
+  <si>
+    <t>+1/+1 and Stealth</t>
+  </si>
+  <si>
+    <t>Summon two 1/1 Saplings.</t>
+  </si>
+  <si>
+    <t>Ambush!</t>
+  </si>
+  <si>
+    <t>When you draw this, summon a 4/4 Nerubian for your opponent. Draw a card.</t>
+  </si>
+  <si>
+    <t>Poisoned Dagger</t>
   </si>
 </sst>
 </file>
@@ -4682,20 +5582,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K788"/>
+  <dimension ref="A1:K955"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A734" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B785" sqref="B785"/>
+      <pane ySplit="1" topLeftCell="A919" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B945" sqref="B945"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.85546875" bestFit="1" customWidth="1"/>
@@ -28731,6 +29631,5071 @@
         <v>6</v>
       </c>
     </row>
+    <row r="789" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A789" s="1">
+        <v>787</v>
+      </c>
+      <c r="B789" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C789" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="D789" t="s">
+        <v>140</v>
+      </c>
+      <c r="E789" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F789" t="s">
+        <v>5</v>
+      </c>
+      <c r="H789">
+        <v>1</v>
+      </c>
+      <c r="I789">
+        <v>1</v>
+      </c>
+      <c r="J789">
+        <v>2</v>
+      </c>
+      <c r="K789" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="790" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A790" s="1">
+        <v>788</v>
+      </c>
+      <c r="B790" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C790" t="s">
+        <v>832</v>
+      </c>
+      <c r="D790" t="s">
+        <v>140</v>
+      </c>
+      <c r="E790" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F790" t="s">
+        <v>5</v>
+      </c>
+      <c r="H790">
+        <v>1</v>
+      </c>
+      <c r="I790">
+        <v>1</v>
+      </c>
+      <c r="J790">
+        <v>2</v>
+      </c>
+      <c r="K790" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="791" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A791" s="1">
+        <v>789</v>
+      </c>
+      <c r="B791" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C791" t="s">
+        <v>832</v>
+      </c>
+      <c r="D791" t="s">
+        <v>140</v>
+      </c>
+      <c r="E791" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F791" t="s">
+        <v>5</v>
+      </c>
+      <c r="H791">
+        <v>1</v>
+      </c>
+      <c r="I791">
+        <v>2</v>
+      </c>
+      <c r="J791">
+        <v>1</v>
+      </c>
+      <c r="K791" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="792" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A792" s="1">
+        <v>790</v>
+      </c>
+      <c r="B792" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C792" t="s">
+        <v>832</v>
+      </c>
+      <c r="D792" t="s">
+        <v>140</v>
+      </c>
+      <c r="E792" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F792" t="s">
+        <v>5</v>
+      </c>
+      <c r="H792">
+        <v>2</v>
+      </c>
+      <c r="I792">
+        <v>3</v>
+      </c>
+      <c r="J792">
+        <v>2</v>
+      </c>
+      <c r="K792" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="793" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A793" s="1">
+        <v>791</v>
+      </c>
+      <c r="B793" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C793" t="s">
+        <v>832</v>
+      </c>
+      <c r="D793" t="s">
+        <v>140</v>
+      </c>
+      <c r="E793" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F793" t="s">
+        <v>5</v>
+      </c>
+      <c r="H793">
+        <v>2</v>
+      </c>
+      <c r="I793">
+        <v>2</v>
+      </c>
+      <c r="J793">
+        <v>3</v>
+      </c>
+      <c r="K793" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="794" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A794" s="1">
+        <v>792</v>
+      </c>
+      <c r="B794" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C794" t="s">
+        <v>832</v>
+      </c>
+      <c r="D794" t="s">
+        <v>140</v>
+      </c>
+      <c r="E794" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F794" t="s">
+        <v>5</v>
+      </c>
+      <c r="H794">
+        <v>2</v>
+      </c>
+      <c r="I794">
+        <v>1</v>
+      </c>
+      <c r="J794">
+        <v>2</v>
+      </c>
+      <c r="K794" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="795" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A795" s="1">
+        <v>793</v>
+      </c>
+      <c r="B795" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C795" t="s">
+        <v>832</v>
+      </c>
+      <c r="D795" t="s">
+        <v>140</v>
+      </c>
+      <c r="E795" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F795" t="s">
+        <v>5</v>
+      </c>
+      <c r="H795">
+        <v>3</v>
+      </c>
+      <c r="I795">
+        <v>2</v>
+      </c>
+      <c r="J795">
+        <v>1</v>
+      </c>
+      <c r="K795" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="796" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A796" s="1">
+        <v>794</v>
+      </c>
+      <c r="B796" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C796" t="s">
+        <v>832</v>
+      </c>
+      <c r="D796" t="s">
+        <v>140</v>
+      </c>
+      <c r="E796" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F796" t="s">
+        <v>5</v>
+      </c>
+      <c r="H796">
+        <v>3</v>
+      </c>
+      <c r="I796">
+        <v>3</v>
+      </c>
+      <c r="J796">
+        <v>3</v>
+      </c>
+      <c r="K796" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="797" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A797" s="1">
+        <v>795</v>
+      </c>
+      <c r="B797" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C797" t="s">
+        <v>832</v>
+      </c>
+      <c r="D797" t="s">
+        <v>140</v>
+      </c>
+      <c r="E797" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F797" t="s">
+        <v>5</v>
+      </c>
+      <c r="H797">
+        <v>3</v>
+      </c>
+      <c r="I797">
+        <v>5</v>
+      </c>
+      <c r="J797">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="798" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A798" s="1">
+        <v>796</v>
+      </c>
+      <c r="B798" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C798" t="s">
+        <v>832</v>
+      </c>
+      <c r="D798" t="s">
+        <v>140</v>
+      </c>
+      <c r="E798" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F798" t="s">
+        <v>5</v>
+      </c>
+      <c r="H798">
+        <v>3</v>
+      </c>
+      <c r="I798">
+        <v>2</v>
+      </c>
+      <c r="J798">
+        <v>2</v>
+      </c>
+      <c r="K798" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="799" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A799" s="1">
+        <v>797</v>
+      </c>
+      <c r="B799" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C799" t="s">
+        <v>832</v>
+      </c>
+      <c r="D799" t="s">
+        <v>140</v>
+      </c>
+      <c r="E799" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F799" t="s">
+        <v>5</v>
+      </c>
+      <c r="H799">
+        <v>3</v>
+      </c>
+      <c r="I799">
+        <v>3</v>
+      </c>
+      <c r="J799">
+        <v>3</v>
+      </c>
+      <c r="K799" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="800" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A800" s="1">
+        <v>798</v>
+      </c>
+      <c r="B800" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C800" t="s">
+        <v>832</v>
+      </c>
+      <c r="D800" t="s">
+        <v>140</v>
+      </c>
+      <c r="E800" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F800" t="s">
+        <v>5</v>
+      </c>
+      <c r="H800">
+        <v>4</v>
+      </c>
+      <c r="I800">
+        <v>5</v>
+      </c>
+      <c r="J800">
+        <v>4</v>
+      </c>
+      <c r="K800" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="801" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A801" s="1">
+        <v>799</v>
+      </c>
+      <c r="B801" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C801" t="s">
+        <v>832</v>
+      </c>
+      <c r="D801" t="s">
+        <v>140</v>
+      </c>
+      <c r="E801" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F801" t="s">
+        <v>5</v>
+      </c>
+      <c r="H801">
+        <v>4</v>
+      </c>
+      <c r="I801">
+        <v>2</v>
+      </c>
+      <c r="J801">
+        <v>6</v>
+      </c>
+      <c r="K801" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="802" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A802" s="1">
+        <v>800</v>
+      </c>
+      <c r="B802" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C802" t="s">
+        <v>832</v>
+      </c>
+      <c r="D802" t="s">
+        <v>140</v>
+      </c>
+      <c r="E802" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F802" t="s">
+        <v>5</v>
+      </c>
+      <c r="H802">
+        <v>4</v>
+      </c>
+      <c r="I802">
+        <v>2</v>
+      </c>
+      <c r="J802">
+        <v>6</v>
+      </c>
+      <c r="K802" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="803" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A803" s="1">
+        <v>801</v>
+      </c>
+      <c r="B803" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C803" t="s">
+        <v>832</v>
+      </c>
+      <c r="D803" t="s">
+        <v>140</v>
+      </c>
+      <c r="E803" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F803" t="s">
+        <v>5</v>
+      </c>
+      <c r="H803">
+        <v>4</v>
+      </c>
+      <c r="I803">
+        <v>3</v>
+      </c>
+      <c r="J803">
+        <v>5</v>
+      </c>
+      <c r="K803" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="804" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A804" s="1">
+        <v>802</v>
+      </c>
+      <c r="B804" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C804" t="s">
+        <v>832</v>
+      </c>
+      <c r="D804" t="s">
+        <v>140</v>
+      </c>
+      <c r="E804" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F804" t="s">
+        <v>5</v>
+      </c>
+      <c r="H804">
+        <v>4</v>
+      </c>
+      <c r="I804">
+        <v>1</v>
+      </c>
+      <c r="J804">
+        <v>8</v>
+      </c>
+      <c r="K804" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="805" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A805" s="1">
+        <v>803</v>
+      </c>
+      <c r="B805" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C805" t="s">
+        <v>832</v>
+      </c>
+      <c r="D805" t="s">
+        <v>140</v>
+      </c>
+      <c r="E805" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F805" t="s">
+        <v>5</v>
+      </c>
+      <c r="G805" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H805">
+        <v>5</v>
+      </c>
+      <c r="I805">
+        <v>5</v>
+      </c>
+      <c r="J805">
+        <v>5</v>
+      </c>
+      <c r="K805" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="806" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A806" s="1">
+        <v>804</v>
+      </c>
+      <c r="B806" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C806" t="s">
+        <v>832</v>
+      </c>
+      <c r="D806" t="s">
+        <v>140</v>
+      </c>
+      <c r="E806" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F806" t="s">
+        <v>5</v>
+      </c>
+      <c r="H806">
+        <v>5</v>
+      </c>
+      <c r="I806">
+        <v>4</v>
+      </c>
+      <c r="J806">
+        <v>4</v>
+      </c>
+      <c r="K806" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="807" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A807" s="1">
+        <v>805</v>
+      </c>
+      <c r="B807" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C807" t="s">
+        <v>832</v>
+      </c>
+      <c r="D807" t="s">
+        <v>140</v>
+      </c>
+      <c r="E807" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F807" t="s">
+        <v>5</v>
+      </c>
+      <c r="G807" t="s">
+        <v>20</v>
+      </c>
+      <c r="H807">
+        <v>5</v>
+      </c>
+      <c r="I807">
+        <v>4</v>
+      </c>
+      <c r="J807">
+        <v>3</v>
+      </c>
+      <c r="K807" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="808" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A808" s="1">
+        <v>806</v>
+      </c>
+      <c r="B808" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C808" t="s">
+        <v>832</v>
+      </c>
+      <c r="D808" t="s">
+        <v>140</v>
+      </c>
+      <c r="E808" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F808" t="s">
+        <v>5</v>
+      </c>
+      <c r="H808">
+        <v>5</v>
+      </c>
+      <c r="I808">
+        <v>5</v>
+      </c>
+      <c r="J808">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="809" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A809" s="1">
+        <v>807</v>
+      </c>
+      <c r="B809" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C809" t="s">
+        <v>832</v>
+      </c>
+      <c r="D809" t="s">
+        <v>140</v>
+      </c>
+      <c r="E809" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F809" t="s">
+        <v>5</v>
+      </c>
+      <c r="G809" t="s">
+        <v>20</v>
+      </c>
+      <c r="H809">
+        <v>7</v>
+      </c>
+      <c r="I809">
+        <v>5</v>
+      </c>
+      <c r="J809">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="810" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A810" s="1">
+        <v>808</v>
+      </c>
+      <c r="B810" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C810" t="s">
+        <v>832</v>
+      </c>
+      <c r="D810" t="s">
+        <v>140</v>
+      </c>
+      <c r="E810" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F810" t="s">
+        <v>5</v>
+      </c>
+      <c r="H810">
+        <v>9</v>
+      </c>
+      <c r="I810">
+        <v>9</v>
+      </c>
+      <c r="J810">
+        <v>7</v>
+      </c>
+      <c r="K810" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="811" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A811" s="1">
+        <v>809</v>
+      </c>
+      <c r="B811" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C811" t="s">
+        <v>832</v>
+      </c>
+      <c r="D811" t="s">
+        <v>140</v>
+      </c>
+      <c r="E811" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F811" t="s">
+        <v>2</v>
+      </c>
+      <c r="H811">
+        <v>1</v>
+      </c>
+      <c r="I811">
+        <v>2</v>
+      </c>
+      <c r="J811">
+        <v>4</v>
+      </c>
+      <c r="K811" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="812" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A812" s="1">
+        <v>810</v>
+      </c>
+      <c r="B812" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C812" t="s">
+        <v>832</v>
+      </c>
+      <c r="D812" t="s">
+        <v>140</v>
+      </c>
+      <c r="E812" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F812" t="s">
+        <v>2</v>
+      </c>
+      <c r="H812">
+        <v>2</v>
+      </c>
+      <c r="I812">
+        <v>2</v>
+      </c>
+      <c r="J812">
+        <v>4</v>
+      </c>
+      <c r="K812" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="813" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A813" s="1">
+        <v>811</v>
+      </c>
+      <c r="B813" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C813" t="s">
+        <v>832</v>
+      </c>
+      <c r="D813" t="s">
+        <v>140</v>
+      </c>
+      <c r="E813" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F813" t="s">
+        <v>2</v>
+      </c>
+      <c r="H813">
+        <v>3</v>
+      </c>
+      <c r="I813">
+        <v>2</v>
+      </c>
+      <c r="J813">
+        <v>5</v>
+      </c>
+      <c r="K813" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="814" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A814" s="1">
+        <v>812</v>
+      </c>
+      <c r="B814" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C814" t="s">
+        <v>832</v>
+      </c>
+      <c r="D814" t="s">
+        <v>140</v>
+      </c>
+      <c r="E814" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F814" t="s">
+        <v>2</v>
+      </c>
+      <c r="H814">
+        <v>3</v>
+      </c>
+      <c r="I814">
+        <v>2</v>
+      </c>
+      <c r="J814">
+        <v>2</v>
+      </c>
+      <c r="K814" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="815" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A815" s="1">
+        <v>813</v>
+      </c>
+      <c r="B815" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C815" t="s">
+        <v>832</v>
+      </c>
+      <c r="D815" t="s">
+        <v>140</v>
+      </c>
+      <c r="E815" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F815" t="s">
+        <v>2</v>
+      </c>
+      <c r="H815">
+        <v>3</v>
+      </c>
+      <c r="I815">
+        <v>4</v>
+      </c>
+      <c r="J815">
+        <v>3</v>
+      </c>
+      <c r="K815" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="816" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A816" s="1">
+        <v>814</v>
+      </c>
+      <c r="B816" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C816" t="s">
+        <v>832</v>
+      </c>
+      <c r="D816" t="s">
+        <v>140</v>
+      </c>
+      <c r="E816" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F816" t="s">
+        <v>2</v>
+      </c>
+      <c r="H816">
+        <v>3</v>
+      </c>
+      <c r="I816">
+        <v>4</v>
+      </c>
+      <c r="J816">
+        <v>3</v>
+      </c>
+      <c r="K816" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="817" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A817" s="1">
+        <v>815</v>
+      </c>
+      <c r="B817" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C817" t="s">
+        <v>832</v>
+      </c>
+      <c r="D817" t="s">
+        <v>140</v>
+      </c>
+      <c r="E817" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F817" t="s">
+        <v>2</v>
+      </c>
+      <c r="G817" t="s">
+        <v>20</v>
+      </c>
+      <c r="H817">
+        <v>4</v>
+      </c>
+      <c r="I817">
+        <v>5</v>
+      </c>
+      <c r="J817">
+        <v>3</v>
+      </c>
+      <c r="K817" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="818" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A818" s="1">
+        <v>816</v>
+      </c>
+      <c r="B818" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C818" t="s">
+        <v>832</v>
+      </c>
+      <c r="D818" t="s">
+        <v>140</v>
+      </c>
+      <c r="E818" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F818" t="s">
+        <v>2</v>
+      </c>
+      <c r="H818">
+        <v>6</v>
+      </c>
+      <c r="I818">
+        <v>5</v>
+      </c>
+      <c r="J818">
+        <v>6</v>
+      </c>
+      <c r="K818" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="819" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A819" s="1">
+        <v>817</v>
+      </c>
+      <c r="B819" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C819" t="s">
+        <v>832</v>
+      </c>
+      <c r="D819" t="s">
+        <v>140</v>
+      </c>
+      <c r="E819" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F819" t="s">
+        <v>2</v>
+      </c>
+      <c r="H819">
+        <v>6</v>
+      </c>
+      <c r="I819">
+        <v>8</v>
+      </c>
+      <c r="J819">
+        <v>5</v>
+      </c>
+      <c r="K819" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="820" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A820" s="1">
+        <v>818</v>
+      </c>
+      <c r="B820" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C820" t="s">
+        <v>832</v>
+      </c>
+      <c r="D820" t="s">
+        <v>140</v>
+      </c>
+      <c r="E820" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F820" t="s">
+        <v>8</v>
+      </c>
+      <c r="H820">
+        <v>2</v>
+      </c>
+      <c r="I820">
+        <v>2</v>
+      </c>
+      <c r="J820">
+        <v>3</v>
+      </c>
+      <c r="K820" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="821" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A821" s="1">
+        <v>819</v>
+      </c>
+      <c r="B821" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C821" t="s">
+        <v>832</v>
+      </c>
+      <c r="D821" t="s">
+        <v>140</v>
+      </c>
+      <c r="E821" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F821" t="s">
+        <v>8</v>
+      </c>
+      <c r="H821">
+        <v>3</v>
+      </c>
+      <c r="I821">
+        <v>4</v>
+      </c>
+      <c r="J821">
+        <v>2</v>
+      </c>
+      <c r="K821" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="822" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A822" s="1">
+        <v>820</v>
+      </c>
+      <c r="B822" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C822" t="s">
+        <v>832</v>
+      </c>
+      <c r="D822" t="s">
+        <v>140</v>
+      </c>
+      <c r="E822" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F822" t="s">
+        <v>8</v>
+      </c>
+      <c r="H822">
+        <v>4</v>
+      </c>
+      <c r="I822">
+        <v>4</v>
+      </c>
+      <c r="J822">
+        <v>4</v>
+      </c>
+      <c r="K822" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="823" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A823" s="1">
+        <v>821</v>
+      </c>
+      <c r="B823" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C823" t="s">
+        <v>832</v>
+      </c>
+      <c r="D823" t="s">
+        <v>140</v>
+      </c>
+      <c r="E823" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F823" t="s">
+        <v>8</v>
+      </c>
+      <c r="G823" t="s">
+        <v>200</v>
+      </c>
+      <c r="H823">
+        <v>4</v>
+      </c>
+      <c r="I823">
+        <v>2</v>
+      </c>
+      <c r="J823">
+        <v>6</v>
+      </c>
+      <c r="K823" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="824" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A824" s="1">
+        <v>822</v>
+      </c>
+      <c r="B824" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C824" t="s">
+        <v>832</v>
+      </c>
+      <c r="D824" t="s">
+        <v>140</v>
+      </c>
+      <c r="E824" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F824" t="s">
+        <v>8</v>
+      </c>
+      <c r="H824">
+        <v>5</v>
+      </c>
+      <c r="I824">
+        <v>5</v>
+      </c>
+      <c r="J824">
+        <v>4</v>
+      </c>
+      <c r="K824" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="825" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A825" s="1">
+        <v>823</v>
+      </c>
+      <c r="B825" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C825" t="s">
+        <v>832</v>
+      </c>
+      <c r="D825" t="s">
+        <v>140</v>
+      </c>
+      <c r="E825" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F825" t="s">
+        <v>8</v>
+      </c>
+      <c r="H825">
+        <v>6</v>
+      </c>
+      <c r="I825">
+        <v>5</v>
+      </c>
+      <c r="J825">
+        <v>5</v>
+      </c>
+      <c r="K825" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="826" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A826" s="1">
+        <v>824</v>
+      </c>
+      <c r="B826" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C826" t="s">
+        <v>832</v>
+      </c>
+      <c r="D826" t="s">
+        <v>140</v>
+      </c>
+      <c r="E826" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F826" t="s">
+        <v>8</v>
+      </c>
+      <c r="H826">
+        <v>6</v>
+      </c>
+      <c r="I826">
+        <v>3</v>
+      </c>
+      <c r="J826">
+        <v>5</v>
+      </c>
+      <c r="K826" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="827" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A827" s="1">
+        <v>825</v>
+      </c>
+      <c r="B827" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C827" t="s">
+        <v>832</v>
+      </c>
+      <c r="D827" t="s">
+        <v>140</v>
+      </c>
+      <c r="E827" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F827" t="s">
+        <v>8</v>
+      </c>
+      <c r="H827">
+        <v>6</v>
+      </c>
+      <c r="I827">
+        <v>6</v>
+      </c>
+      <c r="J827">
+        <v>5</v>
+      </c>
+      <c r="K827" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="828" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A828" s="1">
+        <v>826</v>
+      </c>
+      <c r="B828" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C828" t="s">
+        <v>832</v>
+      </c>
+      <c r="D828" t="s">
+        <v>140</v>
+      </c>
+      <c r="E828" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F828" t="s">
+        <v>8</v>
+      </c>
+      <c r="H828">
+        <v>10</v>
+      </c>
+      <c r="I828">
+        <v>8</v>
+      </c>
+      <c r="J828">
+        <v>8</v>
+      </c>
+      <c r="K828" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="829" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A829" s="1">
+        <v>827</v>
+      </c>
+      <c r="B829" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C829" t="s">
+        <v>832</v>
+      </c>
+      <c r="D829" t="s">
+        <v>140</v>
+      </c>
+      <c r="E829" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F829" t="s">
+        <v>16</v>
+      </c>
+      <c r="H829">
+        <v>3</v>
+      </c>
+      <c r="I829">
+        <v>3</v>
+      </c>
+      <c r="J829">
+        <v>4</v>
+      </c>
+      <c r="K829" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="830" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A830" s="1">
+        <v>828</v>
+      </c>
+      <c r="B830" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C830" t="s">
+        <v>832</v>
+      </c>
+      <c r="D830" t="s">
+        <v>140</v>
+      </c>
+      <c r="E830" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F830" t="s">
+        <v>16</v>
+      </c>
+      <c r="H830">
+        <v>3</v>
+      </c>
+      <c r="I830">
+        <v>3</v>
+      </c>
+      <c r="J830">
+        <v>4</v>
+      </c>
+      <c r="K830" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="831" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A831" s="1">
+        <v>829</v>
+      </c>
+      <c r="B831" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C831" t="s">
+        <v>832</v>
+      </c>
+      <c r="D831" t="s">
+        <v>140</v>
+      </c>
+      <c r="E831" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F831" t="s">
+        <v>16</v>
+      </c>
+      <c r="H831">
+        <v>4</v>
+      </c>
+      <c r="I831">
+        <v>4</v>
+      </c>
+      <c r="J831">
+        <v>4</v>
+      </c>
+      <c r="K831" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="832" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A832" s="1">
+        <v>830</v>
+      </c>
+      <c r="B832" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C832" t="s">
+        <v>832</v>
+      </c>
+      <c r="D832" t="s">
+        <v>140</v>
+      </c>
+      <c r="E832" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F832" t="s">
+        <v>16</v>
+      </c>
+      <c r="H832">
+        <v>5</v>
+      </c>
+      <c r="I832">
+        <v>4</v>
+      </c>
+      <c r="J832">
+        <v>5</v>
+      </c>
+      <c r="K832" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="833" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A833" s="1">
+        <v>831</v>
+      </c>
+      <c r="B833" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C833" t="s">
+        <v>832</v>
+      </c>
+      <c r="D833" t="s">
+        <v>140</v>
+      </c>
+      <c r="E833" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F833" t="s">
+        <v>16</v>
+      </c>
+      <c r="H833">
+        <v>6</v>
+      </c>
+      <c r="I833">
+        <v>3</v>
+      </c>
+      <c r="J833">
+        <v>9</v>
+      </c>
+      <c r="K833" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="834" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A834" s="1">
+        <v>832</v>
+      </c>
+      <c r="B834" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C834" t="s">
+        <v>832</v>
+      </c>
+      <c r="D834" t="s">
+        <v>140</v>
+      </c>
+      <c r="E834" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F834" t="s">
+        <v>16</v>
+      </c>
+      <c r="H834">
+        <v>6</v>
+      </c>
+      <c r="I834">
+        <v>6</v>
+      </c>
+      <c r="J834">
+        <v>3</v>
+      </c>
+      <c r="K834" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="835" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A835" s="1">
+        <v>833</v>
+      </c>
+      <c r="B835" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C835" t="s">
+        <v>832</v>
+      </c>
+      <c r="D835" t="s">
+        <v>140</v>
+      </c>
+      <c r="E835" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F835" t="s">
+        <v>16</v>
+      </c>
+      <c r="H835">
+        <v>6</v>
+      </c>
+      <c r="I835">
+        <v>7</v>
+      </c>
+      <c r="J835">
+        <v>4</v>
+      </c>
+      <c r="K835" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="836" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A836" s="1">
+        <v>834</v>
+      </c>
+      <c r="B836" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C836" t="s">
+        <v>832</v>
+      </c>
+      <c r="D836" t="s">
+        <v>140</v>
+      </c>
+      <c r="E836" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F836" t="s">
+        <v>16</v>
+      </c>
+      <c r="G836" t="s">
+        <v>200</v>
+      </c>
+      <c r="H836">
+        <v>7</v>
+      </c>
+      <c r="I836">
+        <v>6</v>
+      </c>
+      <c r="J836">
+        <v>6</v>
+      </c>
+      <c r="K836" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="837" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A837" s="1">
+        <v>835</v>
+      </c>
+      <c r="B837" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C837" t="s">
+        <v>832</v>
+      </c>
+      <c r="D837" t="s">
+        <v>140</v>
+      </c>
+      <c r="E837" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F837" t="s">
+        <v>16</v>
+      </c>
+      <c r="G837" t="s">
+        <v>148</v>
+      </c>
+      <c r="H837">
+        <v>7</v>
+      </c>
+      <c r="I837">
+        <v>4</v>
+      </c>
+      <c r="J837">
+        <v>6</v>
+      </c>
+      <c r="K837" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="838" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A838" s="1">
+        <v>836</v>
+      </c>
+      <c r="B838" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C838" t="s">
+        <v>832</v>
+      </c>
+      <c r="D838" t="s">
+        <v>140</v>
+      </c>
+      <c r="E838" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F838" t="s">
+        <v>16</v>
+      </c>
+      <c r="H838">
+        <v>9</v>
+      </c>
+      <c r="I838">
+        <v>10</v>
+      </c>
+      <c r="J838">
+        <v>10</v>
+      </c>
+      <c r="K838" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="839" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A839" s="1">
+        <v>837</v>
+      </c>
+      <c r="B839" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C839" t="s">
+        <v>832</v>
+      </c>
+      <c r="D839" t="s">
+        <v>1</v>
+      </c>
+      <c r="E839" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F839" t="s">
+        <v>5</v>
+      </c>
+      <c r="H839">
+        <v>2</v>
+      </c>
+      <c r="I839">
+        <v>2</v>
+      </c>
+      <c r="J839">
+        <v>1</v>
+      </c>
+      <c r="K839" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="840" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A840" s="1">
+        <v>838</v>
+      </c>
+      <c r="B840" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C840" t="s">
+        <v>832</v>
+      </c>
+      <c r="D840" t="s">
+        <v>1</v>
+      </c>
+      <c r="E840" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F840" t="s">
+        <v>5</v>
+      </c>
+      <c r="H840">
+        <v>4</v>
+      </c>
+      <c r="I840">
+        <v>4</v>
+      </c>
+      <c r="J840">
+        <v>4</v>
+      </c>
+      <c r="K840" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="841" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A841" s="1">
+        <v>839</v>
+      </c>
+      <c r="B841" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C841" t="s">
+        <v>832</v>
+      </c>
+      <c r="D841" t="s">
+        <v>1</v>
+      </c>
+      <c r="E841" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F841" t="s">
+        <v>2</v>
+      </c>
+      <c r="H841">
+        <v>2</v>
+      </c>
+      <c r="I841">
+        <v>2</v>
+      </c>
+      <c r="J841">
+        <v>3</v>
+      </c>
+      <c r="K841" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="842" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A842" s="1">
+        <v>840</v>
+      </c>
+      <c r="B842" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C842" t="s">
+        <v>832</v>
+      </c>
+      <c r="D842" t="s">
+        <v>1</v>
+      </c>
+      <c r="E842" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F842" t="s">
+        <v>2</v>
+      </c>
+      <c r="G842" t="s">
+        <v>20</v>
+      </c>
+      <c r="H842">
+        <v>4</v>
+      </c>
+      <c r="I842">
+        <v>5</v>
+      </c>
+      <c r="J842">
+        <v>4</v>
+      </c>
+      <c r="K842" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="843" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A843" s="1">
+        <v>841</v>
+      </c>
+      <c r="B843" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C843" t="s">
+        <v>832</v>
+      </c>
+      <c r="D843" t="s">
+        <v>1</v>
+      </c>
+      <c r="E843" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F843" t="s">
+        <v>2</v>
+      </c>
+      <c r="H843">
+        <v>7</v>
+      </c>
+      <c r="I843">
+        <v>6</v>
+      </c>
+      <c r="J843">
+        <v>6</v>
+      </c>
+      <c r="K843" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="844" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A844" s="1">
+        <v>842</v>
+      </c>
+      <c r="B844" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C844" t="s">
+        <v>832</v>
+      </c>
+      <c r="D844" t="s">
+        <v>1</v>
+      </c>
+      <c r="E844" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F844" t="s">
+        <v>16</v>
+      </c>
+      <c r="H844">
+        <v>9</v>
+      </c>
+      <c r="I844">
+        <v>5</v>
+      </c>
+      <c r="J844">
+        <v>5</v>
+      </c>
+      <c r="K844" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="845" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A845" s="1">
+        <v>843</v>
+      </c>
+      <c r="B845" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C845" t="s">
+        <v>832</v>
+      </c>
+      <c r="D845" t="s">
+        <v>19</v>
+      </c>
+      <c r="E845" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F845" t="s">
+        <v>5</v>
+      </c>
+      <c r="H845">
+        <v>1</v>
+      </c>
+      <c r="I845">
+        <v>2</v>
+      </c>
+      <c r="J845">
+        <v>1</v>
+      </c>
+      <c r="K845" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="846" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A846" s="1">
+        <v>844</v>
+      </c>
+      <c r="B846" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C846" t="s">
+        <v>832</v>
+      </c>
+      <c r="D846" t="s">
+        <v>19</v>
+      </c>
+      <c r="E846" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F846" t="s">
+        <v>5</v>
+      </c>
+      <c r="G846" t="s">
+        <v>20</v>
+      </c>
+      <c r="H846">
+        <v>2</v>
+      </c>
+      <c r="I846">
+        <v>3</v>
+      </c>
+      <c r="J846">
+        <v>2</v>
+      </c>
+      <c r="K846" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="847" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A847" s="1">
+        <v>845</v>
+      </c>
+      <c r="B847" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C847" t="s">
+        <v>832</v>
+      </c>
+      <c r="D847" t="s">
+        <v>19</v>
+      </c>
+      <c r="E847" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F847" t="s">
+        <v>2</v>
+      </c>
+      <c r="H847">
+        <v>5</v>
+      </c>
+      <c r="I847">
+        <v>3</v>
+      </c>
+      <c r="J847">
+        <v>3</v>
+      </c>
+      <c r="K847" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="848" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A848" s="1">
+        <v>846</v>
+      </c>
+      <c r="B848" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C848" t="s">
+        <v>832</v>
+      </c>
+      <c r="D848" t="s">
+        <v>19</v>
+      </c>
+      <c r="E848" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F848" t="s">
+        <v>8</v>
+      </c>
+      <c r="H848">
+        <v>3</v>
+      </c>
+      <c r="I848">
+        <v>4</v>
+      </c>
+      <c r="J848">
+        <v>2</v>
+      </c>
+      <c r="K848" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="849" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A849" s="1">
+        <v>847</v>
+      </c>
+      <c r="B849" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C849" t="s">
+        <v>832</v>
+      </c>
+      <c r="D849" t="s">
+        <v>19</v>
+      </c>
+      <c r="E849" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F849" t="s">
+        <v>16</v>
+      </c>
+      <c r="G849" t="s">
+        <v>20</v>
+      </c>
+      <c r="H849">
+        <v>3</v>
+      </c>
+      <c r="I849">
+        <v>4</v>
+      </c>
+      <c r="J849">
+        <v>2</v>
+      </c>
+      <c r="K849" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="850" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A850" s="1">
+        <v>848</v>
+      </c>
+      <c r="B850" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C850" t="s">
+        <v>832</v>
+      </c>
+      <c r="D850" t="s">
+        <v>19</v>
+      </c>
+      <c r="E850" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F850" t="s">
+        <v>16</v>
+      </c>
+      <c r="G850" t="s">
+        <v>20</v>
+      </c>
+      <c r="H850">
+        <v>7</v>
+      </c>
+      <c r="I850">
+        <v>4</v>
+      </c>
+      <c r="J850">
+        <v>2</v>
+      </c>
+      <c r="K850" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="851" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A851" s="1">
+        <v>849</v>
+      </c>
+      <c r="B851" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C851" t="s">
+        <v>832</v>
+      </c>
+      <c r="D851" t="s">
+        <v>35</v>
+      </c>
+      <c r="E851" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F851" t="s">
+        <v>5</v>
+      </c>
+      <c r="H851">
+        <v>3</v>
+      </c>
+      <c r="I851">
+        <v>3</v>
+      </c>
+      <c r="J851">
+        <v>4</v>
+      </c>
+      <c r="K851" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="852" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A852" s="1">
+        <v>850</v>
+      </c>
+      <c r="B852" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C852" t="s">
+        <v>832</v>
+      </c>
+      <c r="D852" t="s">
+        <v>35</v>
+      </c>
+      <c r="E852" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F852" t="s">
+        <v>5</v>
+      </c>
+      <c r="H852">
+        <v>4</v>
+      </c>
+      <c r="I852">
+        <v>3</v>
+      </c>
+      <c r="J852">
+        <v>5</v>
+      </c>
+      <c r="K852" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="853" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A853" s="1">
+        <v>851</v>
+      </c>
+      <c r="B853" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C853" t="s">
+        <v>832</v>
+      </c>
+      <c r="D853" t="s">
+        <v>35</v>
+      </c>
+      <c r="E853" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F853" t="s">
+        <v>2</v>
+      </c>
+      <c r="H853">
+        <v>2</v>
+      </c>
+      <c r="I853">
+        <v>3</v>
+      </c>
+      <c r="J853">
+        <v>2</v>
+      </c>
+      <c r="K853" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="854" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A854" s="1">
+        <v>852</v>
+      </c>
+      <c r="B854" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C854" t="s">
+        <v>832</v>
+      </c>
+      <c r="D854" t="s">
+        <v>35</v>
+      </c>
+      <c r="E854" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F854" t="s">
+        <v>8</v>
+      </c>
+      <c r="G854" t="s">
+        <v>200</v>
+      </c>
+      <c r="H854">
+        <v>6</v>
+      </c>
+      <c r="I854">
+        <v>6</v>
+      </c>
+      <c r="J854">
+        <v>6</v>
+      </c>
+      <c r="K854" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="855" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A855" s="1">
+        <v>853</v>
+      </c>
+      <c r="B855" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C855" t="s">
+        <v>832</v>
+      </c>
+      <c r="D855" t="s">
+        <v>35</v>
+      </c>
+      <c r="E855" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F855" t="s">
+        <v>16</v>
+      </c>
+      <c r="H855">
+        <v>8</v>
+      </c>
+      <c r="I855">
+        <v>7</v>
+      </c>
+      <c r="J855">
+        <v>7</v>
+      </c>
+      <c r="K855" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="856" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A856" s="1">
+        <v>854</v>
+      </c>
+      <c r="B856" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C856" t="s">
+        <v>832</v>
+      </c>
+      <c r="D856" t="s">
+        <v>48</v>
+      </c>
+      <c r="E856" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F856" t="s">
+        <v>5</v>
+      </c>
+      <c r="H856">
+        <v>3</v>
+      </c>
+      <c r="I856">
+        <v>2</v>
+      </c>
+      <c r="J856">
+        <v>4</v>
+      </c>
+      <c r="K856" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="857" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A857" s="1">
+        <v>855</v>
+      </c>
+      <c r="B857" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C857" t="s">
+        <v>832</v>
+      </c>
+      <c r="D857" t="s">
+        <v>48</v>
+      </c>
+      <c r="E857" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F857" t="s">
+        <v>5</v>
+      </c>
+      <c r="G857" t="s">
+        <v>154</v>
+      </c>
+      <c r="H857">
+        <v>4</v>
+      </c>
+      <c r="I857">
+        <v>3</v>
+      </c>
+      <c r="J857">
+        <v>4</v>
+      </c>
+      <c r="K857" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="858" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A858" s="1">
+        <v>856</v>
+      </c>
+      <c r="B858" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C858" t="s">
+        <v>832</v>
+      </c>
+      <c r="D858" t="s">
+        <v>48</v>
+      </c>
+      <c r="E858" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F858" t="s">
+        <v>2</v>
+      </c>
+      <c r="H858">
+        <v>5</v>
+      </c>
+      <c r="I858">
+        <v>5</v>
+      </c>
+      <c r="J858">
+        <v>5</v>
+      </c>
+      <c r="K858" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="859" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A859" s="1">
+        <v>857</v>
+      </c>
+      <c r="B859" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C859" t="s">
+        <v>832</v>
+      </c>
+      <c r="D859" t="s">
+        <v>48</v>
+      </c>
+      <c r="E859" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F859" t="s">
+        <v>8</v>
+      </c>
+      <c r="H859">
+        <v>6</v>
+      </c>
+      <c r="I859">
+        <v>6</v>
+      </c>
+      <c r="J859">
+        <v>6</v>
+      </c>
+      <c r="K859" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="860" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A860" s="1">
+        <v>858</v>
+      </c>
+      <c r="B860" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C860" t="s">
+        <v>832</v>
+      </c>
+      <c r="D860" t="s">
+        <v>48</v>
+      </c>
+      <c r="E860" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F860" t="s">
+        <v>16</v>
+      </c>
+      <c r="H860">
+        <v>7</v>
+      </c>
+      <c r="I860">
+        <v>3</v>
+      </c>
+      <c r="J860">
+        <v>7</v>
+      </c>
+      <c r="K860" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="861" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A861" s="1">
+        <v>859</v>
+      </c>
+      <c r="B861" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C861" t="s">
+        <v>832</v>
+      </c>
+      <c r="D861" t="s">
+        <v>57</v>
+      </c>
+      <c r="E861" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F861" t="s">
+        <v>5</v>
+      </c>
+      <c r="H861">
+        <v>4</v>
+      </c>
+      <c r="I861">
+        <v>3</v>
+      </c>
+      <c r="J861">
+        <v>5</v>
+      </c>
+      <c r="K861" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="862" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A862" s="1">
+        <v>860</v>
+      </c>
+      <c r="B862" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C862" t="s">
+        <v>832</v>
+      </c>
+      <c r="D862" t="s">
+        <v>57</v>
+      </c>
+      <c r="E862" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F862" t="s">
+        <v>2</v>
+      </c>
+      <c r="H862">
+        <v>2</v>
+      </c>
+      <c r="I862">
+        <v>1</v>
+      </c>
+      <c r="J862">
+        <v>4</v>
+      </c>
+      <c r="K862" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="863" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A863" s="1">
+        <v>861</v>
+      </c>
+      <c r="B863" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C863" t="s">
+        <v>832</v>
+      </c>
+      <c r="D863" t="s">
+        <v>57</v>
+      </c>
+      <c r="E863" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F863" t="s">
+        <v>2</v>
+      </c>
+      <c r="H863">
+        <v>4</v>
+      </c>
+      <c r="I863">
+        <v>5</v>
+      </c>
+      <c r="J863">
+        <v>4</v>
+      </c>
+      <c r="K863" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="864" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A864" s="1">
+        <v>862</v>
+      </c>
+      <c r="B864" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C864" t="s">
+        <v>832</v>
+      </c>
+      <c r="D864" t="s">
+        <v>57</v>
+      </c>
+      <c r="E864" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F864" t="s">
+        <v>8</v>
+      </c>
+      <c r="H864">
+        <v>3</v>
+      </c>
+      <c r="I864">
+        <v>3</v>
+      </c>
+      <c r="J864">
+        <v>3</v>
+      </c>
+      <c r="K864" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="865" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A865" s="1">
+        <v>863</v>
+      </c>
+      <c r="B865" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C865" t="s">
+        <v>832</v>
+      </c>
+      <c r="D865" t="s">
+        <v>57</v>
+      </c>
+      <c r="E865" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F865" t="s">
+        <v>16</v>
+      </c>
+      <c r="H865">
+        <v>7</v>
+      </c>
+      <c r="I865">
+        <v>5</v>
+      </c>
+      <c r="J865">
+        <v>4</v>
+      </c>
+      <c r="K865" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="866" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A866" s="1">
+        <v>864</v>
+      </c>
+      <c r="B866" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C866" t="s">
+        <v>832</v>
+      </c>
+      <c r="D866" t="s">
+        <v>72</v>
+      </c>
+      <c r="E866" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F866" t="s">
+        <v>5</v>
+      </c>
+      <c r="G866" t="s">
+        <v>148</v>
+      </c>
+      <c r="H866">
+        <v>1</v>
+      </c>
+      <c r="I866">
+        <v>2</v>
+      </c>
+      <c r="J866">
+        <v>1</v>
+      </c>
+      <c r="K866" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="867" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A867" s="1">
+        <v>865</v>
+      </c>
+      <c r="B867" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C867" t="s">
+        <v>832</v>
+      </c>
+      <c r="D867" t="s">
+        <v>72</v>
+      </c>
+      <c r="E867" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F867" t="s">
+        <v>5</v>
+      </c>
+      <c r="H867">
+        <v>2</v>
+      </c>
+      <c r="I867">
+        <v>3</v>
+      </c>
+      <c r="J867">
+        <v>2</v>
+      </c>
+      <c r="K867" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="868" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A868" s="1">
+        <v>866</v>
+      </c>
+      <c r="B868" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C868" t="s">
+        <v>832</v>
+      </c>
+      <c r="D868" t="s">
+        <v>72</v>
+      </c>
+      <c r="E868" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F868" t="s">
+        <v>5</v>
+      </c>
+      <c r="H868">
+        <v>5</v>
+      </c>
+      <c r="I868">
+        <v>3</v>
+      </c>
+      <c r="J868">
+        <v>7</v>
+      </c>
+      <c r="K868" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="869" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A869" s="1">
+        <v>867</v>
+      </c>
+      <c r="B869" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C869" t="s">
+        <v>832</v>
+      </c>
+      <c r="D869" t="s">
+        <v>72</v>
+      </c>
+      <c r="E869" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F869" t="s">
+        <v>2</v>
+      </c>
+      <c r="H869">
+        <v>2</v>
+      </c>
+      <c r="I869">
+        <v>2</v>
+      </c>
+      <c r="J869">
+        <v>2</v>
+      </c>
+      <c r="K869" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="870" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A870" s="1">
+        <v>868</v>
+      </c>
+      <c r="B870" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C870" t="s">
+        <v>832</v>
+      </c>
+      <c r="D870" t="s">
+        <v>72</v>
+      </c>
+      <c r="E870" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F870" t="s">
+        <v>2</v>
+      </c>
+      <c r="H870">
+        <v>3</v>
+      </c>
+      <c r="I870">
+        <v>4</v>
+      </c>
+      <c r="J870">
+        <v>3</v>
+      </c>
+      <c r="K870" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="871" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A871" s="1">
+        <v>869</v>
+      </c>
+      <c r="B871" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C871" t="s">
+        <v>832</v>
+      </c>
+      <c r="D871" t="s">
+        <v>72</v>
+      </c>
+      <c r="E871" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F871" t="s">
+        <v>16</v>
+      </c>
+      <c r="H871">
+        <v>9</v>
+      </c>
+      <c r="I871">
+        <v>8</v>
+      </c>
+      <c r="J871">
+        <v>4</v>
+      </c>
+      <c r="K871" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="872" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A872" s="1">
+        <v>870</v>
+      </c>
+      <c r="B872" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C872" t="s">
+        <v>832</v>
+      </c>
+      <c r="D872" t="s">
+        <v>85</v>
+      </c>
+      <c r="E872" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F872" t="s">
+        <v>5</v>
+      </c>
+      <c r="G872" t="s">
+        <v>88</v>
+      </c>
+      <c r="H872">
+        <v>2</v>
+      </c>
+      <c r="I872">
+        <v>3</v>
+      </c>
+      <c r="J872">
+        <v>4</v>
+      </c>
+      <c r="K872" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="873" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A873" s="1">
+        <v>871</v>
+      </c>
+      <c r="B873" t="s">
+        <v>1574</v>
+      </c>
+      <c r="C873" t="s">
+        <v>832</v>
+      </c>
+      <c r="D873" t="s">
+        <v>85</v>
+      </c>
+      <c r="E873" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F873" t="s">
+        <v>5</v>
+      </c>
+      <c r="H873">
+        <v>3</v>
+      </c>
+      <c r="I873">
+        <v>3</v>
+      </c>
+      <c r="J873">
+        <v>2</v>
+      </c>
+      <c r="K873" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="874" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A874" s="1">
+        <v>872</v>
+      </c>
+      <c r="B874" t="s">
+        <v>1576</v>
+      </c>
+      <c r="C874" t="s">
+        <v>832</v>
+      </c>
+      <c r="D874" t="s">
+        <v>85</v>
+      </c>
+      <c r="E874" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F874" t="s">
+        <v>2</v>
+      </c>
+      <c r="H874">
+        <v>4</v>
+      </c>
+      <c r="I874">
+        <v>4</v>
+      </c>
+      <c r="J874">
+        <v>4</v>
+      </c>
+      <c r="K874" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="875" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A875" s="1">
+        <v>873</v>
+      </c>
+      <c r="B875" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C875" t="s">
+        <v>832</v>
+      </c>
+      <c r="D875" t="s">
+        <v>85</v>
+      </c>
+      <c r="E875" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F875" t="s">
+        <v>2</v>
+      </c>
+      <c r="H875">
+        <v>5</v>
+      </c>
+      <c r="I875">
+        <v>3</v>
+      </c>
+      <c r="J875">
+        <v>6</v>
+      </c>
+      <c r="K875" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="876" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A876" s="1">
+        <v>874</v>
+      </c>
+      <c r="B876" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C876" t="s">
+        <v>832</v>
+      </c>
+      <c r="D876" t="s">
+        <v>85</v>
+      </c>
+      <c r="E876" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F876" t="s">
+        <v>16</v>
+      </c>
+      <c r="H876">
+        <v>6</v>
+      </c>
+      <c r="I876">
+        <v>4</v>
+      </c>
+      <c r="J876">
+        <v>4</v>
+      </c>
+      <c r="K876" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="877" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A877" s="1">
+        <v>875</v>
+      </c>
+      <c r="B877" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C877" t="s">
+        <v>832</v>
+      </c>
+      <c r="D877" t="s">
+        <v>103</v>
+      </c>
+      <c r="E877" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F877" t="s">
+        <v>5</v>
+      </c>
+      <c r="G877" t="s">
+        <v>104</v>
+      </c>
+      <c r="H877">
+        <v>2</v>
+      </c>
+      <c r="I877">
+        <v>4</v>
+      </c>
+      <c r="J877">
+        <v>3</v>
+      </c>
+      <c r="K877" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="878" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A878" s="1">
+        <v>876</v>
+      </c>
+      <c r="B878" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C878" t="s">
+        <v>832</v>
+      </c>
+      <c r="D878" t="s">
+        <v>103</v>
+      </c>
+      <c r="E878" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F878" t="s">
+        <v>5</v>
+      </c>
+      <c r="G878" t="s">
+        <v>104</v>
+      </c>
+      <c r="H878">
+        <v>7</v>
+      </c>
+      <c r="I878">
+        <v>6</v>
+      </c>
+      <c r="J878">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="879" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A879" s="1">
+        <v>877</v>
+      </c>
+      <c r="B879" t="s">
+        <v>1585</v>
+      </c>
+      <c r="C879" t="s">
+        <v>832</v>
+      </c>
+      <c r="D879" t="s">
+        <v>103</v>
+      </c>
+      <c r="E879" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F879" t="s">
+        <v>2</v>
+      </c>
+      <c r="G879" t="s">
+        <v>104</v>
+      </c>
+      <c r="H879">
+        <v>2</v>
+      </c>
+      <c r="I879">
+        <v>3</v>
+      </c>
+      <c r="J879">
+        <v>2</v>
+      </c>
+      <c r="K879" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="880" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A880" s="1">
+        <v>878</v>
+      </c>
+      <c r="B880" t="s">
+        <v>1587</v>
+      </c>
+      <c r="C880" t="s">
+        <v>832</v>
+      </c>
+      <c r="D880" t="s">
+        <v>103</v>
+      </c>
+      <c r="E880" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F880" t="s">
+        <v>2</v>
+      </c>
+      <c r="G880" t="s">
+        <v>104</v>
+      </c>
+      <c r="H880">
+        <v>6</v>
+      </c>
+      <c r="I880">
+        <v>5</v>
+      </c>
+      <c r="J880">
+        <v>4</v>
+      </c>
+      <c r="K880" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="881" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A881" s="1">
+        <v>879</v>
+      </c>
+      <c r="B881" t="s">
+        <v>1589</v>
+      </c>
+      <c r="C881" t="s">
+        <v>832</v>
+      </c>
+      <c r="D881" t="s">
+        <v>103</v>
+      </c>
+      <c r="E881" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F881" t="s">
+        <v>8</v>
+      </c>
+      <c r="G881" t="s">
+        <v>104</v>
+      </c>
+      <c r="H881">
+        <v>4</v>
+      </c>
+      <c r="I881">
+        <v>1</v>
+      </c>
+      <c r="J881">
+        <v>1</v>
+      </c>
+      <c r="K881" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="882" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A882" s="1">
+        <v>880</v>
+      </c>
+      <c r="B882" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C882" t="s">
+        <v>832</v>
+      </c>
+      <c r="D882" t="s">
+        <v>103</v>
+      </c>
+      <c r="E882" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F882" t="s">
+        <v>16</v>
+      </c>
+      <c r="H882">
+        <v>6</v>
+      </c>
+      <c r="I882">
+        <v>4</v>
+      </c>
+      <c r="J882">
+        <v>4</v>
+      </c>
+      <c r="K882" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="883" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A883" s="1">
+        <v>881</v>
+      </c>
+      <c r="B883" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C883" t="s">
+        <v>832</v>
+      </c>
+      <c r="D883" t="s">
+        <v>126</v>
+      </c>
+      <c r="E883" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F883" t="s">
+        <v>5</v>
+      </c>
+      <c r="H883">
+        <v>3</v>
+      </c>
+      <c r="I883">
+        <v>3</v>
+      </c>
+      <c r="J883">
+        <v>3</v>
+      </c>
+      <c r="K883" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="884" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A884" s="1">
+        <v>882</v>
+      </c>
+      <c r="B884" t="s">
+        <v>1595</v>
+      </c>
+      <c r="C884" t="s">
+        <v>832</v>
+      </c>
+      <c r="D884" t="s">
+        <v>126</v>
+      </c>
+      <c r="E884" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F884" t="s">
+        <v>2</v>
+      </c>
+      <c r="H884">
+        <v>2</v>
+      </c>
+      <c r="I884">
+        <v>2</v>
+      </c>
+      <c r="J884">
+        <v>3</v>
+      </c>
+      <c r="K884" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="885" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A885" s="1">
+        <v>883</v>
+      </c>
+      <c r="B885" t="s">
+        <v>1597</v>
+      </c>
+      <c r="C885" t="s">
+        <v>832</v>
+      </c>
+      <c r="D885" t="s">
+        <v>126</v>
+      </c>
+      <c r="E885" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F885" t="s">
+        <v>2</v>
+      </c>
+      <c r="H885">
+        <v>2</v>
+      </c>
+      <c r="I885">
+        <v>3</v>
+      </c>
+      <c r="J885">
+        <v>2</v>
+      </c>
+      <c r="K885" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="886" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A886" s="1">
+        <v>884</v>
+      </c>
+      <c r="B886" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C886" t="s">
+        <v>832</v>
+      </c>
+      <c r="D886" t="s">
+        <v>126</v>
+      </c>
+      <c r="E886" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F886" t="s">
+        <v>8</v>
+      </c>
+      <c r="H886">
+        <v>4</v>
+      </c>
+      <c r="I886">
+        <v>5</v>
+      </c>
+      <c r="J886">
+        <v>3</v>
+      </c>
+      <c r="K886" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="887" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A887" s="1">
+        <v>885</v>
+      </c>
+      <c r="B887" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C887" t="s">
+        <v>832</v>
+      </c>
+      <c r="D887" t="s">
+        <v>126</v>
+      </c>
+      <c r="E887" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F887" t="s">
+        <v>8</v>
+      </c>
+      <c r="H887">
+        <v>6</v>
+      </c>
+      <c r="I887">
+        <v>6</v>
+      </c>
+      <c r="J887">
+        <v>7</v>
+      </c>
+      <c r="K887" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="888" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A888" s="1">
+        <v>886</v>
+      </c>
+      <c r="B888" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C888" t="s">
+        <v>832</v>
+      </c>
+      <c r="D888" t="s">
+        <v>126</v>
+      </c>
+      <c r="E888" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F888" t="s">
+        <v>16</v>
+      </c>
+      <c r="H888">
+        <v>10</v>
+      </c>
+      <c r="I888">
+        <v>7</v>
+      </c>
+      <c r="J888">
+        <v>7</v>
+      </c>
+      <c r="K888" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="889" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A889" s="1">
+        <v>887</v>
+      </c>
+      <c r="B889" t="s">
+        <v>1605</v>
+      </c>
+      <c r="C889" t="s">
+        <v>832</v>
+      </c>
+      <c r="E889" t="s">
+        <v>1606</v>
+      </c>
+      <c r="F889" t="s">
+        <v>16</v>
+      </c>
+      <c r="G889" t="s">
+        <v>200</v>
+      </c>
+      <c r="H889">
+        <v>4</v>
+      </c>
+      <c r="I889">
+        <v>2</v>
+      </c>
+      <c r="J889">
+        <v>8</v>
+      </c>
+      <c r="K889" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="890" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A890" s="1">
+        <v>888</v>
+      </c>
+      <c r="B890" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C890" t="s">
+        <v>832</v>
+      </c>
+      <c r="E890" t="s">
+        <v>1606</v>
+      </c>
+      <c r="F890" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G890" t="s">
+        <v>20</v>
+      </c>
+      <c r="H890">
+        <v>3</v>
+      </c>
+      <c r="I890">
+        <v>2</v>
+      </c>
+      <c r="J890">
+        <v>4</v>
+      </c>
+      <c r="K890" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="891" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A891" s="1">
+        <v>889</v>
+      </c>
+      <c r="B891" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C891" t="s">
+        <v>832</v>
+      </c>
+      <c r="E891" t="s">
+        <v>1606</v>
+      </c>
+      <c r="F891" t="s">
+        <v>16</v>
+      </c>
+      <c r="H891">
+        <v>4</v>
+      </c>
+      <c r="I891">
+        <v>4</v>
+      </c>
+      <c r="J891">
+        <v>8</v>
+      </c>
+      <c r="K891" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="892" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A892" s="1">
+        <v>890</v>
+      </c>
+      <c r="B892" t="s">
+        <v>1612</v>
+      </c>
+      <c r="C892" t="s">
+        <v>832</v>
+      </c>
+      <c r="E892" t="s">
+        <v>1606</v>
+      </c>
+      <c r="F892" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G892" t="s">
+        <v>200</v>
+      </c>
+      <c r="H892">
+        <v>5</v>
+      </c>
+      <c r="I892">
+        <v>4</v>
+      </c>
+      <c r="J892">
+        <v>6</v>
+      </c>
+      <c r="K892" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="893" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A893" s="1">
+        <v>891</v>
+      </c>
+      <c r="B893" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C893" t="s">
+        <v>832</v>
+      </c>
+      <c r="E893" t="s">
+        <v>1606</v>
+      </c>
+      <c r="F893" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G893" t="s">
+        <v>200</v>
+      </c>
+      <c r="H893">
+        <v>6</v>
+      </c>
+      <c r="I893">
+        <v>6</v>
+      </c>
+      <c r="J893">
+        <v>6</v>
+      </c>
+      <c r="K893" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="894" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A894" s="1">
+        <v>892</v>
+      </c>
+      <c r="B894" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C894" t="s">
+        <v>832</v>
+      </c>
+      <c r="E894" t="s">
+        <v>1606</v>
+      </c>
+      <c r="F894" t="s">
+        <v>16</v>
+      </c>
+      <c r="H894">
+        <v>5</v>
+      </c>
+      <c r="I894">
+        <v>4</v>
+      </c>
+      <c r="J894">
+        <v>8</v>
+      </c>
+      <c r="K894" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="895" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A895" s="1">
+        <v>893</v>
+      </c>
+      <c r="B895" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C895" t="s">
+        <v>832</v>
+      </c>
+      <c r="E895" t="s">
+        <v>1606</v>
+      </c>
+      <c r="F895" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H895">
+        <v>2</v>
+      </c>
+      <c r="I895">
+        <v>2</v>
+      </c>
+      <c r="J895">
+        <v>3</v>
+      </c>
+      <c r="K895" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="896" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A896" s="1">
+        <v>894</v>
+      </c>
+      <c r="B896" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C896" t="s">
+        <v>832</v>
+      </c>
+      <c r="E896" t="s">
+        <v>1606</v>
+      </c>
+      <c r="F896" t="s">
+        <v>16</v>
+      </c>
+      <c r="H896">
+        <v>50</v>
+      </c>
+      <c r="I896">
+        <v>20</v>
+      </c>
+      <c r="J896">
+        <v>20</v>
+      </c>
+      <c r="K896" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="897" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A897" s="1">
+        <v>895</v>
+      </c>
+      <c r="B897" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C897" t="s">
+        <v>832</v>
+      </c>
+      <c r="E897" t="s">
+        <v>1606</v>
+      </c>
+      <c r="F897" t="s">
+        <v>16</v>
+      </c>
+      <c r="H897">
+        <v>3</v>
+      </c>
+      <c r="I897">
+        <v>4</v>
+      </c>
+      <c r="J897">
+        <v>5</v>
+      </c>
+      <c r="K897" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="898" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A898" s="1">
+        <v>896</v>
+      </c>
+      <c r="B898" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C898" t="s">
+        <v>832</v>
+      </c>
+      <c r="E898" t="s">
+        <v>1606</v>
+      </c>
+      <c r="F898" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H898">
+        <v>2</v>
+      </c>
+      <c r="I898">
+        <v>6</v>
+      </c>
+      <c r="J898">
+        <v>6</v>
+      </c>
+      <c r="K898" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="899" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A899" s="1">
+        <v>897</v>
+      </c>
+      <c r="B899" t="s">
+        <v>1621</v>
+      </c>
+      <c r="C899" t="s">
+        <v>832</v>
+      </c>
+      <c r="E899" t="s">
+        <v>1606</v>
+      </c>
+      <c r="F899" t="s">
+        <v>16</v>
+      </c>
+      <c r="H899">
+        <v>4</v>
+      </c>
+      <c r="I899">
+        <v>4</v>
+      </c>
+      <c r="J899">
+        <v>7</v>
+      </c>
+      <c r="K899" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="900" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A900" s="1">
+        <v>898</v>
+      </c>
+      <c r="B900" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C900" t="s">
+        <v>832</v>
+      </c>
+      <c r="E900" t="s">
+        <v>1606</v>
+      </c>
+      <c r="F900" t="s">
+        <v>16</v>
+      </c>
+      <c r="H900">
+        <v>3</v>
+      </c>
+      <c r="I900">
+        <v>4</v>
+      </c>
+      <c r="J900">
+        <v>3</v>
+      </c>
+      <c r="K900" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="901" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A901" s="1">
+        <v>899</v>
+      </c>
+      <c r="B901" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C901" t="s">
+        <v>832</v>
+      </c>
+      <c r="E901" t="s">
+        <v>1606</v>
+      </c>
+      <c r="F901" t="s">
+        <v>16</v>
+      </c>
+      <c r="G901" t="s">
+        <v>200</v>
+      </c>
+      <c r="H901">
+        <v>6</v>
+      </c>
+      <c r="I901">
+        <v>4</v>
+      </c>
+      <c r="J901">
+        <v>12</v>
+      </c>
+      <c r="K901" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="902" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A902" s="1">
+        <v>900</v>
+      </c>
+      <c r="B902" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C902" t="s">
+        <v>832</v>
+      </c>
+      <c r="E902" t="s">
+        <v>1606</v>
+      </c>
+      <c r="F902" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H902">
+        <v>3</v>
+      </c>
+      <c r="I902">
+        <v>6</v>
+      </c>
+      <c r="J902">
+        <v>3</v>
+      </c>
+      <c r="K902" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="903" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A903" s="1">
+        <v>901</v>
+      </c>
+      <c r="B903" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C903" t="s">
+        <v>832</v>
+      </c>
+      <c r="E903" t="s">
+        <v>1606</v>
+      </c>
+      <c r="F903" t="s">
+        <v>16</v>
+      </c>
+      <c r="G903" t="s">
+        <v>200</v>
+      </c>
+      <c r="H903">
+        <v>6</v>
+      </c>
+      <c r="I903">
+        <v>7</v>
+      </c>
+      <c r="J903">
+        <v>7</v>
+      </c>
+      <c r="K903" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="904" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A904" s="1">
+        <v>902</v>
+      </c>
+      <c r="B904" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C904" t="s">
+        <v>832</v>
+      </c>
+      <c r="E904" t="s">
+        <v>1606</v>
+      </c>
+      <c r="F904" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H904">
+        <v>2</v>
+      </c>
+      <c r="I904">
+        <v>4</v>
+      </c>
+      <c r="J904">
+        <v>5</v>
+      </c>
+      <c r="K904" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="905" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A905" s="1">
+        <v>903</v>
+      </c>
+      <c r="B905" t="s">
+        <v>1628</v>
+      </c>
+      <c r="C905" t="s">
+        <v>990</v>
+      </c>
+      <c r="D905" t="s">
+        <v>1</v>
+      </c>
+      <c r="E905" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F905" t="s">
+        <v>5</v>
+      </c>
+      <c r="H905">
+        <v>1</v>
+      </c>
+      <c r="K905" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="906" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A906" s="1">
+        <v>904</v>
+      </c>
+      <c r="B906" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C906" t="s">
+        <v>990</v>
+      </c>
+      <c r="D906" t="s">
+        <v>1</v>
+      </c>
+      <c r="E906" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F906" t="s">
+        <v>8</v>
+      </c>
+      <c r="H906">
+        <v>3</v>
+      </c>
+      <c r="K906" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="907" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A907" s="1">
+        <v>905</v>
+      </c>
+      <c r="B907" t="s">
+        <v>1632</v>
+      </c>
+      <c r="C907" t="s">
+        <v>990</v>
+      </c>
+      <c r="D907" t="s">
+        <v>1</v>
+      </c>
+      <c r="E907" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F907" t="s">
+        <v>8</v>
+      </c>
+      <c r="H907">
+        <v>4</v>
+      </c>
+      <c r="K907" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="908" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A908" s="1">
+        <v>906</v>
+      </c>
+      <c r="B908" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C908" t="s">
+        <v>990</v>
+      </c>
+      <c r="D908" t="s">
+        <v>19</v>
+      </c>
+      <c r="E908" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F908" t="s">
+        <v>5</v>
+      </c>
+      <c r="H908">
+        <v>2</v>
+      </c>
+      <c r="K908" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="909" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A909" s="1">
+        <v>907</v>
+      </c>
+      <c r="B909" t="s">
+        <v>1636</v>
+      </c>
+      <c r="C909" t="s">
+        <v>990</v>
+      </c>
+      <c r="D909" t="s">
+        <v>19</v>
+      </c>
+      <c r="E909" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F909" t="s">
+        <v>2</v>
+      </c>
+      <c r="H909">
+        <v>3</v>
+      </c>
+      <c r="K909" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="910" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A910" s="1">
+        <v>908</v>
+      </c>
+      <c r="B910" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C910" t="s">
+        <v>990</v>
+      </c>
+      <c r="D910" t="s">
+        <v>19</v>
+      </c>
+      <c r="E910" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F910" t="s">
+        <v>2</v>
+      </c>
+      <c r="H910">
+        <v>6</v>
+      </c>
+      <c r="K910" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="911" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A911" s="1">
+        <v>909</v>
+      </c>
+      <c r="B911" t="s">
+        <v>1640</v>
+      </c>
+      <c r="C911" t="s">
+        <v>990</v>
+      </c>
+      <c r="D911" t="s">
+        <v>19</v>
+      </c>
+      <c r="E911" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F911" t="s">
+        <v>8</v>
+      </c>
+      <c r="H911">
+        <v>2</v>
+      </c>
+      <c r="K911" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="912" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A912" s="1">
+        <v>910</v>
+      </c>
+      <c r="B912" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C912" t="s">
+        <v>990</v>
+      </c>
+      <c r="D912" t="s">
+        <v>35</v>
+      </c>
+      <c r="E912" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F912" t="s">
+        <v>5</v>
+      </c>
+      <c r="H912">
+        <v>5</v>
+      </c>
+      <c r="K912" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="913" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A913" s="1">
+        <v>911</v>
+      </c>
+      <c r="B913" t="s">
+        <v>1644</v>
+      </c>
+      <c r="C913" t="s">
+        <v>990</v>
+      </c>
+      <c r="D913" t="s">
+        <v>35</v>
+      </c>
+      <c r="E913" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F913" t="s">
+        <v>2</v>
+      </c>
+      <c r="H913">
+        <v>3</v>
+      </c>
+      <c r="K913" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="914" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A914" s="1">
+        <v>912</v>
+      </c>
+      <c r="B914" t="s">
+        <v>1646</v>
+      </c>
+      <c r="C914" t="s">
+        <v>990</v>
+      </c>
+      <c r="D914" t="s">
+        <v>35</v>
+      </c>
+      <c r="E914" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F914" t="s">
+        <v>2</v>
+      </c>
+      <c r="H914">
+        <v>3</v>
+      </c>
+      <c r="K914" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="915" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A915" s="1">
+        <v>913</v>
+      </c>
+      <c r="B915" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C915" t="s">
+        <v>990</v>
+      </c>
+      <c r="D915" t="s">
+        <v>35</v>
+      </c>
+      <c r="E915" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F915" t="s">
+        <v>8</v>
+      </c>
+      <c r="H915">
+        <v>1</v>
+      </c>
+      <c r="K915" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="916" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A916" s="1">
+        <v>914</v>
+      </c>
+      <c r="B916" t="s">
+        <v>1650</v>
+      </c>
+      <c r="C916" t="s">
+        <v>990</v>
+      </c>
+      <c r="D916" t="s">
+        <v>48</v>
+      </c>
+      <c r="E916" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F916" t="s">
+        <v>5</v>
+      </c>
+      <c r="H916">
+        <v>3</v>
+      </c>
+      <c r="K916" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="917" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A917" s="1">
+        <v>915</v>
+      </c>
+      <c r="B917" t="s">
+        <v>1652</v>
+      </c>
+      <c r="C917" t="s">
+        <v>990</v>
+      </c>
+      <c r="D917" t="s">
+        <v>48</v>
+      </c>
+      <c r="E917" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F917" t="s">
+        <v>2</v>
+      </c>
+      <c r="H917">
+        <v>1</v>
+      </c>
+      <c r="K917" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="918" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A918" s="1">
+        <v>916</v>
+      </c>
+      <c r="B918" t="s">
+        <v>1654</v>
+      </c>
+      <c r="C918" t="s">
+        <v>990</v>
+      </c>
+      <c r="D918" t="s">
+        <v>48</v>
+      </c>
+      <c r="E918" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F918" t="s">
+        <v>8</v>
+      </c>
+      <c r="H918">
+        <v>6</v>
+      </c>
+      <c r="K918" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="919" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A919" s="1">
+        <v>917</v>
+      </c>
+      <c r="B919" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C919" t="s">
+        <v>990</v>
+      </c>
+      <c r="D919" t="s">
+        <v>57</v>
+      </c>
+      <c r="E919" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F919" t="s">
+        <v>5</v>
+      </c>
+      <c r="H919">
+        <v>1</v>
+      </c>
+      <c r="K919" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="920" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A920" s="1">
+        <v>918</v>
+      </c>
+      <c r="B920" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C920" t="s">
+        <v>990</v>
+      </c>
+      <c r="D920" t="s">
+        <v>57</v>
+      </c>
+      <c r="E920" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F920" t="s">
+        <v>5</v>
+      </c>
+      <c r="H920">
+        <v>1</v>
+      </c>
+      <c r="K920" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="921" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A921" s="1">
+        <v>919</v>
+      </c>
+      <c r="B921" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C921" t="s">
+        <v>990</v>
+      </c>
+      <c r="D921" t="s">
+        <v>57</v>
+      </c>
+      <c r="E921" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F921" t="s">
+        <v>2</v>
+      </c>
+      <c r="H921">
+        <v>2</v>
+      </c>
+      <c r="K921" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="922" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A922" s="1">
+        <v>920</v>
+      </c>
+      <c r="B922" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C922" t="s">
+        <v>990</v>
+      </c>
+      <c r="D922" t="s">
+        <v>57</v>
+      </c>
+      <c r="E922" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F922" t="s">
+        <v>8</v>
+      </c>
+      <c r="H922">
+        <v>2</v>
+      </c>
+      <c r="K922" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="923" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A923" s="1">
+        <v>921</v>
+      </c>
+      <c r="B923" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C923" t="s">
+        <v>990</v>
+      </c>
+      <c r="D923" t="s">
+        <v>72</v>
+      </c>
+      <c r="E923" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F923" t="s">
+        <v>2</v>
+      </c>
+      <c r="H923">
+        <v>3</v>
+      </c>
+      <c r="K923" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="924" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A924" s="1">
+        <v>922</v>
+      </c>
+      <c r="B924" t="s">
+        <v>1665</v>
+      </c>
+      <c r="C924" t="s">
+        <v>990</v>
+      </c>
+      <c r="D924" t="s">
+        <v>72</v>
+      </c>
+      <c r="E924" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F924" t="s">
+        <v>8</v>
+      </c>
+      <c r="H924">
+        <v>3</v>
+      </c>
+      <c r="K924" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="925" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A925" s="1">
+        <v>923</v>
+      </c>
+      <c r="B925" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C925" t="s">
+        <v>990</v>
+      </c>
+      <c r="D925" t="s">
+        <v>85</v>
+      </c>
+      <c r="E925" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F925" t="s">
+        <v>5</v>
+      </c>
+      <c r="H925">
+        <v>2</v>
+      </c>
+      <c r="K925" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="926" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A926" s="1">
+        <v>924</v>
+      </c>
+      <c r="B926" t="s">
+        <v>1669</v>
+      </c>
+      <c r="C926" t="s">
+        <v>990</v>
+      </c>
+      <c r="D926" t="s">
+        <v>85</v>
+      </c>
+      <c r="E926" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F926" t="s">
+        <v>2</v>
+      </c>
+      <c r="H926">
+        <v>3</v>
+      </c>
+      <c r="K926" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="927" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A927" s="1">
+        <v>925</v>
+      </c>
+      <c r="B927" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C927" t="s">
+        <v>990</v>
+      </c>
+      <c r="D927" t="s">
+        <v>85</v>
+      </c>
+      <c r="E927" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F927" t="s">
+        <v>8</v>
+      </c>
+      <c r="H927">
+        <v>3</v>
+      </c>
+      <c r="K927" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="928" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A928" s="1">
+        <v>926</v>
+      </c>
+      <c r="B928" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C928" t="s">
+        <v>990</v>
+      </c>
+      <c r="D928" t="s">
+        <v>103</v>
+      </c>
+      <c r="E928" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F928" t="s">
+        <v>5</v>
+      </c>
+      <c r="H928">
+        <v>2</v>
+      </c>
+      <c r="K928" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="929" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A929" s="1">
+        <v>927</v>
+      </c>
+      <c r="B929" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C929" t="s">
+        <v>990</v>
+      </c>
+      <c r="D929" t="s">
+        <v>103</v>
+      </c>
+      <c r="E929" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F929" t="s">
+        <v>2</v>
+      </c>
+      <c r="H929">
+        <v>4</v>
+      </c>
+      <c r="K929" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="930" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A930" s="1">
+        <v>928</v>
+      </c>
+      <c r="B930" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C930" t="s">
+        <v>990</v>
+      </c>
+      <c r="D930" t="s">
+        <v>103</v>
+      </c>
+      <c r="E930" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F930" t="s">
+        <v>8</v>
+      </c>
+      <c r="H930">
+        <v>6</v>
+      </c>
+      <c r="K930" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="931" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A931" s="1">
+        <v>929</v>
+      </c>
+      <c r="B931" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C931" t="s">
+        <v>990</v>
+      </c>
+      <c r="D931" t="s">
+        <v>126</v>
+      </c>
+      <c r="E931" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F931" t="s">
+        <v>5</v>
+      </c>
+      <c r="H931">
+        <v>2</v>
+      </c>
+      <c r="K931" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="932" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A932" s="1">
+        <v>930</v>
+      </c>
+      <c r="B932" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C932" t="s">
+        <v>990</v>
+      </c>
+      <c r="D932" t="s">
+        <v>126</v>
+      </c>
+      <c r="E932" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F932" t="s">
+        <v>5</v>
+      </c>
+      <c r="H932">
+        <v>3</v>
+      </c>
+      <c r="K932" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="933" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A933" s="1">
+        <v>931</v>
+      </c>
+      <c r="B933" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C933" t="s">
+        <v>990</v>
+      </c>
+      <c r="E933" t="s">
+        <v>1606</v>
+      </c>
+      <c r="F933" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H933">
+        <v>3</v>
+      </c>
+      <c r="K933" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="934" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A934" s="1">
+        <v>932</v>
+      </c>
+      <c r="B934" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C934" t="s">
+        <v>990</v>
+      </c>
+      <c r="E934" t="s">
+        <v>1606</v>
+      </c>
+      <c r="F934" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H934">
+        <v>3</v>
+      </c>
+      <c r="K934" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="935" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A935" s="1">
+        <v>933</v>
+      </c>
+      <c r="B935" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C935" t="s">
+        <v>990</v>
+      </c>
+      <c r="E935" t="s">
+        <v>1606</v>
+      </c>
+      <c r="F935" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H935">
+        <v>8</v>
+      </c>
+      <c r="K935" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="936" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A936" s="1">
+        <v>934</v>
+      </c>
+      <c r="B936" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C936" t="s">
+        <v>990</v>
+      </c>
+      <c r="E936" t="s">
+        <v>887</v>
+      </c>
+      <c r="F936" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H936">
+        <v>3</v>
+      </c>
+      <c r="K936" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="937" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A937" s="1">
+        <v>935</v>
+      </c>
+      <c r="B937" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C937" t="s">
+        <v>990</v>
+      </c>
+      <c r="E937" t="s">
+        <v>1606</v>
+      </c>
+      <c r="F937" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H937">
+        <v>1</v>
+      </c>
+      <c r="K937" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="938" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A938" s="1">
+        <v>936</v>
+      </c>
+      <c r="B938" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C938" t="s">
+        <v>990</v>
+      </c>
+      <c r="E938" t="s">
+        <v>1606</v>
+      </c>
+      <c r="F938" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H938">
+        <v>1</v>
+      </c>
+      <c r="K938" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="939" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A939" s="1">
+        <v>937</v>
+      </c>
+      <c r="B939" t="s">
+        <v>1692</v>
+      </c>
+      <c r="C939" t="s">
+        <v>990</v>
+      </c>
+      <c r="E939" t="s">
+        <v>1606</v>
+      </c>
+      <c r="F939" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H939">
+        <v>1</v>
+      </c>
+      <c r="K939" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="940" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A940" s="1">
+        <v>938</v>
+      </c>
+      <c r="B940" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C940" t="s">
+        <v>833</v>
+      </c>
+      <c r="D940" t="s">
+        <v>48</v>
+      </c>
+      <c r="E940" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F940" t="s">
+        <v>2</v>
+      </c>
+      <c r="H940">
+        <v>2</v>
+      </c>
+      <c r="I940">
+        <v>2</v>
+      </c>
+      <c r="J940">
+        <v>2</v>
+      </c>
+      <c r="K940" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="941" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A941" s="1">
+        <v>939</v>
+      </c>
+      <c r="B941" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C941" t="s">
+        <v>833</v>
+      </c>
+      <c r="D941" t="s">
+        <v>72</v>
+      </c>
+      <c r="E941" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F941" t="s">
+        <v>8</v>
+      </c>
+      <c r="H941">
+        <v>4</v>
+      </c>
+      <c r="I941">
+        <v>1</v>
+      </c>
+      <c r="J941">
+        <v>3</v>
+      </c>
+      <c r="K941" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="942" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A942" s="1">
+        <v>940</v>
+      </c>
+      <c r="B942" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C942" t="s">
+        <v>833</v>
+      </c>
+      <c r="D942" t="s">
+        <v>85</v>
+      </c>
+      <c r="E942" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F942" t="s">
+        <v>8</v>
+      </c>
+      <c r="H942">
+        <v>4</v>
+      </c>
+      <c r="I942">
+        <v>2</v>
+      </c>
+      <c r="J942">
+        <v>4</v>
+      </c>
+      <c r="K942" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="943" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A943" s="1">
+        <v>941</v>
+      </c>
+      <c r="B943" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C943" t="s">
+        <v>833</v>
+      </c>
+      <c r="D943" t="s">
+        <v>126</v>
+      </c>
+      <c r="E943" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F943" t="s">
+        <v>2</v>
+      </c>
+      <c r="H943">
+        <v>3</v>
+      </c>
+      <c r="I943">
+        <v>3</v>
+      </c>
+      <c r="J943">
+        <v>2</v>
+      </c>
+      <c r="K943" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="944" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A944" s="1">
+        <v>942</v>
+      </c>
+      <c r="B944" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C944" t="s">
+        <v>833</v>
+      </c>
+      <c r="E944" t="s">
+        <v>1606</v>
+      </c>
+      <c r="F944" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H944">
+        <v>2</v>
+      </c>
+      <c r="I944">
+        <v>2</v>
+      </c>
+      <c r="J944">
+        <v>6</v>
+      </c>
+      <c r="K944" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="945" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A945" s="1">
+        <v>943</v>
+      </c>
+      <c r="B945" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C945" t="s">
+        <v>832</v>
+      </c>
+      <c r="E945" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F945" t="s">
+        <v>8</v>
+      </c>
+      <c r="G945" t="s">
+        <v>20</v>
+      </c>
+      <c r="H945">
+        <v>5</v>
+      </c>
+      <c r="I945">
+        <v>3</v>
+      </c>
+      <c r="J945">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="946" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A946" s="1">
+        <v>944</v>
+      </c>
+      <c r="B946" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C946" t="s">
+        <v>832</v>
+      </c>
+      <c r="E946" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F946" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H946">
+        <v>1</v>
+      </c>
+      <c r="I946">
+        <v>1</v>
+      </c>
+      <c r="J946">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="947" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A947" s="1">
+        <v>945</v>
+      </c>
+      <c r="B947" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C947" t="s">
+        <v>832</v>
+      </c>
+      <c r="E947" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F947" t="s">
+        <v>5</v>
+      </c>
+      <c r="G947" t="s">
+        <v>20</v>
+      </c>
+      <c r="H947">
+        <v>2</v>
+      </c>
+      <c r="I947">
+        <v>2</v>
+      </c>
+      <c r="J947">
+        <v>1</v>
+      </c>
+      <c r="K947" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="948" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A948" s="1">
+        <v>946</v>
+      </c>
+      <c r="B948" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C948" t="s">
+        <v>832</v>
+      </c>
+      <c r="E948" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F948" t="s">
+        <v>5</v>
+      </c>
+      <c r="G948" t="s">
+        <v>20</v>
+      </c>
+      <c r="H948">
+        <v>2</v>
+      </c>
+      <c r="I948">
+        <v>3</v>
+      </c>
+      <c r="J948">
+        <v>2</v>
+      </c>
+      <c r="K948" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="949" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A949" s="1">
+        <v>947</v>
+      </c>
+      <c r="B949" t="s">
+        <v>438</v>
+      </c>
+      <c r="C949" t="s">
+        <v>832</v>
+      </c>
+      <c r="E949" t="s">
+        <v>1419</v>
+      </c>
+      <c r="G949" t="s">
+        <v>20</v>
+      </c>
+      <c r="H949">
+        <v>3</v>
+      </c>
+      <c r="I949">
+        <v>4</v>
+      </c>
+      <c r="J949">
+        <v>2</v>
+      </c>
+      <c r="K949" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="950" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A950" s="1">
+        <v>948</v>
+      </c>
+      <c r="B950" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C950" t="s">
+        <v>990</v>
+      </c>
+      <c r="E950" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F950" t="s">
+        <v>5</v>
+      </c>
+      <c r="H950">
+        <v>0</v>
+      </c>
+      <c r="K950" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="951" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A951" s="1">
+        <v>949</v>
+      </c>
+      <c r="B951" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C951" t="s">
+        <v>990</v>
+      </c>
+      <c r="E951" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F951" t="s">
+        <v>5</v>
+      </c>
+      <c r="H951">
+        <v>0</v>
+      </c>
+      <c r="K951" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="952" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A952" s="1">
+        <v>950</v>
+      </c>
+      <c r="B952" t="s">
+        <v>1628</v>
+      </c>
+      <c r="C952" t="s">
+        <v>990</v>
+      </c>
+      <c r="E952" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F952" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H952">
+        <v>0</v>
+      </c>
+      <c r="K952" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="953" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A953" s="1">
+        <v>951</v>
+      </c>
+      <c r="B953" t="s">
+        <v>1628</v>
+      </c>
+      <c r="C953" t="s">
+        <v>990</v>
+      </c>
+      <c r="E953" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F953" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H953">
+        <v>0</v>
+      </c>
+      <c r="K953" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="954" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A954" s="1">
+        <v>952</v>
+      </c>
+      <c r="B954" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C954" t="s">
+        <v>990</v>
+      </c>
+      <c r="E954" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F954" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H954">
+        <v>0</v>
+      </c>
+      <c r="K954" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="955" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A955" s="1">
+        <v>953</v>
+      </c>
+      <c r="B955" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C955" t="s">
+        <v>833</v>
+      </c>
+      <c r="E955" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F955" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H955">
+        <v>1</v>
+      </c>
+      <c r="I955">
+        <v>2</v>
+      </c>
+      <c r="J955">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K709">
     <sortState ref="A2:K709">
@@ -28740,7 +34705,7 @@
   <sortState ref="A2:K709">
     <sortCondition ref="A2"/>
   </sortState>
-  <conditionalFormatting sqref="F1:F1048576 G787:G788">
+  <conditionalFormatting sqref="F1:F1048576 G905:G944 G950:G955">
     <cfRule type="cellIs" dxfId="3" priority="18" operator="equal">
       <formula>"Common"</formula>
     </cfRule>

--- a/card_info.xlsx
+++ b/card_info.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5596" uniqueCount="1718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5947" uniqueCount="1827">
   <si>
     <t>Keeper of the Grove</t>
   </si>
@@ -5176,6 +5176,333 @@
   </si>
   <si>
     <t>Your Charge minions have +1 Attack.</t>
+  </si>
+  <si>
+    <t>Murloc Tinyfin</t>
+  </si>
+  <si>
+    <t>The League of Explorers</t>
+  </si>
+  <si>
+    <t>Huge Toad</t>
+  </si>
+  <si>
+    <t>Deathrattle: Deal 1 damage to a random enemy.</t>
+  </si>
+  <si>
+    <t>Jeweled Scarab</t>
+  </si>
+  <si>
+    <t>Battlecry: Discover a 3-Cost card.</t>
+  </si>
+  <si>
+    <t>Tomb Spider</t>
+  </si>
+  <si>
+    <t>Battlecry: Discover a Beast.</t>
+  </si>
+  <si>
+    <t>Gorillabot A-3</t>
+  </si>
+  <si>
+    <t>Battlecry: If you control another Mech. Discover a Mech.</t>
+  </si>
+  <si>
+    <t>Anubisath Sentinel</t>
+  </si>
+  <si>
+    <t>Deathrattle: Give a random friendly minion +3/+3.</t>
+  </si>
+  <si>
+    <t>Fossilized Devilsaur</t>
+  </si>
+  <si>
+    <t>Battlecry: If you control a Beast, gain Taunt.</t>
+  </si>
+  <si>
+    <t>Ancient Shade</t>
+  </si>
+  <si>
+    <t>Battlecry: Shuffle an 'Ancient Curse' into your deck that deals 7 damage to you when drawn.</t>
+  </si>
+  <si>
+    <t>Eerie Statue</t>
+  </si>
+  <si>
+    <t>Can't attack unless it's the only minion in the battlefield.</t>
+  </si>
+  <si>
+    <t>Summoning Stone</t>
+  </si>
+  <si>
+    <t>Whenever you cast a spell, summon a random minion of the same Cost.</t>
+  </si>
+  <si>
+    <t>Wobbling Runts</t>
+  </si>
+  <si>
+    <t>Deathrattle: Summon three 2/2 Runts.</t>
+  </si>
+  <si>
+    <t>Djinni of Zephyrs</t>
+  </si>
+  <si>
+    <t>After you cast a spell on another friendly minion, cast a copy of it on this one.</t>
+  </si>
+  <si>
+    <t>Naga Sea Witch</t>
+  </si>
+  <si>
+    <t>Your cards cost (5).</t>
+  </si>
+  <si>
+    <t>Sir Finley Mrrgglton</t>
+  </si>
+  <si>
+    <t>Battlecry: Discover a new basic Hero Power.</t>
+  </si>
+  <si>
+    <t>Brann Bronzebeard</t>
+  </si>
+  <si>
+    <t>Your Battlecries trigger twice.</t>
+  </si>
+  <si>
+    <t>Elise Starseeker</t>
+  </si>
+  <si>
+    <t>Battlecry: Shuffle the 'Map to the Golden Monkey' into your deck.</t>
+  </si>
+  <si>
+    <t>Reno Jackson</t>
+  </si>
+  <si>
+    <t>Battlecry: If your deck contains no more than 1 of any card, fully heal your hero.</t>
+  </si>
+  <si>
+    <t>Arch-Thief Rafaam</t>
+  </si>
+  <si>
+    <t>Battlecry: Discover a powerful Artifact.</t>
+  </si>
+  <si>
+    <t>Grumbly Runt</t>
+  </si>
+  <si>
+    <t>Rascally Runt</t>
+  </si>
+  <si>
+    <t>Wily Runt</t>
+  </si>
+  <si>
+    <t>Mummy Zombie</t>
+  </si>
+  <si>
+    <t>Golden Monkey</t>
+  </si>
+  <si>
+    <t>Taunt. Battlecry: Replace your hand and deck with Legendary minions.</t>
+  </si>
+  <si>
+    <t>Mounted Raptor</t>
+  </si>
+  <si>
+    <t>Deathrattle: Summon a random 1-Cost minion.</t>
+  </si>
+  <si>
+    <t>Jungle Moonkin</t>
+  </si>
+  <si>
+    <t>Desert Camel</t>
+  </si>
+  <si>
+    <t>Battlecry: Put a 1-Cost minion from each deck into the battlefield.</t>
+  </si>
+  <si>
+    <t>Ethereal Conjurer</t>
+  </si>
+  <si>
+    <t>Battlecry: Discover a spell.</t>
+  </si>
+  <si>
+    <t>Animated Armor</t>
+  </si>
+  <si>
+    <t>Your hero can only take 1 damage at a time.</t>
+  </si>
+  <si>
+    <t>Keeper of Uldaman</t>
+  </si>
+  <si>
+    <t>Battlecry: Set a minion's Attack and Health to 3.</t>
+  </si>
+  <si>
+    <t>Museum Curator</t>
+  </si>
+  <si>
+    <t>Battlecry: Discover a Deathrattle card.</t>
+  </si>
+  <si>
+    <t>Pit Snake</t>
+  </si>
+  <si>
+    <t>Tomb Pillager</t>
+  </si>
+  <si>
+    <t>Deathrattle: Add a Coin to your hand.</t>
+  </si>
+  <si>
+    <t>Unearthed Raptor</t>
+  </si>
+  <si>
+    <t>Battlecry: Choose a friendly minion. Gain a copy of its Deathrattle effect.</t>
+  </si>
+  <si>
+    <t>Tunnel Trogg</t>
+  </si>
+  <si>
+    <t>Whenever you Overload, gain +1 Attack per locked Mana Crystal.</t>
+  </si>
+  <si>
+    <t>Rumbling Elemental</t>
+  </si>
+  <si>
+    <t>After you play a Battlecry minion, deal 2 damage to a random enemy.</t>
+  </si>
+  <si>
+    <t>Dark Peddler</t>
+  </si>
+  <si>
+    <t>Battlecry: Discover a 1-Cost card.</t>
+  </si>
+  <si>
+    <t>Reliquary Seeker</t>
+  </si>
+  <si>
+    <t>Battlecry: If you have 6 other minions, gian +4/+4.</t>
+  </si>
+  <si>
+    <t>Fierce Monkey</t>
+  </si>
+  <si>
+    <t>Obsidian Destroyer</t>
+  </si>
+  <si>
+    <t>At the end of your turn, summon a 1/1 Scarab with Taunt.</t>
+  </si>
+  <si>
+    <t>Scarab</t>
+  </si>
+  <si>
+    <t>Ancient Curse</t>
+  </si>
+  <si>
+    <t>When you draw this, take 7 damage and draw a card.</t>
+  </si>
+  <si>
+    <t>Map to the Golden Monkey</t>
+  </si>
+  <si>
+    <t>Shuffle the Golden Monkey into your deck. Draw a card.</t>
+  </si>
+  <si>
+    <t>Mirror of Doom</t>
+  </si>
+  <si>
+    <t>Fill your board with 3/3 Mummy Zombies.</t>
+  </si>
+  <si>
+    <t>Timepiece of Horror</t>
+  </si>
+  <si>
+    <t>Deal 10 damage randomly split among all enemies.</t>
+  </si>
+  <si>
+    <t>Lantern of Power</t>
+  </si>
+  <si>
+    <t>Give a minion +10/+10.</t>
+  </si>
+  <si>
+    <t>Raven Idol</t>
+  </si>
+  <si>
+    <t>Choose One - Discover a minion; or Discover a spell.</t>
+  </si>
+  <si>
+    <t>Dart Trap</t>
+  </si>
+  <si>
+    <t>Secret: When an opposing Hero Power is used, deal 5 damage to a random enemy.</t>
+  </si>
+  <si>
+    <t>Explorer's Hat</t>
+  </si>
+  <si>
+    <t>Give a minion +1/+1 and "Deathrattle: Add an Explorer's Hat to your hand."</t>
+  </si>
+  <si>
+    <t>Forgotten Torch</t>
+  </si>
+  <si>
+    <t>Deal 3 damage. Shuffle a 'Roaring Torch' into your deck that deals 6 damage.</t>
+  </si>
+  <si>
+    <t>Sacred Trial</t>
+  </si>
+  <si>
+    <t>Secret: When your opponent has at least 3 minions and plays another, destroy it.</t>
+  </si>
+  <si>
+    <t>Anyfin Can Happen</t>
+  </si>
+  <si>
+    <t>Summon 7 Murlocs that died this game.</t>
+  </si>
+  <si>
+    <t>Entomb</t>
+  </si>
+  <si>
+    <t>Choose an enemy minion. Shuffle it into your deck.</t>
+  </si>
+  <si>
+    <t>Excavated Evil</t>
+  </si>
+  <si>
+    <t>Deal 3 damage to all minions. Shuffle this card into your opponent's deck.</t>
+  </si>
+  <si>
+    <t>Everyfin is Awesome</t>
+  </si>
+  <si>
+    <t>Give your minions +2/+2. Costs (1) less for each Murloc you control.</t>
+  </si>
+  <si>
+    <t>Curse of Rafaam</t>
+  </si>
+  <si>
+    <t>Give your opponent a 'Cursed!' card. While they hold it, they take 2 damage on their turn.</t>
+  </si>
+  <si>
+    <t>Cursed!</t>
+  </si>
+  <si>
+    <t>While this is in your hand, take 2 damage at the start of your turn.</t>
+  </si>
+  <si>
+    <t>Roaring Torch</t>
+  </si>
+  <si>
+    <t>Discover a minion.</t>
+  </si>
+  <si>
+    <t>Discover a spell.</t>
+  </si>
+  <si>
+    <t>Cursed Blade</t>
+  </si>
+  <si>
+    <t>Double all damage dealt to your hero.</t>
   </si>
 </sst>
 </file>
@@ -5236,7 +5563,47 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FFF07000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFAB48EE"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF198EFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0FAF03"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFF07000"/>
@@ -5582,11 +5949,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K955"/>
+  <dimension ref="A1:K1015"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K100" sqref="K100"/>
+      <pane ySplit="1" topLeftCell="A963" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1015" sqref="B1015"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34696,12 +35063,1791 @@
         <v>2</v>
       </c>
     </row>
+    <row r="956" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A956" s="1">
+        <v>954</v>
+      </c>
+      <c r="B956" t="s">
+        <v>1718</v>
+      </c>
+      <c r="C956" t="s">
+        <v>831</v>
+      </c>
+      <c r="D956" t="s">
+        <v>139</v>
+      </c>
+      <c r="E956" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F956" t="s">
+        <v>5</v>
+      </c>
+      <c r="G956" t="s">
+        <v>153</v>
+      </c>
+      <c r="H956">
+        <v>0</v>
+      </c>
+      <c r="I956">
+        <v>1</v>
+      </c>
+      <c r="J956">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="957" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A957" s="1">
+        <v>955</v>
+      </c>
+      <c r="B957" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C957" t="s">
+        <v>831</v>
+      </c>
+      <c r="D957" t="s">
+        <v>139</v>
+      </c>
+      <c r="E957" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F957" t="s">
+        <v>5</v>
+      </c>
+      <c r="G957" t="s">
+        <v>20</v>
+      </c>
+      <c r="H957">
+        <v>2</v>
+      </c>
+      <c r="I957">
+        <v>3</v>
+      </c>
+      <c r="J957">
+        <v>2</v>
+      </c>
+      <c r="K957" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="958" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A958" s="1">
+        <v>956</v>
+      </c>
+      <c r="B958" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C958" t="s">
+        <v>831</v>
+      </c>
+      <c r="D958" t="s">
+        <v>139</v>
+      </c>
+      <c r="E958" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F958" t="s">
+        <v>5</v>
+      </c>
+      <c r="G958" t="s">
+        <v>20</v>
+      </c>
+      <c r="H958">
+        <v>2</v>
+      </c>
+      <c r="I958">
+        <v>1</v>
+      </c>
+      <c r="J958">
+        <v>1</v>
+      </c>
+      <c r="K958" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="959" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A959" s="1">
+        <v>957</v>
+      </c>
+      <c r="B959" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C959" t="s">
+        <v>831</v>
+      </c>
+      <c r="D959" t="s">
+        <v>139</v>
+      </c>
+      <c r="E959" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F959" t="s">
+        <v>5</v>
+      </c>
+      <c r="G959" t="s">
+        <v>20</v>
+      </c>
+      <c r="H959">
+        <v>4</v>
+      </c>
+      <c r="I959">
+        <v>3</v>
+      </c>
+      <c r="J959">
+        <v>3</v>
+      </c>
+      <c r="K959" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="960" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A960" s="1">
+        <v>958</v>
+      </c>
+      <c r="B960" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C960" t="s">
+        <v>831</v>
+      </c>
+      <c r="D960" t="s">
+        <v>139</v>
+      </c>
+      <c r="E960" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F960" t="s">
+        <v>5</v>
+      </c>
+      <c r="G960" t="s">
+        <v>1004</v>
+      </c>
+      <c r="H960">
+        <v>4</v>
+      </c>
+      <c r="I960">
+        <v>3</v>
+      </c>
+      <c r="J960">
+        <v>4</v>
+      </c>
+      <c r="K960" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="961" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A961" s="1">
+        <v>959</v>
+      </c>
+      <c r="B961" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C961" t="s">
+        <v>831</v>
+      </c>
+      <c r="D961" t="s">
+        <v>139</v>
+      </c>
+      <c r="E961" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F961" t="s">
+        <v>5</v>
+      </c>
+      <c r="H961">
+        <v>5</v>
+      </c>
+      <c r="I961">
+        <v>4</v>
+      </c>
+      <c r="J961">
+        <v>4</v>
+      </c>
+      <c r="K961" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="962" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A962" s="1">
+        <v>960</v>
+      </c>
+      <c r="B962" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C962" t="s">
+        <v>831</v>
+      </c>
+      <c r="D962" t="s">
+        <v>139</v>
+      </c>
+      <c r="E962" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F962" t="s">
+        <v>5</v>
+      </c>
+      <c r="H962">
+        <v>8</v>
+      </c>
+      <c r="I962">
+        <v>8</v>
+      </c>
+      <c r="J962">
+        <v>8</v>
+      </c>
+      <c r="K962" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="963" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A963" s="1">
+        <v>961</v>
+      </c>
+      <c r="B963" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C963" t="s">
+        <v>831</v>
+      </c>
+      <c r="D963" t="s">
+        <v>139</v>
+      </c>
+      <c r="E963" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F963" t="s">
+        <v>2</v>
+      </c>
+      <c r="H963">
+        <v>4</v>
+      </c>
+      <c r="I963">
+        <v>7</v>
+      </c>
+      <c r="J963">
+        <v>4</v>
+      </c>
+      <c r="K963" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="964" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A964" s="1">
+        <v>962</v>
+      </c>
+      <c r="B964" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C964" t="s">
+        <v>831</v>
+      </c>
+      <c r="D964" t="s">
+        <v>139</v>
+      </c>
+      <c r="E964" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F964" t="s">
+        <v>2</v>
+      </c>
+      <c r="H964">
+        <v>4</v>
+      </c>
+      <c r="I964">
+        <v>7</v>
+      </c>
+      <c r="J964">
+        <v>7</v>
+      </c>
+      <c r="K964" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="965" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A965" s="1">
+        <v>963</v>
+      </c>
+      <c r="B965" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C965" t="s">
+        <v>831</v>
+      </c>
+      <c r="D965" t="s">
+        <v>139</v>
+      </c>
+      <c r="E965" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F965" t="s">
+        <v>2</v>
+      </c>
+      <c r="H965">
+        <v>5</v>
+      </c>
+      <c r="I965">
+        <v>0</v>
+      </c>
+      <c r="J965">
+        <v>6</v>
+      </c>
+      <c r="K965" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="966" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A966" s="1">
+        <v>964</v>
+      </c>
+      <c r="B966" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C966" t="s">
+        <v>831</v>
+      </c>
+      <c r="D966" t="s">
+        <v>139</v>
+      </c>
+      <c r="E966" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F966" t="s">
+        <v>2</v>
+      </c>
+      <c r="H966">
+        <v>6</v>
+      </c>
+      <c r="I966">
+        <v>2</v>
+      </c>
+      <c r="J966">
+        <v>6</v>
+      </c>
+      <c r="K966" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="967" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A967" s="1">
+        <v>965</v>
+      </c>
+      <c r="B967" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C967" t="s">
+        <v>831</v>
+      </c>
+      <c r="D967" t="s">
+        <v>139</v>
+      </c>
+      <c r="E967" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F967" t="s">
+        <v>8</v>
+      </c>
+      <c r="H967">
+        <v>5</v>
+      </c>
+      <c r="I967">
+        <v>4</v>
+      </c>
+      <c r="J967">
+        <v>6</v>
+      </c>
+      <c r="K967" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="968" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A968" s="1">
+        <v>966</v>
+      </c>
+      <c r="B968" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C968" t="s">
+        <v>831</v>
+      </c>
+      <c r="D968" t="s">
+        <v>139</v>
+      </c>
+      <c r="E968" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F968" t="s">
+        <v>8</v>
+      </c>
+      <c r="H968">
+        <v>5</v>
+      </c>
+      <c r="I968">
+        <v>5</v>
+      </c>
+      <c r="J968">
+        <v>5</v>
+      </c>
+      <c r="K968" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="969" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A969" s="1">
+        <v>967</v>
+      </c>
+      <c r="B969" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C969" t="s">
+        <v>831</v>
+      </c>
+      <c r="D969" t="s">
+        <v>139</v>
+      </c>
+      <c r="E969" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F969" t="s">
+        <v>16</v>
+      </c>
+      <c r="G969" t="s">
+        <v>153</v>
+      </c>
+      <c r="H969">
+        <v>1</v>
+      </c>
+      <c r="I969">
+        <v>1</v>
+      </c>
+      <c r="J969">
+        <v>3</v>
+      </c>
+      <c r="K969" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="970" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A970" s="1">
+        <v>968</v>
+      </c>
+      <c r="B970" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C970" t="s">
+        <v>831</v>
+      </c>
+      <c r="D970" t="s">
+        <v>139</v>
+      </c>
+      <c r="E970" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F970" t="s">
+        <v>16</v>
+      </c>
+      <c r="H970">
+        <v>3</v>
+      </c>
+      <c r="I970">
+        <v>2</v>
+      </c>
+      <c r="J970">
+        <v>4</v>
+      </c>
+      <c r="K970" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="971" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A971" s="1">
+        <v>969</v>
+      </c>
+      <c r="B971" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C971" t="s">
+        <v>831</v>
+      </c>
+      <c r="D971" t="s">
+        <v>139</v>
+      </c>
+      <c r="E971" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F971" t="s">
+        <v>16</v>
+      </c>
+      <c r="H971">
+        <v>4</v>
+      </c>
+      <c r="I971">
+        <v>3</v>
+      </c>
+      <c r="J971">
+        <v>5</v>
+      </c>
+      <c r="K971" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="972" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A972" s="1">
+        <v>970</v>
+      </c>
+      <c r="B972" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C972" t="s">
+        <v>831</v>
+      </c>
+      <c r="D972" t="s">
+        <v>139</v>
+      </c>
+      <c r="E972" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F972" t="s">
+        <v>16</v>
+      </c>
+      <c r="H972">
+        <v>6</v>
+      </c>
+      <c r="I972">
+        <v>4</v>
+      </c>
+      <c r="J972">
+        <v>6</v>
+      </c>
+      <c r="K972" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="973" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A973" s="1">
+        <v>971</v>
+      </c>
+      <c r="B973" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C973" t="s">
+        <v>831</v>
+      </c>
+      <c r="D973" t="s">
+        <v>139</v>
+      </c>
+      <c r="E973" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F973" t="s">
+        <v>16</v>
+      </c>
+      <c r="H973">
+        <v>9</v>
+      </c>
+      <c r="I973">
+        <v>7</v>
+      </c>
+      <c r="J973">
+        <v>8</v>
+      </c>
+      <c r="K973" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="974" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A974" s="1">
+        <v>972</v>
+      </c>
+      <c r="B974" t="s">
+        <v>1754</v>
+      </c>
+      <c r="C974" t="s">
+        <v>831</v>
+      </c>
+      <c r="E974" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F974" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H974">
+        <v>2</v>
+      </c>
+      <c r="I974">
+        <v>2</v>
+      </c>
+      <c r="J974">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="975" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A975" s="1">
+        <v>973</v>
+      </c>
+      <c r="B975" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C975" t="s">
+        <v>831</v>
+      </c>
+      <c r="E975" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F975" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H975">
+        <v>2</v>
+      </c>
+      <c r="I975">
+        <v>2</v>
+      </c>
+      <c r="J975">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="976" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A976" s="1">
+        <v>974</v>
+      </c>
+      <c r="B976" t="s">
+        <v>1756</v>
+      </c>
+      <c r="C976" t="s">
+        <v>831</v>
+      </c>
+      <c r="E976" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F976" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H976">
+        <v>2</v>
+      </c>
+      <c r="I976">
+        <v>2</v>
+      </c>
+      <c r="J976">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="977" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A977" s="1">
+        <v>975</v>
+      </c>
+      <c r="B977" t="s">
+        <v>1757</v>
+      </c>
+      <c r="C977" t="s">
+        <v>831</v>
+      </c>
+      <c r="E977" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F977" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H977">
+        <v>3</v>
+      </c>
+      <c r="I977">
+        <v>3</v>
+      </c>
+      <c r="J977">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="978" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A978" s="1">
+        <v>976</v>
+      </c>
+      <c r="B978" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C978" t="s">
+        <v>831</v>
+      </c>
+      <c r="E978" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F978" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H978">
+        <v>4</v>
+      </c>
+      <c r="I978">
+        <v>6</v>
+      </c>
+      <c r="J978">
+        <v>6</v>
+      </c>
+      <c r="K978" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="979" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A979" s="1">
+        <v>977</v>
+      </c>
+      <c r="B979" t="s">
+        <v>1760</v>
+      </c>
+      <c r="C979" t="s">
+        <v>831</v>
+      </c>
+      <c r="D979" t="s">
+        <v>1</v>
+      </c>
+      <c r="E979" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F979" t="s">
+        <v>5</v>
+      </c>
+      <c r="G979" t="s">
+        <v>20</v>
+      </c>
+      <c r="H979">
+        <v>3</v>
+      </c>
+      <c r="I979">
+        <v>3</v>
+      </c>
+      <c r="J979">
+        <v>2</v>
+      </c>
+      <c r="K979" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="980" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A980" s="1">
+        <v>978</v>
+      </c>
+      <c r="B980" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C980" t="s">
+        <v>831</v>
+      </c>
+      <c r="D980" t="s">
+        <v>1</v>
+      </c>
+      <c r="E980" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F980" t="s">
+        <v>2</v>
+      </c>
+      <c r="G980" t="s">
+        <v>20</v>
+      </c>
+      <c r="H980">
+        <v>4</v>
+      </c>
+      <c r="I980">
+        <v>4</v>
+      </c>
+      <c r="J980">
+        <v>4</v>
+      </c>
+      <c r="K980" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="981" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A981" s="1">
+        <v>979</v>
+      </c>
+      <c r="B981" t="s">
+        <v>1763</v>
+      </c>
+      <c r="C981" t="s">
+        <v>831</v>
+      </c>
+      <c r="D981" t="s">
+        <v>19</v>
+      </c>
+      <c r="E981" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F981" t="s">
+        <v>5</v>
+      </c>
+      <c r="G981" t="s">
+        <v>20</v>
+      </c>
+      <c r="H981">
+        <v>3</v>
+      </c>
+      <c r="I981">
+        <v>2</v>
+      </c>
+      <c r="J981">
+        <v>4</v>
+      </c>
+      <c r="K981" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="982" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A982" s="1">
+        <v>980</v>
+      </c>
+      <c r="B982" t="s">
+        <v>1765</v>
+      </c>
+      <c r="C982" t="s">
+        <v>831</v>
+      </c>
+      <c r="D982" t="s">
+        <v>35</v>
+      </c>
+      <c r="E982" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F982" t="s">
+        <v>5</v>
+      </c>
+      <c r="H982">
+        <v>5</v>
+      </c>
+      <c r="I982">
+        <v>6</v>
+      </c>
+      <c r="J982">
+        <v>3</v>
+      </c>
+      <c r="K982" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="983" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A983" s="1">
+        <v>981</v>
+      </c>
+      <c r="B983" t="s">
+        <v>1767</v>
+      </c>
+      <c r="C983" t="s">
+        <v>831</v>
+      </c>
+      <c r="D983" t="s">
+        <v>35</v>
+      </c>
+      <c r="E983" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F983" t="s">
+        <v>2</v>
+      </c>
+      <c r="H983">
+        <v>4</v>
+      </c>
+      <c r="I983">
+        <v>4</v>
+      </c>
+      <c r="J983">
+        <v>4</v>
+      </c>
+      <c r="K983" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="984" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A984" s="1">
+        <v>982</v>
+      </c>
+      <c r="B984" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C984" t="s">
+        <v>831</v>
+      </c>
+      <c r="D984" t="s">
+        <v>48</v>
+      </c>
+      <c r="E984" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F984" t="s">
+        <v>5</v>
+      </c>
+      <c r="H984">
+        <v>4</v>
+      </c>
+      <c r="I984">
+        <v>3</v>
+      </c>
+      <c r="J984">
+        <v>4</v>
+      </c>
+      <c r="K984" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="985" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A985" s="1">
+        <v>983</v>
+      </c>
+      <c r="B985" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C985" t="s">
+        <v>831</v>
+      </c>
+      <c r="D985" t="s">
+        <v>57</v>
+      </c>
+      <c r="E985" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F985" t="s">
+        <v>5</v>
+      </c>
+      <c r="H985">
+        <v>2</v>
+      </c>
+      <c r="I985">
+        <v>1</v>
+      </c>
+      <c r="J985">
+        <v>2</v>
+      </c>
+      <c r="K985" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="986" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A986" s="1">
+        <v>984</v>
+      </c>
+      <c r="B986" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C986" t="s">
+        <v>831</v>
+      </c>
+      <c r="D986" t="s">
+        <v>72</v>
+      </c>
+      <c r="E986" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F986" t="s">
+        <v>5</v>
+      </c>
+      <c r="G986" t="s">
+        <v>20</v>
+      </c>
+      <c r="H986">
+        <v>1</v>
+      </c>
+      <c r="I986">
+        <v>2</v>
+      </c>
+      <c r="J986">
+        <v>1</v>
+      </c>
+      <c r="K986" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="987" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A987" s="1">
+        <v>985</v>
+      </c>
+      <c r="B987" t="s">
+        <v>1774</v>
+      </c>
+      <c r="C987" t="s">
+        <v>831</v>
+      </c>
+      <c r="D987" t="s">
+        <v>72</v>
+      </c>
+      <c r="E987" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F987" t="s">
+        <v>5</v>
+      </c>
+      <c r="H987">
+        <v>4</v>
+      </c>
+      <c r="I987">
+        <v>5</v>
+      </c>
+      <c r="J987">
+        <v>4</v>
+      </c>
+      <c r="K987" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="988" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A988" s="1">
+        <v>986</v>
+      </c>
+      <c r="B988" t="s">
+        <v>1776</v>
+      </c>
+      <c r="C988" t="s">
+        <v>831</v>
+      </c>
+      <c r="D988" t="s">
+        <v>72</v>
+      </c>
+      <c r="E988" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F988" t="s">
+        <v>2</v>
+      </c>
+      <c r="H988">
+        <v>3</v>
+      </c>
+      <c r="I988">
+        <v>3</v>
+      </c>
+      <c r="J988">
+        <v>4</v>
+      </c>
+      <c r="K988" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="989" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A989" s="1">
+        <v>987</v>
+      </c>
+      <c r="B989" t="s">
+        <v>1778</v>
+      </c>
+      <c r="C989" t="s">
+        <v>831</v>
+      </c>
+      <c r="D989" t="s">
+        <v>85</v>
+      </c>
+      <c r="E989" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F989" t="s">
+        <v>5</v>
+      </c>
+      <c r="H989">
+        <v>1</v>
+      </c>
+      <c r="I989">
+        <v>1</v>
+      </c>
+      <c r="J989">
+        <v>3</v>
+      </c>
+      <c r="K989" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="990" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A990" s="1">
+        <v>988</v>
+      </c>
+      <c r="B990" t="s">
+        <v>1780</v>
+      </c>
+      <c r="C990" t="s">
+        <v>831</v>
+      </c>
+      <c r="D990" t="s">
+        <v>85</v>
+      </c>
+      <c r="E990" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F990" t="s">
+        <v>5</v>
+      </c>
+      <c r="H990">
+        <v>4</v>
+      </c>
+      <c r="I990">
+        <v>2</v>
+      </c>
+      <c r="J990">
+        <v>6</v>
+      </c>
+      <c r="K990" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="991" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A991" s="1">
+        <v>989</v>
+      </c>
+      <c r="B991" t="s">
+        <v>1782</v>
+      </c>
+      <c r="C991" t="s">
+        <v>831</v>
+      </c>
+      <c r="D991" t="s">
+        <v>103</v>
+      </c>
+      <c r="E991" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F991" t="s">
+        <v>5</v>
+      </c>
+      <c r="H991">
+        <v>2</v>
+      </c>
+      <c r="I991">
+        <v>2</v>
+      </c>
+      <c r="J991">
+        <v>2</v>
+      </c>
+      <c r="K991" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="992" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A992" s="1">
+        <v>990</v>
+      </c>
+      <c r="B992" t="s">
+        <v>1784</v>
+      </c>
+      <c r="C992" t="s">
+        <v>831</v>
+      </c>
+      <c r="D992" t="s">
+        <v>103</v>
+      </c>
+      <c r="E992" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F992" t="s">
+        <v>2</v>
+      </c>
+      <c r="H992">
+        <v>1</v>
+      </c>
+      <c r="I992">
+        <v>1</v>
+      </c>
+      <c r="J992">
+        <v>1</v>
+      </c>
+      <c r="K992" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="993" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A993" s="1">
+        <v>991</v>
+      </c>
+      <c r="B993" t="s">
+        <v>1786</v>
+      </c>
+      <c r="C993" t="s">
+        <v>831</v>
+      </c>
+      <c r="D993" t="s">
+        <v>126</v>
+      </c>
+      <c r="E993" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F993" t="s">
+        <v>5</v>
+      </c>
+      <c r="G993" t="s">
+        <v>20</v>
+      </c>
+      <c r="H993">
+        <v>3</v>
+      </c>
+      <c r="I993">
+        <v>3</v>
+      </c>
+      <c r="J993">
+        <v>4</v>
+      </c>
+      <c r="K993" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="994" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A994" s="1">
+        <v>992</v>
+      </c>
+      <c r="B994" t="s">
+        <v>1787</v>
+      </c>
+      <c r="C994" t="s">
+        <v>831</v>
+      </c>
+      <c r="D994" t="s">
+        <v>126</v>
+      </c>
+      <c r="E994" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F994" t="s">
+        <v>5</v>
+      </c>
+      <c r="H994">
+        <v>7</v>
+      </c>
+      <c r="I994">
+        <v>7</v>
+      </c>
+      <c r="J994">
+        <v>7</v>
+      </c>
+      <c r="K994" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="995" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A995" s="1">
+        <v>993</v>
+      </c>
+      <c r="B995" t="s">
+        <v>1789</v>
+      </c>
+      <c r="C995" t="s">
+        <v>831</v>
+      </c>
+      <c r="E995" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F995" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H995">
+        <v>1</v>
+      </c>
+      <c r="I995">
+        <v>1</v>
+      </c>
+      <c r="J995">
+        <v>1</v>
+      </c>
+      <c r="K995" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="996" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A996" s="1">
+        <v>994</v>
+      </c>
+      <c r="B996" t="s">
+        <v>1790</v>
+      </c>
+      <c r="C996" t="s">
+        <v>989</v>
+      </c>
+      <c r="E996" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F996" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H996">
+        <v>0</v>
+      </c>
+      <c r="K996" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="997" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A997" s="1">
+        <v>995</v>
+      </c>
+      <c r="B997" t="s">
+        <v>1792</v>
+      </c>
+      <c r="C997" t="s">
+        <v>989</v>
+      </c>
+      <c r="E997" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F997" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H997">
+        <v>2</v>
+      </c>
+      <c r="K997" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="998" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A998" s="1">
+        <v>996</v>
+      </c>
+      <c r="B998" t="s">
+        <v>1794</v>
+      </c>
+      <c r="C998" t="s">
+        <v>989</v>
+      </c>
+      <c r="E998" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F998" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H998">
+        <v>10</v>
+      </c>
+      <c r="K998" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="999" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A999" s="1">
+        <v>997</v>
+      </c>
+      <c r="B999" t="s">
+        <v>1796</v>
+      </c>
+      <c r="C999" t="s">
+        <v>989</v>
+      </c>
+      <c r="E999" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F999" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H999">
+        <v>10</v>
+      </c>
+      <c r="K999" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1000" s="1">
+        <v>998</v>
+      </c>
+      <c r="B1000" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C1000" t="s">
+        <v>989</v>
+      </c>
+      <c r="E1000" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F1000" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H1000">
+        <v>10</v>
+      </c>
+      <c r="K1000" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1001" s="1">
+        <v>999</v>
+      </c>
+      <c r="B1001" t="s">
+        <v>1800</v>
+      </c>
+      <c r="C1001" t="s">
+        <v>989</v>
+      </c>
+      <c r="D1001" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1001" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F1001" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1001">
+        <v>1</v>
+      </c>
+      <c r="K1001" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1002" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B1002" t="s">
+        <v>1802</v>
+      </c>
+      <c r="C1002" t="s">
+        <v>989</v>
+      </c>
+      <c r="D1002" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1002" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F1002" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1002">
+        <v>2</v>
+      </c>
+      <c r="K1002" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1003" s="1">
+        <v>1001</v>
+      </c>
+      <c r="B1003" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C1003" t="s">
+        <v>989</v>
+      </c>
+      <c r="D1003" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1003" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F1003" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1003">
+        <v>2</v>
+      </c>
+      <c r="K1003" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1004" s="1">
+        <v>1002</v>
+      </c>
+      <c r="B1004" t="s">
+        <v>1806</v>
+      </c>
+      <c r="C1004" t="s">
+        <v>989</v>
+      </c>
+      <c r="D1004" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1004" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F1004" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1004">
+        <v>3</v>
+      </c>
+      <c r="K1004" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1005" s="1">
+        <v>1003</v>
+      </c>
+      <c r="B1005" t="s">
+        <v>1808</v>
+      </c>
+      <c r="C1005" t="s">
+        <v>989</v>
+      </c>
+      <c r="D1005" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1005" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F1005" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1005">
+        <v>1</v>
+      </c>
+      <c r="K1005" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1006" s="1">
+        <v>1004</v>
+      </c>
+      <c r="B1006" t="s">
+        <v>1810</v>
+      </c>
+      <c r="C1006" t="s">
+        <v>989</v>
+      </c>
+      <c r="D1006" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1006" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F1006" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1006">
+        <v>10</v>
+      </c>
+      <c r="K1006" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1007" s="1">
+        <v>1005</v>
+      </c>
+      <c r="B1007" t="s">
+        <v>1812</v>
+      </c>
+      <c r="C1007" t="s">
+        <v>989</v>
+      </c>
+      <c r="D1007" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1007" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F1007" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1007">
+        <v>6</v>
+      </c>
+      <c r="K1007" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1008" s="1">
+        <v>1006</v>
+      </c>
+      <c r="B1008" t="s">
+        <v>1814</v>
+      </c>
+      <c r="C1008" t="s">
+        <v>989</v>
+      </c>
+      <c r="D1008" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1008" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F1008" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1008">
+        <v>5</v>
+      </c>
+      <c r="K1008" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1009" s="1">
+        <v>1007</v>
+      </c>
+      <c r="B1009" t="s">
+        <v>1816</v>
+      </c>
+      <c r="C1009" t="s">
+        <v>989</v>
+      </c>
+      <c r="D1009" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1009" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F1009" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1009">
+        <v>7</v>
+      </c>
+      <c r="K1009" t="s">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1010" s="1">
+        <v>1008</v>
+      </c>
+      <c r="B1010" t="s">
+        <v>1818</v>
+      </c>
+      <c r="C1010" t="s">
+        <v>989</v>
+      </c>
+      <c r="D1010" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1010" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F1010" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1010">
+        <v>2</v>
+      </c>
+      <c r="K1010" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1011" s="1">
+        <v>1009</v>
+      </c>
+      <c r="B1011" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C1011" t="s">
+        <v>989</v>
+      </c>
+      <c r="E1011" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F1011" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H1011">
+        <v>2</v>
+      </c>
+      <c r="K1011" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1012" s="1">
+        <v>1010</v>
+      </c>
+      <c r="B1012" t="s">
+        <v>1822</v>
+      </c>
+      <c r="C1012" t="s">
+        <v>989</v>
+      </c>
+      <c r="E1012" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F1012" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H1012">
+        <v>3</v>
+      </c>
+      <c r="K1012" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1013" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B1013" t="s">
+        <v>1800</v>
+      </c>
+      <c r="C1013" t="s">
+        <v>989</v>
+      </c>
+      <c r="E1013" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F1013" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H1013">
+        <v>0</v>
+      </c>
+      <c r="K1013" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1014" s="1">
+        <v>1012</v>
+      </c>
+      <c r="B1014" t="s">
+        <v>1800</v>
+      </c>
+      <c r="C1014" t="s">
+        <v>989</v>
+      </c>
+      <c r="E1014" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F1014" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H1014">
+        <v>0</v>
+      </c>
+      <c r="K1014" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1015" s="1">
+        <v>1013</v>
+      </c>
+      <c r="B1015" t="s">
+        <v>1825</v>
+      </c>
+      <c r="C1015" t="s">
+        <v>832</v>
+      </c>
+      <c r="D1015" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1015" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F1015" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1015">
+        <v>1</v>
+      </c>
+      <c r="I1015">
+        <v>2</v>
+      </c>
+      <c r="J1015">
+        <v>3</v>
+      </c>
+      <c r="K1015" t="s">
+        <v>1826</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K955"/>
   <sortState ref="A2:K709">
     <sortCondition ref="A2"/>
   </sortState>
-  <conditionalFormatting sqref="F1:F1048576 G905:G944 G950:G955">
+  <conditionalFormatting sqref="F1:F1048576">
     <cfRule type="cellIs" dxfId="3" priority="18" operator="equal">
       <formula>"Common"</formula>
     </cfRule>
